--- a/4조 PMS 시스템 통합 테스트 시나리오(수정).xlsx
+++ b/4조 PMS 시스템 통합 테스트 시나리오(수정).xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Java Presentation\FINAL★\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\workspace\project06\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,15 +13,16 @@
   </bookViews>
   <sheets>
     <sheet name="개발계획" sheetId="1" r:id="rId1"/>
-    <sheet name="테스트 시나리오" sheetId="7" r:id="rId2"/>
-    <sheet name="이슈리스트" sheetId="12" r:id="rId3"/>
+    <sheet name="권한별 로그인" sheetId="13" r:id="rId2"/>
+    <sheet name="테스트 시나리오" sheetId="7" r:id="rId3"/>
+    <sheet name="이슈리스트" sheetId="12" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="515">
   <si>
     <t>PMS 개발계획</t>
   </si>
@@ -1564,6 +1565,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -1582,6 +1584,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1600,6 +1603,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1618,6 +1622,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1636,6 +1641,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1654,6 +1660,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1672,6 +1679,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1690,6 +1698,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1709,6 +1718,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - </t>
     </r>
@@ -1727,6 +1737,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1745,6 +1756,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1763,6 +1775,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1781,6 +1794,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1799,6 +1813,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1817,6 +1832,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1836,6 +1852,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - </t>
     </r>
@@ -1854,6 +1871,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1872,6 +1890,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1890,6 +1909,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">("3.3.2.PM </t>
     </r>
@@ -1908,6 +1928,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1926,6 +1947,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">)","3.3.6.PM </t>
     </r>
@@ -1944,6 +1966,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1962,6 +1985,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">)") </t>
     </r>
@@ -1980,6 +2004,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -1998,6 +2023,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2016,6 +2042,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(100%, </t>
     </r>
@@ -2034,6 +2061,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2054,6 +2082,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -2072,6 +2101,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> "PM </t>
     </r>
@@ -2090,6 +2120,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2108,6 +2139,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">)","PM </t>
     </r>
@@ -2126,6 +2158,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2144,6 +2177,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)"</t>
     </r>
@@ -2162,6 +2196,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2180,6 +2215,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2198,6 +2234,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2217,6 +2254,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> - </t>
     </r>
@@ -2235,6 +2273,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2253,6 +2292,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2271,6 +2311,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2289,6 +2330,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2307,6 +2349,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2325,6 +2368,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2343,6 +2387,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2361,6 +2406,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(100, </t>
     </r>
@@ -2379,6 +2425,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2399,6 +2446,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">- </t>
     </r>
@@ -2417,6 +2465,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2435,6 +2484,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(3.3.2.PM </t>
     </r>
@@ -2453,6 +2503,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -2471,6 +2522,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2489,6 +2541,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(100-&gt;0), </t>
     </r>
@@ -2507,6 +2560,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2525,6 +2579,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2543,6 +2598,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2561,6 +2617,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-&gt;</t>
     </r>
@@ -2579,6 +2636,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">)
  - </t>
@@ -2598,6 +2656,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2616,6 +2675,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(3.3.6.PM </t>
     </r>
@@ -2634,6 +2694,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">) </t>
     </r>
@@ -2652,6 +2713,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2670,6 +2732,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2688,6 +2751,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2706,6 +2770,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-&gt;</t>
     </r>
@@ -2724,6 +2789,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">)
  - </t>
@@ -2743,6 +2809,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2761,6 +2828,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">(3.3.8, </t>
     </r>
@@ -2779,6 +2847,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2797,6 +2866,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2815,6 +2885,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2833,6 +2904,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2851,6 +2923,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2869,6 +2942,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2887,6 +2961,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2905,6 +2980,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -2923,6 +2999,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">, </t>
     </r>
@@ -2941,6 +3018,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2959,6 +3037,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2977,6 +3056,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3004,6 +3084,63 @@
   </si>
   <si>
     <t>전현규</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEO</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>CTO</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>Admin</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사관리자</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>팀원</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234qwer!</t>
+  </si>
+  <si>
+    <t>qwer1234!</t>
+  </si>
+  <si>
+    <t>q1w2e3r4!</t>
+  </si>
+  <si>
+    <t>퇴사자</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한없음</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1q2w3e4r!</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3016,7 +3153,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3107,8 +3244,31 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3161,6 +3321,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEFEFEF"/>
         <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3243,7 +3409,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3344,20 +3510,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3386,6 +3538,47 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="177" fontId="14" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3617,10 +3810,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="59"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="1"/>
@@ -3715,10 +3908,10 @@
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" ht="12.75">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="43"/>
+      <c r="B15" s="59"/>
     </row>
     <row r="16" spans="1:2" ht="33" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -7720,13 +7913,228 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="21.28515625" style="64" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5">
+      <c r="A1" s="70" t="s">
+        <v>500</v>
+      </c>
+      <c r="B1" s="70" t="s">
+        <v>501</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="65" t="s">
+        <v>503</v>
+      </c>
+      <c r="B2" s="71">
+        <v>10000001</v>
+      </c>
+      <c r="C2" s="71" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="65" t="s">
+        <v>504</v>
+      </c>
+      <c r="B3" s="71">
+        <v>10000003</v>
+      </c>
+      <c r="C3" s="71" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="65" t="s">
+        <v>506</v>
+      </c>
+      <c r="B4" s="71">
+        <v>10000007</v>
+      </c>
+      <c r="C4" s="71" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="66" t="s">
+        <v>505</v>
+      </c>
+      <c r="B5" s="71">
+        <v>10000005</v>
+      </c>
+      <c r="C5" s="71" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="67"/>
+      <c r="B6" s="72">
+        <v>10000006</v>
+      </c>
+      <c r="C6" s="71" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="68" t="s">
+        <v>507</v>
+      </c>
+      <c r="B7" s="71">
+        <v>10000004</v>
+      </c>
+      <c r="C7" s="71" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="68" t="s">
+        <v>512</v>
+      </c>
+      <c r="B8" s="71">
+        <v>10000026</v>
+      </c>
+      <c r="C8" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="68" t="s">
+        <v>513</v>
+      </c>
+      <c r="B9" s="71">
+        <v>10000027</v>
+      </c>
+      <c r="C9" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="69" t="s">
+        <v>508</v>
+      </c>
+      <c r="B10" s="71">
+        <v>10000015</v>
+      </c>
+      <c r="C10" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="67"/>
+      <c r="B11" s="71">
+        <v>10000016</v>
+      </c>
+      <c r="C11" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="67"/>
+      <c r="B12" s="71">
+        <v>10000017</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="67"/>
+      <c r="B13" s="71">
+        <v>10000019</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="67"/>
+      <c r="B14" s="71">
+        <v>10000021</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="67"/>
+      <c r="B15" s="71">
+        <v>10000022</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="67"/>
+      <c r="B16" s="71">
+        <v>10000023</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="67"/>
+      <c r="B17" s="71">
+        <v>10000024</v>
+      </c>
+      <c r="C17" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="67"/>
+      <c r="B18" s="71">
+        <v>10000025</v>
+      </c>
+      <c r="C18" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="67"/>
+      <c r="B19" s="71">
+        <v>10000028</v>
+      </c>
+      <c r="C19" s="71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A10:A19"/>
+  </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Y993"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D423" sqref="D423"/>
     </sheetView>
   </sheetViews>
@@ -7747,31 +8155,31 @@
       <c r="C1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="50" t="s">
         <v>488</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="50" t="s">
         <v>489</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="50" t="s">
         <v>490</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="62" t="s">
+      <c r="B2" s="62"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
@@ -7801,12 +8209,12 @@
       <c r="C3" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="62" t="s">
+      <c r="D3" s="44"/>
+      <c r="E3" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:25" ht="12.75">
       <c r="A4" s="15" t="s">
@@ -7818,12 +8226,12 @@
       <c r="C4" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="62" t="s">
+      <c r="D4" s="44"/>
+      <c r="E4" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:25" ht="12.75">
       <c r="A5" s="15" t="s">
@@ -7835,12 +8243,12 @@
       <c r="C5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="62" t="s">
+      <c r="D5" s="44"/>
+      <c r="E5" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:25" ht="12.75">
       <c r="A6" s="15" t="s">
@@ -7852,12 +8260,12 @@
       <c r="C6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="62" t="s">
+      <c r="D6" s="44"/>
+      <c r="E6" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:25" ht="12.75">
       <c r="A7" s="15"/>
@@ -7865,12 +8273,12 @@
       <c r="C7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="62" t="s">
+      <c r="D7" s="44"/>
+      <c r="E7" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:25" ht="12.75">
       <c r="A8" s="15" t="s">
@@ -7882,25 +8290,25 @@
       <c r="C8" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="51"/>
-      <c r="E8" s="62" t="s">
+      <c r="D8" s="45"/>
+      <c r="E8" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="45" t="s">
+      <c r="A9" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="62" t="s">
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F9" s="57"/>
-      <c r="G9" s="57"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="14"/>
@@ -7930,12 +8338,12 @@
       <c r="C10" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="62" t="s">
+      <c r="D10" s="44"/>
+      <c r="E10" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
     </row>
     <row r="11" spans="1:25" ht="12.75">
       <c r="A11" s="15" t="s">
@@ -7947,12 +8355,12 @@
       <c r="C11" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="62" t="s">
+      <c r="D11" s="44"/>
+      <c r="E11" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
     </row>
     <row r="12" spans="1:25" ht="12.75">
       <c r="A12" s="15" t="s">
@@ -7964,12 +8372,12 @@
       <c r="C12" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="62" t="s">
+      <c r="D12" s="44"/>
+      <c r="E12" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F12" s="58"/>
-      <c r="G12" s="58"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:25" ht="12.75">
       <c r="A13" s="15" t="s">
@@ -7981,12 +8389,12 @@
       <c r="C13" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="62" t="s">
+      <c r="D13" s="44"/>
+      <c r="E13" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F13" s="58"/>
-      <c r="G13" s="58"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:25" ht="12.75">
       <c r="A14" s="15" t="s">
@@ -7998,12 +8406,12 @@
       <c r="C14" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="62" t="s">
+      <c r="D14" s="44"/>
+      <c r="E14" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:25" ht="12.75">
       <c r="A15" s="18"/>
@@ -8011,12 +8419,12 @@
       <c r="C15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="62" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:25" ht="12.75">
       <c r="A16" s="15" t="s">
@@ -8028,12 +8436,12 @@
       <c r="C16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="62" t="s">
+      <c r="D16" s="44"/>
+      <c r="E16" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F16" s="58"/>
-      <c r="G16" s="58"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:25" ht="12.75">
       <c r="A17" s="15" t="s">
@@ -8045,25 +8453,25 @@
       <c r="C17" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="62" t="s">
+      <c r="D17" s="44"/>
+      <c r="E17" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="45" t="s">
+      <c r="A18" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="62" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
@@ -8093,12 +8501,12 @@
       <c r="C19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="62" t="s">
+      <c r="D19" s="44"/>
+      <c r="E19" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
     </row>
     <row r="20" spans="1:25" ht="12.75">
       <c r="A20" s="15" t="s">
@@ -8110,12 +8518,12 @@
       <c r="C20" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="62" t="s">
+      <c r="D20" s="44"/>
+      <c r="E20" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
     </row>
     <row r="21" spans="1:25" ht="12.75">
       <c r="A21" s="15" t="s">
@@ -8127,12 +8535,12 @@
       <c r="C21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="50"/>
-      <c r="E21" s="62" t="s">
+      <c r="D21" s="44"/>
+      <c r="E21" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F21" s="58"/>
-      <c r="G21" s="58"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="52"/>
     </row>
     <row r="22" spans="1:25" ht="12.75">
       <c r="A22" s="15" t="s">
@@ -8144,12 +8552,12 @@
       <c r="C22" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="50"/>
-      <c r="E22" s="62" t="s">
+      <c r="D22" s="44"/>
+      <c r="E22" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F22" s="58"/>
-      <c r="G22" s="58"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:25" ht="12.75">
       <c r="A23" s="18"/>
@@ -8157,12 +8565,12 @@
         <v>84</v>
       </c>
       <c r="C23" s="17"/>
-      <c r="D23" s="50"/>
-      <c r="E23" s="62" t="s">
+      <c r="D23" s="44"/>
+      <c r="E23" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F23" s="58"/>
-      <c r="G23" s="58"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:25" ht="12.75">
       <c r="A24" s="15" t="s">
@@ -8174,12 +8582,12 @@
       <c r="C24" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="D24" s="50"/>
-      <c r="E24" s="62" t="s">
+      <c r="D24" s="44"/>
+      <c r="E24" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F24" s="58"/>
-      <c r="G24" s="58"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:25" ht="12.75">
       <c r="A25" s="15" t="s">
@@ -8191,12 +8599,12 @@
       <c r="C25" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="D25" s="50"/>
-      <c r="E25" s="62" t="s">
+      <c r="D25" s="44"/>
+      <c r="E25" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="58"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:25" ht="12.75">
       <c r="A26" s="15" t="s">
@@ -8208,12 +8616,12 @@
       <c r="C26" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="D26" s="50"/>
-      <c r="E26" s="62" t="s">
+      <c r="D26" s="44"/>
+      <c r="E26" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F26" s="58"/>
-      <c r="G26" s="58"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:25" ht="12.75">
       <c r="A27" s="15"/>
@@ -8221,12 +8629,12 @@
       <c r="C27" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="50"/>
-      <c r="E27" s="62" t="s">
+      <c r="D27" s="44"/>
+      <c r="E27" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:25" ht="12.75">
       <c r="A28" s="18"/>
@@ -8234,12 +8642,12 @@
         <v>95</v>
       </c>
       <c r="C28" s="17"/>
-      <c r="D28" s="50"/>
-      <c r="E28" s="62" t="s">
+      <c r="D28" s="44"/>
+      <c r="E28" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F28" s="58"/>
-      <c r="G28" s="58"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="1:25" ht="12.75">
       <c r="A29" s="15" t="s">
@@ -8251,12 +8659,12 @@
       <c r="C29" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="50"/>
-      <c r="E29" s="62" t="s">
+      <c r="D29" s="44"/>
+      <c r="E29" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:25" ht="12.75">
       <c r="A30" s="15" t="s">
@@ -8268,25 +8676,25 @@
       <c r="C30" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="50"/>
-      <c r="E30" s="62" t="s">
+      <c r="D30" s="44"/>
+      <c r="E30" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="45" t="s">
+      <c r="A31" s="61" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="62" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
+      <c r="F31" s="53"/>
+      <c r="G31" s="53"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
@@ -8316,12 +8724,12 @@
       <c r="C32" s="16" t="s">
         <v>105</v>
       </c>
-      <c r="D32" s="50"/>
-      <c r="E32" s="62" t="s">
+      <c r="D32" s="44"/>
+      <c r="E32" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F32" s="58"/>
-      <c r="G32" s="58"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
     </row>
     <row r="33" spans="1:25" ht="12.75">
       <c r="A33" s="15" t="s">
@@ -8333,12 +8741,12 @@
       <c r="C33" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D33" s="50"/>
-      <c r="E33" s="62" t="s">
+      <c r="D33" s="44"/>
+      <c r="E33" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="58"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52"/>
     </row>
     <row r="34" spans="1:25" ht="12.75">
       <c r="A34" s="15" t="s">
@@ -8350,12 +8758,12 @@
       <c r="C34" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="D34" s="50"/>
-      <c r="E34" s="62" t="s">
+      <c r="D34" s="44"/>
+      <c r="E34" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
     </row>
     <row r="35" spans="1:25" ht="12.75">
       <c r="A35" s="18"/>
@@ -8363,25 +8771,25 @@
       <c r="C35" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="D35" s="50"/>
-      <c r="E35" s="62" t="s">
+      <c r="D35" s="44"/>
+      <c r="E35" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F35" s="58"/>
-      <c r="G35" s="58"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:25" ht="12.75">
-      <c r="A36" s="45" t="s">
+      <c r="A36" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="62" t="s">
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="53"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
       <c r="J36" s="19"/>
@@ -8411,12 +8819,12 @@
       <c r="C37" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="D37" s="50"/>
-      <c r="E37" s="62" t="s">
+      <c r="D37" s="44"/>
+      <c r="E37" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:25" ht="12.75">
       <c r="A38" s="15" t="s">
@@ -8428,12 +8836,12 @@
       <c r="C38" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="50"/>
-      <c r="E38" s="62" t="s">
+      <c r="D38" s="44"/>
+      <c r="E38" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
     </row>
     <row r="39" spans="1:25" ht="12.75">
       <c r="A39" s="18"/>
@@ -8441,12 +8849,12 @@
       <c r="C39" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="D39" s="50"/>
-      <c r="E39" s="62" t="s">
+      <c r="D39" s="44"/>
+      <c r="E39" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
     </row>
     <row r="40" spans="1:25" ht="12.75">
       <c r="A40" s="15" t="s">
@@ -8458,12 +8866,12 @@
       <c r="C40" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="50"/>
-      <c r="E40" s="62" t="s">
+      <c r="D40" s="44"/>
+      <c r="E40" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F40" s="58"/>
-      <c r="G40" s="58"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
     </row>
     <row r="41" spans="1:25" ht="12.75">
       <c r="A41" s="15" t="s">
@@ -8475,12 +8883,12 @@
       <c r="C41" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="50"/>
-      <c r="E41" s="62" t="s">
+      <c r="D41" s="44"/>
+      <c r="E41" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F41" s="58"/>
-      <c r="G41" s="58"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="42" spans="1:25" ht="12.75">
       <c r="A42" s="15" t="s">
@@ -8492,25 +8900,25 @@
       <c r="C42" s="16" t="s">
         <v>129</v>
       </c>
-      <c r="D42" s="50"/>
-      <c r="E42" s="62" t="s">
+      <c r="D42" s="44"/>
+      <c r="E42" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F42" s="58"/>
-      <c r="G42" s="58"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="1:25" ht="12.75">
-      <c r="A43" s="45" t="s">
+      <c r="A43" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="46"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="46"/>
-      <c r="E43" s="62" t="s">
+      <c r="B43" s="62"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
+      <c r="F43" s="53"/>
+      <c r="G43" s="53"/>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
@@ -8540,12 +8948,12 @@
       <c r="C44" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="D44" s="50"/>
-      <c r="E44" s="62" t="s">
+      <c r="D44" s="44"/>
+      <c r="E44" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F44" s="58"/>
-      <c r="G44" s="58"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
     </row>
     <row r="45" spans="1:25" ht="12.75">
       <c r="A45" s="15" t="s">
@@ -8557,12 +8965,12 @@
       <c r="C45" s="16" t="s">
         <v>136</v>
       </c>
-      <c r="D45" s="50"/>
-      <c r="E45" s="62" t="s">
+      <c r="D45" s="44"/>
+      <c r="E45" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F45" s="58"/>
-      <c r="G45" s="58"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
     </row>
     <row r="46" spans="1:25" ht="12.75">
       <c r="A46" s="15" t="s">
@@ -8574,25 +8982,25 @@
       <c r="C46" s="16" t="s">
         <v>139</v>
       </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="62" t="s">
+      <c r="D46" s="44"/>
+      <c r="E46" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F46" s="58"/>
-      <c r="G46" s="58"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
     </row>
     <row r="47" spans="1:25" ht="12.75">
-      <c r="A47" s="45" t="s">
+      <c r="A47" s="61" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="46"/>
-      <c r="C47" s="46"/>
-      <c r="D47" s="46"/>
-      <c r="E47" s="62" t="s">
+      <c r="B47" s="62"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
       <c r="J47" s="19"/>
@@ -8622,12 +9030,12 @@
       <c r="C48" s="16" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="50"/>
-      <c r="E48" s="62" t="s">
+      <c r="D48" s="44"/>
+      <c r="E48" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F48" s="58"/>
-      <c r="G48" s="58"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
     </row>
     <row r="49" spans="1:25" ht="12.75">
       <c r="A49" s="15" t="s">
@@ -8639,12 +9047,12 @@
       <c r="C49" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="50"/>
-      <c r="E49" s="62" t="s">
+      <c r="D49" s="44"/>
+      <c r="E49" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="58"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
     </row>
     <row r="50" spans="1:25" ht="12.75">
       <c r="A50" s="15" t="s">
@@ -8656,25 +9064,25 @@
       <c r="C50" s="16" t="s">
         <v>149</v>
       </c>
-      <c r="D50" s="50"/>
-      <c r="E50" s="62" t="s">
+      <c r="D50" s="44"/>
+      <c r="E50" s="56" t="s">
         <v>494</v>
       </c>
-      <c r="F50" s="58"/>
-      <c r="G50" s="58"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
     </row>
     <row r="51" spans="1:25" ht="12.75">
-      <c r="A51" s="45" t="s">
+      <c r="A51" s="61" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="46"/>
-      <c r="C51" s="46"/>
-      <c r="D51" s="46"/>
-      <c r="E51" s="63" t="s">
+      <c r="B51" s="62"/>
+      <c r="C51" s="62"/>
+      <c r="D51" s="62"/>
+      <c r="E51" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F51" s="60"/>
-      <c r="G51" s="60"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="20"/>
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
@@ -8704,12 +9112,12 @@
       <c r="C52" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="50"/>
-      <c r="E52" s="63" t="s">
+      <c r="D52" s="44"/>
+      <c r="E52" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
     </row>
     <row r="53" spans="1:25" ht="12.75">
       <c r="A53" s="15">
@@ -8721,12 +9129,12 @@
       <c r="C53" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D53" s="50"/>
-      <c r="E53" s="63" t="s">
+      <c r="D53" s="44"/>
+      <c r="E53" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F53" s="58"/>
-      <c r="G53" s="58"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
     </row>
     <row r="54" spans="1:25" ht="12.75">
       <c r="A54" s="15">
@@ -8738,12 +9146,12 @@
       <c r="C54" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D54" s="50"/>
-      <c r="E54" s="63" t="s">
+      <c r="D54" s="44"/>
+      <c r="E54" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F54" s="58"/>
-      <c r="G54" s="58"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
     </row>
     <row r="55" spans="1:25" ht="12.75">
       <c r="A55" s="15">
@@ -8755,12 +9163,12 @@
       <c r="C55" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D55" s="50"/>
-      <c r="E55" s="63" t="s">
+      <c r="D55" s="44"/>
+      <c r="E55" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
+      <c r="F55" s="52"/>
+      <c r="G55" s="52"/>
     </row>
     <row r="56" spans="1:25" ht="12.75">
       <c r="A56" s="15">
@@ -8772,12 +9180,12 @@
       <c r="C56" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="50"/>
-      <c r="E56" s="63" t="s">
+      <c r="D56" s="44"/>
+      <c r="E56" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F56" s="58"/>
-      <c r="G56" s="58"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
     </row>
     <row r="57" spans="1:25" ht="12.75">
       <c r="A57" s="15">
@@ -8789,25 +9197,25 @@
       <c r="C57" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D57" s="50"/>
-      <c r="E57" s="63" t="s">
+      <c r="D57" s="44"/>
+      <c r="E57" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
+      <c r="F57" s="52"/>
+      <c r="G57" s="52"/>
     </row>
     <row r="58" spans="1:25" ht="12.75">
-      <c r="A58" s="45" t="s">
+      <c r="A58" s="61" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="46"/>
-      <c r="C58" s="46"/>
-      <c r="D58" s="46"/>
-      <c r="E58" s="63" t="s">
+      <c r="B58" s="62"/>
+      <c r="C58" s="62"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F58" s="59"/>
-      <c r="G58" s="59"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
       <c r="H58" s="19"/>
       <c r="I58" s="19"/>
       <c r="J58" s="19"/>
@@ -8837,12 +9245,12 @@
       <c r="C59" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="50"/>
-      <c r="E59" s="63" t="s">
+      <c r="D59" s="44"/>
+      <c r="E59" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="58"/>
+      <c r="F59" s="52"/>
+      <c r="G59" s="52"/>
     </row>
     <row r="60" spans="1:25" ht="12.75">
       <c r="A60" s="15">
@@ -8854,12 +9262,12 @@
       <c r="C60" s="16" t="s">
         <v>167</v>
       </c>
-      <c r="D60" s="50"/>
-      <c r="E60" s="63" t="s">
+      <c r="D60" s="44"/>
+      <c r="E60" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
     </row>
     <row r="61" spans="1:25" ht="12.75">
       <c r="A61" s="15">
@@ -8871,25 +9279,25 @@
       <c r="C61" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D61" s="50"/>
-      <c r="E61" s="63" t="s">
+      <c r="D61" s="44"/>
+      <c r="E61" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F61" s="58"/>
-      <c r="G61" s="58"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
     </row>
     <row r="62" spans="1:25" ht="12.75">
-      <c r="A62" s="45" t="s">
+      <c r="A62" s="61" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="46"/>
-      <c r="C62" s="46"/>
-      <c r="D62" s="46"/>
-      <c r="E62" s="63" t="s">
+      <c r="B62" s="62"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="62"/>
+      <c r="E62" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F62" s="59"/>
-      <c r="G62" s="59"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
       <c r="J62" s="19"/>
@@ -8919,12 +9327,12 @@
       <c r="C63" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="50"/>
-      <c r="E63" s="63" t="s">
+      <c r="D63" s="44"/>
+      <c r="E63" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F63" s="58"/>
-      <c r="G63" s="58"/>
+      <c r="F63" s="52"/>
+      <c r="G63" s="52"/>
     </row>
     <row r="64" spans="1:25" ht="12.75">
       <c r="A64" s="15">
@@ -8936,12 +9344,12 @@
       <c r="C64" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="D64" s="50"/>
-      <c r="E64" s="63" t="s">
+      <c r="D64" s="44"/>
+      <c r="E64" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F64" s="58"/>
-      <c r="G64" s="58"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
     </row>
     <row r="65" spans="1:25" ht="12.75">
       <c r="A65" s="15">
@@ -8953,25 +9361,25 @@
       <c r="C65" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D65" s="50"/>
-      <c r="E65" s="63" t="s">
+      <c r="D65" s="44"/>
+      <c r="E65" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
+      <c r="F65" s="52"/>
+      <c r="G65" s="52"/>
     </row>
     <row r="66" spans="1:25" ht="12.75">
-      <c r="A66" s="45" t="s">
+      <c r="A66" s="61" t="s">
         <v>177</v>
       </c>
-      <c r="B66" s="46"/>
-      <c r="C66" s="46"/>
-      <c r="D66" s="46"/>
-      <c r="E66" s="63" t="s">
+      <c r="B66" s="62"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="62"/>
+      <c r="E66" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="54"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
@@ -9001,12 +9409,12 @@
       <c r="C67" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D67" s="50"/>
-      <c r="E67" s="63" t="s">
+      <c r="D67" s="44"/>
+      <c r="E67" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="58"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
     </row>
     <row r="68" spans="1:25" ht="12.75">
       <c r="A68" s="15">
@@ -9018,12 +9426,12 @@
       <c r="C68" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D68" s="50"/>
-      <c r="E68" s="63" t="s">
+      <c r="D68" s="44"/>
+      <c r="E68" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F68" s="58"/>
-      <c r="G68" s="58"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
     </row>
     <row r="69" spans="1:25" ht="12.75">
       <c r="A69" s="15">
@@ -9035,12 +9443,12 @@
       <c r="C69" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D69" s="50"/>
-      <c r="E69" s="63" t="s">
+      <c r="D69" s="44"/>
+      <c r="E69" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F69" s="58"/>
-      <c r="G69" s="58"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
     </row>
     <row r="70" spans="1:25" ht="12.75">
       <c r="A70" s="15">
@@ -9052,12 +9460,12 @@
       <c r="C70" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D70" s="50"/>
-      <c r="E70" s="63" t="s">
+      <c r="D70" s="44"/>
+      <c r="E70" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F70" s="58"/>
-      <c r="G70" s="58"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
     </row>
     <row r="71" spans="1:25" ht="12.75">
       <c r="A71" s="15">
@@ -9069,12 +9477,12 @@
       <c r="C71" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D71" s="50"/>
-      <c r="E71" s="63" t="s">
+      <c r="D71" s="44"/>
+      <c r="E71" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F71" s="58"/>
-      <c r="G71" s="58"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
     </row>
     <row r="72" spans="1:25" ht="12.75">
       <c r="A72" s="15">
@@ -9086,25 +9494,25 @@
       <c r="C72" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D72" s="50"/>
-      <c r="E72" s="63" t="s">
+      <c r="D72" s="44"/>
+      <c r="E72" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F72" s="58"/>
-      <c r="G72" s="58"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
     </row>
     <row r="73" spans="1:25" ht="12.75">
-      <c r="A73" s="45" t="s">
+      <c r="A73" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="B73" s="46"/>
-      <c r="C73" s="46"/>
-      <c r="D73" s="46"/>
-      <c r="E73" s="63" t="s">
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F73" s="60"/>
-      <c r="G73" s="60"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
@@ -9134,25 +9542,25 @@
       <c r="C74" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D74" s="50"/>
-      <c r="E74" s="63" t="s">
+      <c r="D74" s="44"/>
+      <c r="E74" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
     </row>
     <row r="75" spans="1:25" ht="12.75">
-      <c r="A75" s="45" t="s">
+      <c r="A75" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="46"/>
-      <c r="D75" s="46"/>
-      <c r="E75" s="63" t="s">
+      <c r="B75" s="62"/>
+      <c r="C75" s="62"/>
+      <c r="D75" s="62"/>
+      <c r="E75" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F75" s="60"/>
-      <c r="G75" s="60"/>
+      <c r="F75" s="54"/>
+      <c r="G75" s="54"/>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -9182,12 +9590,12 @@
       <c r="C76" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D76" s="50"/>
-      <c r="E76" s="63" t="s">
+      <c r="D76" s="44"/>
+      <c r="E76" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F76" s="58"/>
-      <c r="G76" s="58"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
     </row>
     <row r="77" spans="1:25" ht="12.75">
       <c r="A77" s="15" t="s">
@@ -9199,12 +9607,12 @@
       <c r="C77" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D77" s="50"/>
-      <c r="E77" s="63" t="s">
+      <c r="D77" s="44"/>
+      <c r="E77" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F77" s="58"/>
-      <c r="G77" s="58"/>
+      <c r="F77" s="52"/>
+      <c r="G77" s="52"/>
     </row>
     <row r="78" spans="1:25" ht="12.75">
       <c r="A78" s="15" t="s">
@@ -9216,12 +9624,12 @@
       <c r="C78" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D78" s="50"/>
-      <c r="E78" s="63" t="s">
+      <c r="D78" s="44"/>
+      <c r="E78" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F78" s="58"/>
-      <c r="G78" s="58"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
     </row>
     <row r="79" spans="1:25" ht="12.75">
       <c r="A79" s="15" t="s">
@@ -9233,12 +9641,12 @@
       <c r="C79" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D79" s="50"/>
-      <c r="E79" s="63" t="s">
+      <c r="D79" s="44"/>
+      <c r="E79" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F79" s="58"/>
-      <c r="G79" s="58"/>
+      <c r="F79" s="52"/>
+      <c r="G79" s="52"/>
     </row>
     <row r="80" spans="1:25" ht="12.75">
       <c r="A80" s="15" t="s">
@@ -9250,12 +9658,12 @@
       <c r="C80" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D80" s="50"/>
-      <c r="E80" s="63" t="s">
+      <c r="D80" s="44"/>
+      <c r="E80" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
     </row>
     <row r="81" spans="1:25" ht="12.75">
       <c r="A81" s="15" t="s">
@@ -9267,25 +9675,25 @@
       <c r="C81" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D81" s="50"/>
-      <c r="E81" s="63" t="s">
+      <c r="D81" s="44"/>
+      <c r="E81" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F81" s="58"/>
-      <c r="G81" s="58"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
     </row>
     <row r="82" spans="1:25" ht="12.75">
-      <c r="A82" s="45" t="s">
+      <c r="A82" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="46"/>
-      <c r="C82" s="46"/>
-      <c r="D82" s="46"/>
-      <c r="E82" s="63" t="s">
+      <c r="B82" s="62"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="62"/>
+      <c r="E82" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F82" s="59"/>
-      <c r="G82" s="59"/>
+      <c r="F82" s="53"/>
+      <c r="G82" s="53"/>
       <c r="H82" s="19"/>
       <c r="I82" s="19"/>
       <c r="J82" s="19"/>
@@ -9315,12 +9723,12 @@
       <c r="C83" s="16" t="s">
         <v>165</v>
       </c>
-      <c r="D83" s="50"/>
-      <c r="E83" s="63" t="s">
+      <c r="D83" s="44"/>
+      <c r="E83" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F83" s="58"/>
-      <c r="G83" s="58"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
     </row>
     <row r="84" spans="1:25" ht="12.75">
       <c r="A84" s="15">
@@ -9332,12 +9740,12 @@
       <c r="C84" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="D84" s="50"/>
-      <c r="E84" s="63" t="s">
+      <c r="D84" s="44"/>
+      <c r="E84" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
     </row>
     <row r="85" spans="1:25" ht="12.75">
       <c r="A85" s="15">
@@ -9349,25 +9757,25 @@
       <c r="C85" s="16" t="s">
         <v>169</v>
       </c>
-      <c r="D85" s="50"/>
-      <c r="E85" s="63" t="s">
+      <c r="D85" s="44"/>
+      <c r="E85" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F85" s="58"/>
-      <c r="G85" s="58"/>
+      <c r="F85" s="52"/>
+      <c r="G85" s="52"/>
     </row>
     <row r="86" spans="1:25" ht="12.75">
-      <c r="A86" s="45" t="s">
+      <c r="A86" s="61" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="46"/>
-      <c r="C86" s="46"/>
-      <c r="D86" s="46"/>
-      <c r="E86" s="63" t="s">
+      <c r="B86" s="62"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="62"/>
+      <c r="E86" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F86" s="59"/>
-      <c r="G86" s="59"/>
+      <c r="F86" s="53"/>
+      <c r="G86" s="53"/>
       <c r="H86" s="19"/>
       <c r="I86" s="19"/>
       <c r="J86" s="19"/>
@@ -9397,12 +9805,12 @@
       <c r="C87" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D87" s="50"/>
-      <c r="E87" s="63" t="s">
+      <c r="D87" s="44"/>
+      <c r="E87" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F87" s="58"/>
-      <c r="G87" s="58"/>
+      <c r="F87" s="52"/>
+      <c r="G87" s="52"/>
     </row>
     <row r="88" spans="1:25" ht="12.75">
       <c r="A88" s="15">
@@ -9414,12 +9822,12 @@
       <c r="C88" s="16" t="s">
         <v>193</v>
       </c>
-      <c r="D88" s="50"/>
-      <c r="E88" s="63" t="s">
+      <c r="D88" s="44"/>
+      <c r="E88" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
     </row>
     <row r="89" spans="1:25" ht="12.75">
       <c r="A89" s="15">
@@ -9431,25 +9839,25 @@
       <c r="C89" s="16" t="s">
         <v>176</v>
       </c>
-      <c r="D89" s="50"/>
-      <c r="E89" s="63" t="s">
+      <c r="D89" s="44"/>
+      <c r="E89" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F89" s="58"/>
-      <c r="G89" s="58"/>
+      <c r="F89" s="52"/>
+      <c r="G89" s="52"/>
     </row>
     <row r="90" spans="1:25" ht="12.75">
-      <c r="A90" s="45" t="s">
+      <c r="A90" s="61" t="s">
         <v>194</v>
       </c>
-      <c r="B90" s="46"/>
-      <c r="C90" s="46"/>
-      <c r="D90" s="46"/>
-      <c r="E90" s="63" t="s">
+      <c r="B90" s="62"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="62"/>
+      <c r="E90" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F90" s="59"/>
-      <c r="G90" s="59"/>
+      <c r="F90" s="53"/>
+      <c r="G90" s="53"/>
       <c r="H90" s="19"/>
       <c r="I90" s="19"/>
       <c r="J90" s="19"/>
@@ -9479,12 +9887,12 @@
       <c r="C91" s="22" t="s">
         <v>152</v>
       </c>
-      <c r="D91" s="52"/>
-      <c r="E91" s="63" t="s">
+      <c r="D91" s="46"/>
+      <c r="E91" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F91" s="61"/>
-      <c r="G91" s="61"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
       <c r="H91" s="6"/>
       <c r="I91" s="6"/>
       <c r="J91" s="6"/>
@@ -9514,12 +9922,12 @@
       <c r="C92" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D92" s="50"/>
-      <c r="E92" s="63" t="s">
+      <c r="D92" s="44"/>
+      <c r="E92" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
     </row>
     <row r="93" spans="1:25" ht="12.75">
       <c r="A93" s="15">
@@ -9531,12 +9939,12 @@
       <c r="C93" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D93" s="50"/>
-      <c r="E93" s="63" t="s">
+      <c r="D93" s="44"/>
+      <c r="E93" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F93" s="58"/>
-      <c r="G93" s="58"/>
+      <c r="F93" s="52"/>
+      <c r="G93" s="52"/>
     </row>
     <row r="94" spans="1:25" ht="12.75">
       <c r="A94" s="15">
@@ -9548,12 +9956,12 @@
       <c r="C94" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D94" s="50"/>
-      <c r="E94" s="63" t="s">
+      <c r="D94" s="44"/>
+      <c r="E94" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
     </row>
     <row r="95" spans="1:25" ht="12.75">
       <c r="A95" s="15">
@@ -9565,12 +9973,12 @@
       <c r="C95" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D95" s="50"/>
-      <c r="E95" s="63" t="s">
+      <c r="D95" s="44"/>
+      <c r="E95" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F95" s="58"/>
-      <c r="G95" s="58"/>
+      <c r="F95" s="52"/>
+      <c r="G95" s="52"/>
     </row>
     <row r="96" spans="1:25" ht="12.75">
       <c r="A96" s="15">
@@ -9582,25 +9990,25 @@
       <c r="C96" s="16" t="s">
         <v>162</v>
       </c>
-      <c r="D96" s="50"/>
-      <c r="E96" s="63" t="s">
+      <c r="D96" s="44"/>
+      <c r="E96" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
     </row>
     <row r="97" spans="1:25" ht="12.75">
-      <c r="A97" s="45" t="s">
+      <c r="A97" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="46"/>
-      <c r="C97" s="46"/>
-      <c r="D97" s="46"/>
-      <c r="E97" s="63" t="s">
+      <c r="B97" s="62"/>
+      <c r="C97" s="62"/>
+      <c r="D97" s="62"/>
+      <c r="E97" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F97" s="60"/>
-      <c r="G97" s="60"/>
+      <c r="F97" s="54"/>
+      <c r="G97" s="54"/>
       <c r="H97" s="20"/>
       <c r="I97" s="20"/>
       <c r="J97" s="20"/>
@@ -9630,12 +10038,12 @@
       <c r="C98" s="16" t="s">
         <v>198</v>
       </c>
-      <c r="D98" s="50"/>
-      <c r="E98" s="63" t="s">
+      <c r="D98" s="44"/>
+      <c r="E98" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F98" s="58"/>
-      <c r="G98" s="58"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
     </row>
     <row r="99" spans="1:25" ht="12.75">
       <c r="A99" s="15">
@@ -9647,12 +10055,12 @@
       <c r="C99" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="D99" s="50"/>
-      <c r="E99" s="63" t="s">
+      <c r="D99" s="44"/>
+      <c r="E99" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F99" s="58"/>
-      <c r="G99" s="58"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
     </row>
     <row r="100" spans="1:25" ht="12.75">
       <c r="A100" s="15">
@@ -9664,12 +10072,12 @@
       <c r="C100" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="D100" s="50"/>
-      <c r="E100" s="63" t="s">
+      <c r="D100" s="44"/>
+      <c r="E100" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F100" s="58"/>
-      <c r="G100" s="58"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
     </row>
     <row r="101" spans="1:25" ht="12.75">
       <c r="A101" s="15">
@@ -9681,12 +10089,12 @@
       <c r="C101" s="16" t="s">
         <v>203</v>
       </c>
-      <c r="D101" s="50"/>
-      <c r="E101" s="63" t="s">
+      <c r="D101" s="44"/>
+      <c r="E101" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F101" s="58"/>
-      <c r="G101" s="58"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
     </row>
     <row r="102" spans="1:25" ht="12.75">
       <c r="A102" s="15">
@@ -9698,25 +10106,25 @@
       <c r="C102" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D102" s="50"/>
-      <c r="E102" s="63" t="s">
+      <c r="D102" s="44"/>
+      <c r="E102" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F102" s="58"/>
-      <c r="G102" s="58"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
     </row>
     <row r="103" spans="1:25" ht="12.75">
-      <c r="A103" s="45" t="s">
+      <c r="A103" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="46"/>
-      <c r="C103" s="46"/>
-      <c r="D103" s="46"/>
-      <c r="E103" s="63" t="s">
+      <c r="B103" s="62"/>
+      <c r="C103" s="62"/>
+      <c r="D103" s="62"/>
+      <c r="E103" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F103" s="60"/>
-      <c r="G103" s="60"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="54"/>
       <c r="H103" s="20"/>
       <c r="I103" s="20"/>
       <c r="J103" s="20"/>
@@ -9746,12 +10154,12 @@
       <c r="C104" s="16" t="s">
         <v>207</v>
       </c>
-      <c r="D104" s="50"/>
-      <c r="E104" s="63" t="s">
+      <c r="D104" s="44"/>
+      <c r="E104" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F104" s="58"/>
-      <c r="G104" s="58"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
     </row>
     <row r="105" spans="1:25" ht="12.75">
       <c r="A105" s="15">
@@ -9763,12 +10171,12 @@
       <c r="C105" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="D105" s="50"/>
-      <c r="E105" s="63" t="s">
+      <c r="D105" s="44"/>
+      <c r="E105" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F105" s="58"/>
-      <c r="G105" s="58"/>
+      <c r="F105" s="52"/>
+      <c r="G105" s="52"/>
     </row>
     <row r="106" spans="1:25" ht="12.75">
       <c r="A106" s="15">
@@ -9780,12 +10188,12 @@
       <c r="C106" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="D106" s="50"/>
-      <c r="E106" s="63" t="s">
+      <c r="D106" s="44"/>
+      <c r="E106" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F106" s="58"/>
-      <c r="G106" s="58"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
     </row>
     <row r="107" spans="1:25" ht="12.75">
       <c r="A107" s="15">
@@ -9797,25 +10205,25 @@
       <c r="C107" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="D107" s="50"/>
-      <c r="E107" s="63" t="s">
+      <c r="D107" s="44"/>
+      <c r="E107" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
+      <c r="F107" s="52"/>
+      <c r="G107" s="52"/>
     </row>
     <row r="108" spans="1:25" ht="12.75">
-      <c r="A108" s="45" t="s">
+      <c r="A108" s="61" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="46"/>
-      <c r="C108" s="46"/>
-      <c r="D108" s="46"/>
-      <c r="E108" s="63" t="s">
+      <c r="B108" s="62"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="62"/>
+      <c r="E108" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F108" s="60"/>
-      <c r="G108" s="60"/>
+      <c r="F108" s="54"/>
+      <c r="G108" s="54"/>
       <c r="H108" s="20"/>
       <c r="I108" s="20"/>
       <c r="J108" s="20"/>
@@ -9845,12 +10253,12 @@
       <c r="C109" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="D109" s="50"/>
-      <c r="E109" s="63" t="s">
+      <c r="D109" s="44"/>
+      <c r="E109" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F109" s="58"/>
-      <c r="G109" s="58"/>
+      <c r="F109" s="52"/>
+      <c r="G109" s="52"/>
     </row>
     <row r="110" spans="1:25" ht="12.75">
       <c r="A110" s="15" t="s">
@@ -9862,12 +10270,12 @@
       <c r="C110" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D110" s="50"/>
-      <c r="E110" s="63" t="s">
+      <c r="D110" s="44"/>
+      <c r="E110" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F110" s="58"/>
-      <c r="G110" s="58"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
     </row>
     <row r="111" spans="1:25" ht="12.75">
       <c r="A111" s="15" t="s">
@@ -9879,12 +10287,12 @@
       <c r="C111" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="D111" s="50"/>
-      <c r="E111" s="63" t="s">
+      <c r="D111" s="44"/>
+      <c r="E111" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F111" s="58"/>
-      <c r="G111" s="58"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
     </row>
     <row r="112" spans="1:25" ht="12.75">
       <c r="A112" s="15" t="s">
@@ -9896,12 +10304,12 @@
       <c r="C112" s="16" t="s">
         <v>158</v>
       </c>
-      <c r="D112" s="50"/>
-      <c r="E112" s="63" t="s">
+      <c r="D112" s="44"/>
+      <c r="E112" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F112" s="58"/>
-      <c r="G112" s="58"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
     </row>
     <row r="113" spans="1:25" ht="12.75">
       <c r="A113" s="15" t="s">
@@ -9913,12 +10321,12 @@
       <c r="C113" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="D113" s="50"/>
-      <c r="E113" s="63" t="s">
+      <c r="D113" s="44"/>
+      <c r="E113" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F113" s="58"/>
-      <c r="G113" s="58"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
     </row>
     <row r="114" spans="1:25" ht="12.75">
       <c r="A114" s="15" t="s">
@@ -9930,25 +10338,25 @@
       <c r="C114" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D114" s="50"/>
-      <c r="E114" s="63" t="s">
+      <c r="D114" s="44"/>
+      <c r="E114" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F114" s="58"/>
-      <c r="G114" s="58"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
     </row>
     <row r="115" spans="1:25" ht="12.75">
-      <c r="A115" s="45" t="s">
+      <c r="A115" s="61" t="s">
         <v>219</v>
       </c>
-      <c r="B115" s="46"/>
-      <c r="C115" s="46"/>
-      <c r="D115" s="46"/>
-      <c r="E115" s="63" t="s">
+      <c r="B115" s="62"/>
+      <c r="C115" s="62"/>
+      <c r="D115" s="62"/>
+      <c r="E115" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F115" s="60"/>
-      <c r="G115" s="60"/>
+      <c r="F115" s="54"/>
+      <c r="G115" s="54"/>
       <c r="H115" s="20"/>
       <c r="I115" s="20"/>
       <c r="J115" s="20"/>
@@ -9978,25 +10386,25 @@
       <c r="C116" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="D116" s="50"/>
-      <c r="E116" s="63" t="s">
+      <c r="D116" s="44"/>
+      <c r="E116" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F116" s="58"/>
-      <c r="G116" s="58"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="52"/>
     </row>
     <row r="117" spans="1:25" ht="12.75">
-      <c r="A117" s="45" t="s">
+      <c r="A117" s="61" t="s">
         <v>221</v>
       </c>
-      <c r="B117" s="46"/>
-      <c r="C117" s="46"/>
-      <c r="D117" s="46"/>
-      <c r="E117" s="63" t="s">
+      <c r="B117" s="62"/>
+      <c r="C117" s="62"/>
+      <c r="D117" s="62"/>
+      <c r="E117" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F117" s="59"/>
-      <c r="G117" s="59"/>
+      <c r="F117" s="53"/>
+      <c r="G117" s="53"/>
       <c r="H117" s="19"/>
       <c r="I117" s="19"/>
       <c r="J117" s="19"/>
@@ -10026,12 +10434,12 @@
       <c r="C118" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D118" s="50"/>
-      <c r="E118" s="63" t="s">
+      <c r="D118" s="44"/>
+      <c r="E118" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F118" s="58"/>
-      <c r="G118" s="58"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
     </row>
     <row r="119" spans="1:25" ht="12.75">
       <c r="A119" s="15">
@@ -10043,12 +10451,12 @@
       <c r="C119" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D119" s="50"/>
-      <c r="E119" s="63" t="s">
+      <c r="D119" s="44"/>
+      <c r="E119" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F119" s="58"/>
-      <c r="G119" s="58"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
     </row>
     <row r="120" spans="1:25" ht="12.75">
       <c r="A120" s="15">
@@ -10060,12 +10468,12 @@
       <c r="C120" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D120" s="50"/>
-      <c r="E120" s="63" t="s">
+      <c r="D120" s="44"/>
+      <c r="E120" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F120" s="58"/>
-      <c r="G120" s="58"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="52"/>
     </row>
     <row r="121" spans="1:25" ht="12.75">
       <c r="A121" s="15">
@@ -10077,12 +10485,12 @@
       <c r="C121" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D121" s="50"/>
-      <c r="E121" s="63" t="s">
+      <c r="D121" s="44"/>
+      <c r="E121" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F121" s="58"/>
-      <c r="G121" s="58"/>
+      <c r="F121" s="52"/>
+      <c r="G121" s="52"/>
     </row>
     <row r="122" spans="1:25" ht="12.75">
       <c r="A122" s="15">
@@ -10094,12 +10502,12 @@
       <c r="C122" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D122" s="50"/>
-      <c r="E122" s="63" t="s">
+      <c r="D122" s="44"/>
+      <c r="E122" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F122" s="58"/>
-      <c r="G122" s="58"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
     </row>
     <row r="123" spans="1:25" ht="12.75">
       <c r="A123" s="15">
@@ -10111,12 +10519,12 @@
       <c r="C123" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D123" s="50"/>
-      <c r="E123" s="63" t="s">
+      <c r="D123" s="44"/>
+      <c r="E123" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F123" s="58"/>
-      <c r="G123" s="58"/>
+      <c r="F123" s="52"/>
+      <c r="G123" s="52"/>
     </row>
     <row r="124" spans="1:25" ht="12.75">
       <c r="A124" s="15">
@@ -10128,12 +10536,12 @@
       <c r="C124" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D124" s="50"/>
-      <c r="E124" s="63" t="s">
+      <c r="D124" s="44"/>
+      <c r="E124" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F124" s="58"/>
-      <c r="G124" s="58"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="52"/>
     </row>
     <row r="125" spans="1:25" ht="12.75">
       <c r="A125" s="15">
@@ -10145,12 +10553,12 @@
       <c r="C125" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D125" s="50"/>
-      <c r="E125" s="63" t="s">
+      <c r="D125" s="44"/>
+      <c r="E125" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F125" s="58"/>
-      <c r="G125" s="58"/>
+      <c r="F125" s="52"/>
+      <c r="G125" s="52"/>
     </row>
     <row r="126" spans="1:25" ht="12.75">
       <c r="A126" s="15">
@@ -10162,12 +10570,12 @@
       <c r="C126" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="D126" s="50"/>
-      <c r="E126" s="63" t="s">
+      <c r="D126" s="44"/>
+      <c r="E126" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F126" s="58"/>
-      <c r="G126" s="58"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="52"/>
     </row>
     <row r="127" spans="1:25" ht="12.75">
       <c r="A127" s="15">
@@ -10179,25 +10587,25 @@
       <c r="C127" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D127" s="50"/>
-      <c r="E127" s="63" t="s">
+      <c r="D127" s="44"/>
+      <c r="E127" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F127" s="58"/>
-      <c r="G127" s="58"/>
+      <c r="F127" s="52"/>
+      <c r="G127" s="52"/>
     </row>
     <row r="128" spans="1:25" ht="12.75">
-      <c r="A128" s="45" t="s">
+      <c r="A128" s="61" t="s">
         <v>237</v>
       </c>
-      <c r="B128" s="46"/>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="63" t="s">
+      <c r="B128" s="62"/>
+      <c r="C128" s="62"/>
+      <c r="D128" s="62"/>
+      <c r="E128" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F128" s="59"/>
-      <c r="G128" s="59"/>
+      <c r="F128" s="53"/>
+      <c r="G128" s="53"/>
       <c r="H128" s="19"/>
       <c r="I128" s="19"/>
       <c r="J128" s="19"/>
@@ -10227,12 +10635,12 @@
       <c r="C129" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D129" s="50"/>
-      <c r="E129" s="63" t="s">
+      <c r="D129" s="44"/>
+      <c r="E129" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F129" s="58"/>
-      <c r="G129" s="58"/>
+      <c r="F129" s="52"/>
+      <c r="G129" s="52"/>
     </row>
     <row r="130" spans="1:25" ht="12.75">
       <c r="A130" s="15">
@@ -10244,12 +10652,12 @@
       <c r="C130" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D130" s="50"/>
-      <c r="E130" s="63" t="s">
+      <c r="D130" s="44"/>
+      <c r="E130" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F130" s="58"/>
-      <c r="G130" s="58"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
     </row>
     <row r="131" spans="1:25" ht="12.75">
       <c r="A131" s="15">
@@ -10261,12 +10669,12 @@
       <c r="C131" s="16" t="s">
         <v>226</v>
       </c>
-      <c r="D131" s="50"/>
-      <c r="E131" s="63" t="s">
+      <c r="D131" s="44"/>
+      <c r="E131" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F131" s="58"/>
-      <c r="G131" s="58"/>
+      <c r="F131" s="52"/>
+      <c r="G131" s="52"/>
     </row>
     <row r="132" spans="1:25" ht="12.75">
       <c r="A132" s="15">
@@ -10278,12 +10686,12 @@
       <c r="C132" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="D132" s="50"/>
-      <c r="E132" s="63" t="s">
+      <c r="D132" s="44"/>
+      <c r="E132" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F132" s="58"/>
-      <c r="G132" s="58"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
     </row>
     <row r="133" spans="1:25" ht="12.75">
       <c r="A133" s="15">
@@ -10295,12 +10703,12 @@
       <c r="C133" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="D133" s="50"/>
-      <c r="E133" s="63" t="s">
+      <c r="D133" s="44"/>
+      <c r="E133" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F133" s="58"/>
-      <c r="G133" s="58"/>
+      <c r="F133" s="52"/>
+      <c r="G133" s="52"/>
     </row>
     <row r="134" spans="1:25" ht="12.75">
       <c r="A134" s="15">
@@ -10312,12 +10720,12 @@
       <c r="C134" s="16" t="s">
         <v>232</v>
       </c>
-      <c r="D134" s="50"/>
-      <c r="E134" s="63" t="s">
+      <c r="D134" s="44"/>
+      <c r="E134" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F134" s="58"/>
-      <c r="G134" s="58"/>
+      <c r="F134" s="52"/>
+      <c r="G134" s="52"/>
     </row>
     <row r="135" spans="1:25" ht="12.75">
       <c r="A135" s="15">
@@ -10329,12 +10737,12 @@
       <c r="C135" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="D135" s="50"/>
-      <c r="E135" s="63" t="s">
+      <c r="D135" s="44"/>
+      <c r="E135" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F135" s="58"/>
-      <c r="G135" s="58"/>
+      <c r="F135" s="52"/>
+      <c r="G135" s="52"/>
     </row>
     <row r="136" spans="1:25" ht="12.75">
       <c r="A136" s="15">
@@ -10346,12 +10754,12 @@
       <c r="C136" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="D136" s="50"/>
-      <c r="E136" s="63" t="s">
+      <c r="D136" s="44"/>
+      <c r="E136" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F136" s="58"/>
-      <c r="G136" s="58"/>
+      <c r="F136" s="52"/>
+      <c r="G136" s="52"/>
     </row>
     <row r="137" spans="1:25" ht="12.75">
       <c r="A137" s="15">
@@ -10363,12 +10771,12 @@
       <c r="C137" s="16" t="s">
         <v>213</v>
       </c>
-      <c r="D137" s="50"/>
-      <c r="E137" s="63" t="s">
+      <c r="D137" s="44"/>
+      <c r="E137" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F137" s="58"/>
-      <c r="G137" s="58"/>
+      <c r="F137" s="52"/>
+      <c r="G137" s="52"/>
     </row>
     <row r="138" spans="1:25" ht="12.75">
       <c r="A138" s="15">
@@ -10380,25 +10788,25 @@
       <c r="C138" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="D138" s="50"/>
-      <c r="E138" s="63" t="s">
+      <c r="D138" s="44"/>
+      <c r="E138" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F138" s="58"/>
-      <c r="G138" s="58"/>
+      <c r="F138" s="52"/>
+      <c r="G138" s="52"/>
     </row>
     <row r="139" spans="1:25" ht="12.75">
-      <c r="A139" s="45" t="s">
+      <c r="A139" s="61" t="s">
         <v>239</v>
       </c>
-      <c r="B139" s="46"/>
-      <c r="C139" s="46"/>
-      <c r="D139" s="46"/>
-      <c r="E139" s="63" t="s">
+      <c r="B139" s="62"/>
+      <c r="C139" s="62"/>
+      <c r="D139" s="62"/>
+      <c r="E139" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F139" s="59"/>
-      <c r="G139" s="59"/>
+      <c r="F139" s="53"/>
+      <c r="G139" s="53"/>
       <c r="H139" s="19"/>
       <c r="I139" s="19"/>
       <c r="J139" s="19"/>
@@ -10428,12 +10836,12 @@
       <c r="C140" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D140" s="50"/>
-      <c r="E140" s="63" t="s">
+      <c r="D140" s="44"/>
+      <c r="E140" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F140" s="58"/>
-      <c r="G140" s="58"/>
+      <c r="F140" s="52"/>
+      <c r="G140" s="52"/>
     </row>
     <row r="141" spans="1:25" ht="12.75">
       <c r="A141" s="15">
@@ -10445,12 +10853,12 @@
       <c r="C141" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D141" s="50"/>
-      <c r="E141" s="63" t="s">
+      <c r="D141" s="44"/>
+      <c r="E141" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F141" s="58"/>
-      <c r="G141" s="58"/>
+      <c r="F141" s="52"/>
+      <c r="G141" s="52"/>
     </row>
     <row r="142" spans="1:25" ht="12.75">
       <c r="A142" s="15">
@@ -10462,12 +10870,12 @@
       <c r="C142" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D142" s="50"/>
-      <c r="E142" s="63" t="s">
+      <c r="D142" s="44"/>
+      <c r="E142" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F142" s="58"/>
-      <c r="G142" s="58"/>
+      <c r="F142" s="52"/>
+      <c r="G142" s="52"/>
     </row>
     <row r="143" spans="1:25" ht="12.75">
       <c r="A143" s="15">
@@ -10479,12 +10887,12 @@
       <c r="C143" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="D143" s="50"/>
-      <c r="E143" s="63" t="s">
+      <c r="D143" s="44"/>
+      <c r="E143" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F143" s="58"/>
-      <c r="G143" s="58"/>
+      <c r="F143" s="52"/>
+      <c r="G143" s="52"/>
     </row>
     <row r="144" spans="1:25" ht="12.75">
       <c r="A144" s="15">
@@ -10496,25 +10904,25 @@
       <c r="C144" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D144" s="50"/>
-      <c r="E144" s="63" t="s">
+      <c r="D144" s="44"/>
+      <c r="E144" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F144" s="58"/>
-      <c r="G144" s="58"/>
+      <c r="F144" s="52"/>
+      <c r="G144" s="52"/>
     </row>
     <row r="145" spans="1:25" ht="12.75">
-      <c r="A145" s="45" t="s">
+      <c r="A145" s="61" t="s">
         <v>247</v>
       </c>
-      <c r="B145" s="46"/>
-      <c r="C145" s="46"/>
-      <c r="D145" s="46"/>
-      <c r="E145" s="63" t="s">
+      <c r="B145" s="62"/>
+      <c r="C145" s="62"/>
+      <c r="D145" s="62"/>
+      <c r="E145" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F145" s="59"/>
-      <c r="G145" s="59"/>
+      <c r="F145" s="53"/>
+      <c r="G145" s="53"/>
       <c r="H145" s="19"/>
       <c r="I145" s="19"/>
       <c r="J145" s="19"/>
@@ -10544,12 +10952,12 @@
       <c r="C146" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D146" s="50"/>
-      <c r="E146" s="63" t="s">
+      <c r="D146" s="44"/>
+      <c r="E146" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F146" s="58"/>
-      <c r="G146" s="58"/>
+      <c r="F146" s="52"/>
+      <c r="G146" s="52"/>
     </row>
     <row r="147" spans="1:25" ht="12.75">
       <c r="A147" s="15">
@@ -10561,12 +10969,12 @@
       <c r="C147" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="D147" s="50"/>
-      <c r="E147" s="63" t="s">
+      <c r="D147" s="44"/>
+      <c r="E147" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F147" s="58"/>
-      <c r="G147" s="58"/>
+      <c r="F147" s="52"/>
+      <c r="G147" s="52"/>
     </row>
     <row r="148" spans="1:25" ht="12.75">
       <c r="A148" s="15">
@@ -10578,12 +10986,12 @@
       <c r="C148" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D148" s="50"/>
-      <c r="E148" s="63" t="s">
+      <c r="D148" s="44"/>
+      <c r="E148" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F148" s="58"/>
-      <c r="G148" s="58"/>
+      <c r="F148" s="52"/>
+      <c r="G148" s="52"/>
     </row>
     <row r="149" spans="1:25" ht="12.75">
       <c r="A149" s="15">
@@ -10595,12 +11003,12 @@
       <c r="C149" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="D149" s="50"/>
-      <c r="E149" s="63" t="s">
+      <c r="D149" s="44"/>
+      <c r="E149" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F149" s="58"/>
-      <c r="G149" s="58"/>
+      <c r="F149" s="52"/>
+      <c r="G149" s="52"/>
     </row>
     <row r="150" spans="1:25" ht="12.75">
       <c r="A150" s="15">
@@ -10612,25 +11020,25 @@
       <c r="C150" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D150" s="50"/>
-      <c r="E150" s="63" t="s">
+      <c r="D150" s="44"/>
+      <c r="E150" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F150" s="58"/>
-      <c r="G150" s="58"/>
+      <c r="F150" s="52"/>
+      <c r="G150" s="52"/>
     </row>
     <row r="151" spans="1:25" ht="12.75">
-      <c r="A151" s="45" t="s">
+      <c r="A151" s="61" t="s">
         <v>250</v>
       </c>
-      <c r="B151" s="46"/>
-      <c r="C151" s="46"/>
-      <c r="D151" s="46"/>
-      <c r="E151" s="63" t="s">
+      <c r="B151" s="62"/>
+      <c r="C151" s="62"/>
+      <c r="D151" s="62"/>
+      <c r="E151" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F151" s="59"/>
-      <c r="G151" s="59"/>
+      <c r="F151" s="53"/>
+      <c r="G151" s="53"/>
       <c r="H151" s="19"/>
       <c r="I151" s="19"/>
       <c r="J151" s="19"/>
@@ -10660,12 +11068,12 @@
       <c r="C152" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D152" s="50"/>
-      <c r="E152" s="63" t="s">
+      <c r="D152" s="44"/>
+      <c r="E152" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F152" s="58"/>
-      <c r="G152" s="58"/>
+      <c r="F152" s="52"/>
+      <c r="G152" s="52"/>
     </row>
     <row r="153" spans="1:25" ht="12.75">
       <c r="A153" s="15">
@@ -10677,12 +11085,12 @@
       <c r="C153" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D153" s="50"/>
-      <c r="E153" s="63" t="s">
+      <c r="D153" s="44"/>
+      <c r="E153" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F153" s="58"/>
-      <c r="G153" s="58"/>
+      <c r="F153" s="52"/>
+      <c r="G153" s="52"/>
     </row>
     <row r="154" spans="1:25" ht="12.75">
       <c r="A154" s="15">
@@ -10694,12 +11102,12 @@
       <c r="C154" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D154" s="50"/>
-      <c r="E154" s="63" t="s">
+      <c r="D154" s="44"/>
+      <c r="E154" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F154" s="58"/>
-      <c r="G154" s="58"/>
+      <c r="F154" s="52"/>
+      <c r="G154" s="52"/>
     </row>
     <row r="155" spans="1:25" ht="12.75">
       <c r="A155" s="15">
@@ -10711,12 +11119,12 @@
       <c r="C155" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="D155" s="50"/>
-      <c r="E155" s="63" t="s">
+      <c r="D155" s="44"/>
+      <c r="E155" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F155" s="58"/>
-      <c r="G155" s="58"/>
+      <c r="F155" s="52"/>
+      <c r="G155" s="52"/>
     </row>
     <row r="156" spans="1:25" ht="12.75">
       <c r="A156" s="15">
@@ -10728,25 +11136,25 @@
       <c r="C156" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D156" s="50"/>
-      <c r="E156" s="63" t="s">
+      <c r="D156" s="44"/>
+      <c r="E156" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F156" s="58"/>
-      <c r="G156" s="58"/>
+      <c r="F156" s="52"/>
+      <c r="G156" s="52"/>
     </row>
     <row r="157" spans="1:25" ht="12.75">
-      <c r="A157" s="45" t="s">
+      <c r="A157" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="B157" s="46"/>
-      <c r="C157" s="46"/>
-      <c r="D157" s="46"/>
-      <c r="E157" s="63" t="s">
+      <c r="B157" s="62"/>
+      <c r="C157" s="62"/>
+      <c r="D157" s="62"/>
+      <c r="E157" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F157" s="59"/>
-      <c r="G157" s="59"/>
+      <c r="F157" s="53"/>
+      <c r="G157" s="53"/>
       <c r="H157" s="19"/>
       <c r="I157" s="19"/>
       <c r="J157" s="19"/>
@@ -10776,12 +11184,12 @@
       <c r="C158" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D158" s="50"/>
-      <c r="E158" s="63" t="s">
+      <c r="D158" s="44"/>
+      <c r="E158" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F158" s="58"/>
-      <c r="G158" s="58"/>
+      <c r="F158" s="52"/>
+      <c r="G158" s="52"/>
     </row>
     <row r="159" spans="1:25" ht="12.75">
       <c r="A159" s="15">
@@ -10793,12 +11201,12 @@
       <c r="C159" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D159" s="50"/>
-      <c r="E159" s="63" t="s">
+      <c r="D159" s="44"/>
+      <c r="E159" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F159" s="58"/>
-      <c r="G159" s="58"/>
+      <c r="F159" s="52"/>
+      <c r="G159" s="52"/>
     </row>
     <row r="160" spans="1:25" ht="12.75">
       <c r="A160" s="15">
@@ -10810,12 +11218,12 @@
       <c r="C160" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D160" s="50"/>
-      <c r="E160" s="63" t="s">
+      <c r="D160" s="44"/>
+      <c r="E160" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F160" s="58"/>
-      <c r="G160" s="58"/>
+      <c r="F160" s="52"/>
+      <c r="G160" s="52"/>
     </row>
     <row r="161" spans="1:25" ht="12.75">
       <c r="A161" s="15">
@@ -10827,12 +11235,12 @@
       <c r="C161" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="D161" s="50"/>
-      <c r="E161" s="63" t="s">
+      <c r="D161" s="44"/>
+      <c r="E161" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F161" s="58"/>
-      <c r="G161" s="58"/>
+      <c r="F161" s="52"/>
+      <c r="G161" s="52"/>
     </row>
     <row r="162" spans="1:25" ht="12.75">
       <c r="A162" s="15">
@@ -10844,25 +11252,25 @@
       <c r="C162" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D162" s="50"/>
-      <c r="E162" s="63" t="s">
+      <c r="D162" s="44"/>
+      <c r="E162" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F162" s="58"/>
-      <c r="G162" s="58"/>
+      <c r="F162" s="52"/>
+      <c r="G162" s="52"/>
     </row>
     <row r="163" spans="1:25" ht="12.75">
-      <c r="A163" s="45" t="s">
+      <c r="A163" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="B163" s="46"/>
-      <c r="C163" s="46"/>
-      <c r="D163" s="46"/>
-      <c r="E163" s="63" t="s">
+      <c r="B163" s="62"/>
+      <c r="C163" s="62"/>
+      <c r="D163" s="62"/>
+      <c r="E163" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F163" s="59"/>
-      <c r="G163" s="59"/>
+      <c r="F163" s="53"/>
+      <c r="G163" s="53"/>
       <c r="H163" s="19"/>
       <c r="I163" s="19"/>
       <c r="J163" s="19"/>
@@ -10892,12 +11300,12 @@
       <c r="C164" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D164" s="50"/>
-      <c r="E164" s="63" t="s">
+      <c r="D164" s="44"/>
+      <c r="E164" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F164" s="58"/>
-      <c r="G164" s="58"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="52"/>
     </row>
     <row r="165" spans="1:25" ht="12.75">
       <c r="A165" s="15">
@@ -10909,12 +11317,12 @@
       <c r="C165" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="D165" s="50"/>
-      <c r="E165" s="63" t="s">
+      <c r="D165" s="44"/>
+      <c r="E165" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F165" s="58"/>
-      <c r="G165" s="58"/>
+      <c r="F165" s="52"/>
+      <c r="G165" s="52"/>
     </row>
     <row r="166" spans="1:25" ht="12.75">
       <c r="A166" s="15">
@@ -10926,12 +11334,12 @@
       <c r="C166" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="D166" s="50"/>
-      <c r="E166" s="63" t="s">
+      <c r="D166" s="44"/>
+      <c r="E166" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F166" s="58"/>
-      <c r="G166" s="58"/>
+      <c r="F166" s="52"/>
+      <c r="G166" s="52"/>
     </row>
     <row r="167" spans="1:25" ht="12.75">
       <c r="A167" s="15">
@@ -10943,12 +11351,12 @@
       <c r="C167" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="D167" s="50"/>
-      <c r="E167" s="63" t="s">
+      <c r="D167" s="44"/>
+      <c r="E167" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F167" s="58"/>
-      <c r="G167" s="58"/>
+      <c r="F167" s="52"/>
+      <c r="G167" s="52"/>
     </row>
     <row r="168" spans="1:25" ht="12.75">
       <c r="A168" s="15">
@@ -10960,25 +11368,25 @@
       <c r="C168" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="D168" s="50"/>
-      <c r="E168" s="63" t="s">
+      <c r="D168" s="44"/>
+      <c r="E168" s="57" t="s">
         <v>496</v>
       </c>
-      <c r="F168" s="58"/>
-      <c r="G168" s="58"/>
+      <c r="F168" s="52"/>
+      <c r="G168" s="52"/>
     </row>
     <row r="169" spans="1:25" ht="12.75">
-      <c r="A169" s="45" t="s">
+      <c r="A169" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="B169" s="46"/>
-      <c r="C169" s="46"/>
-      <c r="D169" s="46"/>
-      <c r="E169" s="63" t="s">
+      <c r="B169" s="62"/>
+      <c r="C169" s="62"/>
+      <c r="D169" s="62"/>
+      <c r="E169" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F169" s="58"/>
-      <c r="G169" s="58"/>
+      <c r="F169" s="52"/>
+      <c r="G169" s="52"/>
     </row>
     <row r="170" spans="1:25" ht="12.75">
       <c r="A170" s="23">
@@ -10990,12 +11398,12 @@
       <c r="C170" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D170" s="53"/>
-      <c r="E170" s="63" t="s">
+      <c r="D170" s="47"/>
+      <c r="E170" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F170" s="58"/>
-      <c r="G170" s="58"/>
+      <c r="F170" s="52"/>
+      <c r="G170" s="52"/>
     </row>
     <row r="171" spans="1:25" ht="12.75">
       <c r="A171" s="23">
@@ -11007,12 +11415,12 @@
       <c r="C171" s="24" t="s">
         <v>263</v>
       </c>
-      <c r="D171" s="50"/>
-      <c r="E171" s="63" t="s">
+      <c r="D171" s="44"/>
+      <c r="E171" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F171" s="58"/>
-      <c r="G171" s="58"/>
+      <c r="F171" s="52"/>
+      <c r="G171" s="52"/>
     </row>
     <row r="172" spans="1:25" ht="12.75">
       <c r="A172" s="23">
@@ -11024,12 +11432,12 @@
       <c r="C172" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="D172" s="53"/>
-      <c r="E172" s="63" t="s">
+      <c r="D172" s="47"/>
+      <c r="E172" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F172" s="58"/>
-      <c r="G172" s="58"/>
+      <c r="F172" s="52"/>
+      <c r="G172" s="52"/>
     </row>
     <row r="173" spans="1:25" ht="12.75">
       <c r="A173" s="23">
@@ -11041,12 +11449,12 @@
       <c r="C173" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D173" s="53"/>
-      <c r="E173" s="63" t="s">
+      <c r="D173" s="47"/>
+      <c r="E173" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F173" s="58"/>
-      <c r="G173" s="58"/>
+      <c r="F173" s="52"/>
+      <c r="G173" s="52"/>
     </row>
     <row r="174" spans="1:25" ht="12.75">
       <c r="A174" s="23">
@@ -11058,12 +11466,12 @@
       <c r="C174" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D174" s="53"/>
-      <c r="E174" s="63" t="s">
+      <c r="D174" s="47"/>
+      <c r="E174" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F174" s="58"/>
-      <c r="G174" s="58"/>
+      <c r="F174" s="52"/>
+      <c r="G174" s="52"/>
     </row>
     <row r="175" spans="1:25" ht="12.75">
       <c r="A175" s="23">
@@ -11075,12 +11483,12 @@
       <c r="C175" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D175" s="50"/>
-      <c r="E175" s="63" t="s">
+      <c r="D175" s="44"/>
+      <c r="E175" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F175" s="58"/>
-      <c r="G175" s="58"/>
+      <c r="F175" s="52"/>
+      <c r="G175" s="52"/>
     </row>
     <row r="176" spans="1:25" ht="12.75">
       <c r="A176" s="23">
@@ -11092,12 +11500,12 @@
       <c r="C176" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="D176" s="50"/>
-      <c r="E176" s="63" t="s">
+      <c r="D176" s="44"/>
+      <c r="E176" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F176" s="58"/>
-      <c r="G176" s="58"/>
+      <c r="F176" s="52"/>
+      <c r="G176" s="52"/>
     </row>
     <row r="177" spans="1:7" ht="12.75">
       <c r="A177" s="23">
@@ -11109,12 +11517,12 @@
       <c r="C177" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="D177" s="50"/>
-      <c r="E177" s="63" t="s">
+      <c r="D177" s="44"/>
+      <c r="E177" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F177" s="58"/>
-      <c r="G177" s="58"/>
+      <c r="F177" s="52"/>
+      <c r="G177" s="52"/>
     </row>
     <row r="178" spans="1:7" ht="12.75">
       <c r="A178" s="23">
@@ -11126,12 +11534,12 @@
       <c r="C178" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="D178" s="50"/>
-      <c r="E178" s="63" t="s">
+      <c r="D178" s="44"/>
+      <c r="E178" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F178" s="58"/>
-      <c r="G178" s="58"/>
+      <c r="F178" s="52"/>
+      <c r="G178" s="52"/>
     </row>
     <row r="179" spans="1:7" ht="12.75">
       <c r="A179" s="23">
@@ -11143,12 +11551,12 @@
       <c r="C179" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="D179" s="50"/>
-      <c r="E179" s="63" t="s">
+      <c r="D179" s="44"/>
+      <c r="E179" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F179" s="58"/>
-      <c r="G179" s="58"/>
+      <c r="F179" s="52"/>
+      <c r="G179" s="52"/>
     </row>
     <row r="180" spans="1:7" ht="12.75">
       <c r="A180" s="23">
@@ -11160,12 +11568,12 @@
       <c r="C180" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="D180" s="53"/>
-      <c r="E180" s="63" t="s">
+      <c r="D180" s="47"/>
+      <c r="E180" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F180" s="58"/>
-      <c r="G180" s="58"/>
+      <c r="F180" s="52"/>
+      <c r="G180" s="52"/>
     </row>
     <row r="181" spans="1:7" ht="12.75">
       <c r="A181" s="23">
@@ -11177,12 +11585,12 @@
       <c r="C181" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="D181" s="50"/>
-      <c r="E181" s="63" t="s">
+      <c r="D181" s="44"/>
+      <c r="E181" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F181" s="58"/>
-      <c r="G181" s="58"/>
+      <c r="F181" s="52"/>
+      <c r="G181" s="52"/>
     </row>
     <row r="182" spans="1:7" ht="12.75">
       <c r="A182" s="23" t="s">
@@ -11194,12 +11602,12 @@
       <c r="C182" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D182" s="53"/>
-      <c r="E182" s="63" t="s">
+      <c r="D182" s="47"/>
+      <c r="E182" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F182" s="58"/>
-      <c r="G182" s="58"/>
+      <c r="F182" s="52"/>
+      <c r="G182" s="52"/>
     </row>
     <row r="183" spans="1:7" ht="12.75">
       <c r="A183" s="23" t="s">
@@ -11211,25 +11619,25 @@
       <c r="C183" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="D183" s="53"/>
-      <c r="E183" s="63" t="s">
+      <c r="D183" s="47"/>
+      <c r="E183" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F183" s="58"/>
-      <c r="G183" s="58"/>
+      <c r="F183" s="52"/>
+      <c r="G183" s="52"/>
     </row>
     <row r="184" spans="1:7" ht="12.75">
-      <c r="A184" s="45" t="s">
+      <c r="A184" s="61" t="s">
         <v>289</v>
       </c>
-      <c r="B184" s="46"/>
-      <c r="C184" s="46"/>
-      <c r="D184" s="46"/>
-      <c r="E184" s="63" t="s">
+      <c r="B184" s="62"/>
+      <c r="C184" s="62"/>
+      <c r="D184" s="62"/>
+      <c r="E184" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F184" s="58"/>
-      <c r="G184" s="58"/>
+      <c r="F184" s="52"/>
+      <c r="G184" s="52"/>
     </row>
     <row r="185" spans="1:7" ht="12.75">
       <c r="A185" s="23">
@@ -11241,12 +11649,12 @@
       <c r="C185" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D185" s="50"/>
-      <c r="E185" s="63" t="s">
+      <c r="D185" s="44"/>
+      <c r="E185" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F185" s="58"/>
-      <c r="G185" s="58"/>
+      <c r="F185" s="52"/>
+      <c r="G185" s="52"/>
     </row>
     <row r="186" spans="1:7" ht="12.75">
       <c r="A186" s="23">
@@ -11258,12 +11666,12 @@
       <c r="C186" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="D186" s="50"/>
-      <c r="E186" s="63" t="s">
+      <c r="D186" s="44"/>
+      <c r="E186" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F186" s="58"/>
-      <c r="G186" s="58"/>
+      <c r="F186" s="52"/>
+      <c r="G186" s="52"/>
     </row>
     <row r="187" spans="1:7" ht="12.75">
       <c r="A187" s="23">
@@ -11275,12 +11683,12 @@
       <c r="C187" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="D187" s="50"/>
-      <c r="E187" s="63" t="s">
+      <c r="D187" s="44"/>
+      <c r="E187" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F187" s="58"/>
-      <c r="G187" s="58"/>
+      <c r="F187" s="52"/>
+      <c r="G187" s="52"/>
     </row>
     <row r="188" spans="1:7" ht="12.75">
       <c r="A188" s="23">
@@ -11292,12 +11700,12 @@
       <c r="C188" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D188" s="50"/>
-      <c r="E188" s="63" t="s">
+      <c r="D188" s="44"/>
+      <c r="E188" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F188" s="58"/>
-      <c r="G188" s="58"/>
+      <c r="F188" s="52"/>
+      <c r="G188" s="52"/>
     </row>
     <row r="189" spans="1:7" ht="12.75">
       <c r="A189" s="23">
@@ -11309,12 +11717,12 @@
       <c r="C189" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D189" s="50"/>
-      <c r="E189" s="63" t="s">
+      <c r="D189" s="44"/>
+      <c r="E189" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F189" s="58"/>
-      <c r="G189" s="58"/>
+      <c r="F189" s="52"/>
+      <c r="G189" s="52"/>
     </row>
     <row r="190" spans="1:7" ht="12.75">
       <c r="A190" s="23">
@@ -11326,12 +11734,12 @@
       <c r="C190" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D190" s="50"/>
-      <c r="E190" s="63" t="s">
+      <c r="D190" s="44"/>
+      <c r="E190" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F190" s="58"/>
-      <c r="G190" s="58"/>
+      <c r="F190" s="52"/>
+      <c r="G190" s="52"/>
     </row>
     <row r="191" spans="1:7" ht="12.75">
       <c r="A191" s="23">
@@ -11343,12 +11751,12 @@
       <c r="C191" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="D191" s="50"/>
-      <c r="E191" s="63" t="s">
+      <c r="D191" s="44"/>
+      <c r="E191" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F191" s="58"/>
-      <c r="G191" s="58"/>
+      <c r="F191" s="52"/>
+      <c r="G191" s="52"/>
     </row>
     <row r="192" spans="1:7" ht="12.75">
       <c r="A192" s="23">
@@ -11360,12 +11768,12 @@
       <c r="C192" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="D192" s="50"/>
-      <c r="E192" s="63" t="s">
+      <c r="D192" s="44"/>
+      <c r="E192" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F192" s="58"/>
-      <c r="G192" s="58"/>
+      <c r="F192" s="52"/>
+      <c r="G192" s="52"/>
     </row>
     <row r="193" spans="1:7" ht="12.75">
       <c r="A193" s="23">
@@ -11377,25 +11785,25 @@
       <c r="C193" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="D193" s="50"/>
-      <c r="E193" s="63" t="s">
+      <c r="D193" s="44"/>
+      <c r="E193" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F193" s="58"/>
-      <c r="G193" s="58"/>
+      <c r="F193" s="52"/>
+      <c r="G193" s="52"/>
     </row>
     <row r="194" spans="1:7" ht="12.75">
-      <c r="A194" s="45" t="s">
+      <c r="A194" s="61" t="s">
         <v>298</v>
       </c>
-      <c r="B194" s="46"/>
-      <c r="C194" s="46"/>
-      <c r="D194" s="46"/>
-      <c r="E194" s="63" t="s">
+      <c r="B194" s="62"/>
+      <c r="C194" s="62"/>
+      <c r="D194" s="62"/>
+      <c r="E194" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F194" s="58"/>
-      <c r="G194" s="58"/>
+      <c r="F194" s="52"/>
+      <c r="G194" s="52"/>
     </row>
     <row r="195" spans="1:7" ht="12.75">
       <c r="A195" s="23">
@@ -11407,12 +11815,12 @@
       <c r="C195" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="D195" s="50"/>
-      <c r="E195" s="63" t="s">
+      <c r="D195" s="44"/>
+      <c r="E195" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F195" s="58"/>
-      <c r="G195" s="58"/>
+      <c r="F195" s="52"/>
+      <c r="G195" s="52"/>
     </row>
     <row r="196" spans="1:7" ht="12.75">
       <c r="A196" s="23">
@@ -11424,12 +11832,12 @@
       <c r="C196" s="24" t="s">
         <v>300</v>
       </c>
-      <c r="D196" s="50"/>
-      <c r="E196" s="63" t="s">
+      <c r="D196" s="44"/>
+      <c r="E196" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F196" s="58"/>
-      <c r="G196" s="58"/>
+      <c r="F196" s="52"/>
+      <c r="G196" s="52"/>
     </row>
     <row r="197" spans="1:7" ht="12.75">
       <c r="A197" s="23">
@@ -11441,12 +11849,12 @@
       <c r="C197" s="24" t="s">
         <v>265</v>
       </c>
-      <c r="D197" s="50"/>
-      <c r="E197" s="63" t="s">
+      <c r="D197" s="44"/>
+      <c r="E197" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F197" s="58"/>
-      <c r="G197" s="58"/>
+      <c r="F197" s="52"/>
+      <c r="G197" s="52"/>
     </row>
     <row r="198" spans="1:7" ht="12.75">
       <c r="A198" s="23">
@@ -11458,12 +11866,12 @@
       <c r="C198" s="24" t="s">
         <v>267</v>
       </c>
-      <c r="D198" s="50"/>
-      <c r="E198" s="63" t="s">
+      <c r="D198" s="44"/>
+      <c r="E198" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F198" s="58"/>
-      <c r="G198" s="58"/>
+      <c r="F198" s="52"/>
+      <c r="G198" s="52"/>
     </row>
     <row r="199" spans="1:7" ht="12.75">
       <c r="A199" s="23">
@@ -11475,12 +11883,12 @@
       <c r="C199" s="24" t="s">
         <v>269</v>
       </c>
-      <c r="D199" s="50"/>
-      <c r="E199" s="63" t="s">
+      <c r="D199" s="44"/>
+      <c r="E199" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F199" s="58"/>
-      <c r="G199" s="58"/>
+      <c r="F199" s="52"/>
+      <c r="G199" s="52"/>
     </row>
     <row r="200" spans="1:7" ht="12.75">
       <c r="A200" s="23">
@@ -11492,12 +11900,12 @@
       <c r="C200" s="24" t="s">
         <v>270</v>
       </c>
-      <c r="D200" s="50"/>
-      <c r="E200" s="63" t="s">
+      <c r="D200" s="44"/>
+      <c r="E200" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F200" s="58"/>
-      <c r="G200" s="58"/>
+      <c r="F200" s="52"/>
+      <c r="G200" s="52"/>
     </row>
     <row r="201" spans="1:7" ht="12.75">
       <c r="A201" s="23">
@@ -11509,12 +11917,12 @@
       <c r="C201" s="24" t="s">
         <v>272</v>
       </c>
-      <c r="D201" s="50"/>
-      <c r="E201" s="63" t="s">
+      <c r="D201" s="44"/>
+      <c r="E201" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F201" s="58"/>
-      <c r="G201" s="58"/>
+      <c r="F201" s="52"/>
+      <c r="G201" s="52"/>
     </row>
     <row r="202" spans="1:7" ht="12.75">
       <c r="A202" s="23">
@@ -11526,12 +11934,12 @@
       <c r="C202" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="D202" s="50"/>
-      <c r="E202" s="63" t="s">
+      <c r="D202" s="44"/>
+      <c r="E202" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F202" s="58"/>
-      <c r="G202" s="58"/>
+      <c r="F202" s="52"/>
+      <c r="G202" s="52"/>
     </row>
     <row r="203" spans="1:7" ht="12.75">
       <c r="A203" s="23">
@@ -11543,12 +11951,12 @@
       <c r="C203" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="D203" s="50"/>
-      <c r="E203" s="63" t="s">
+      <c r="D203" s="44"/>
+      <c r="E203" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F203" s="58"/>
-      <c r="G203" s="58"/>
+      <c r="F203" s="52"/>
+      <c r="G203" s="52"/>
     </row>
     <row r="204" spans="1:7" ht="12.75">
       <c r="A204" s="23">
@@ -11560,12 +11968,12 @@
       <c r="C204" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="D204" s="50"/>
-      <c r="E204" s="63" t="s">
+      <c r="D204" s="44"/>
+      <c r="E204" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F204" s="58"/>
-      <c r="G204" s="58"/>
+      <c r="F204" s="52"/>
+      <c r="G204" s="52"/>
     </row>
     <row r="205" spans="1:7" ht="12.75">
       <c r="A205" s="23">
@@ -11577,12 +11985,12 @@
       <c r="C205" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="D205" s="50"/>
-      <c r="E205" s="63" t="s">
+      <c r="D205" s="44"/>
+      <c r="E205" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F205" s="58"/>
-      <c r="G205" s="58"/>
+      <c r="F205" s="52"/>
+      <c r="G205" s="52"/>
     </row>
     <row r="206" spans="1:7" ht="12.75">
       <c r="A206" s="23">
@@ -11594,12 +12002,12 @@
       <c r="C206" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="D206" s="50"/>
-      <c r="E206" s="63" t="s">
+      <c r="D206" s="44"/>
+      <c r="E206" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F206" s="58"/>
-      <c r="G206" s="58"/>
+      <c r="F206" s="52"/>
+      <c r="G206" s="52"/>
     </row>
     <row r="207" spans="1:7" ht="12.75">
       <c r="A207" s="23" t="s">
@@ -11611,12 +12019,12 @@
       <c r="C207" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="D207" s="50"/>
-      <c r="E207" s="63" t="s">
+      <c r="D207" s="44"/>
+      <c r="E207" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F207" s="58"/>
-      <c r="G207" s="58"/>
+      <c r="F207" s="52"/>
+      <c r="G207" s="52"/>
     </row>
     <row r="208" spans="1:7" ht="12.75">
       <c r="A208" s="23" t="s">
@@ -11628,12 +12036,12 @@
       <c r="C208" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="D208" s="50"/>
-      <c r="E208" s="63" t="s">
+      <c r="D208" s="44"/>
+      <c r="E208" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F208" s="58"/>
-      <c r="G208" s="58"/>
+      <c r="F208" s="52"/>
+      <c r="G208" s="52"/>
     </row>
     <row r="209" spans="1:7" ht="12.75">
       <c r="A209" s="23" t="s">
@@ -11645,12 +12053,12 @@
       <c r="C209" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="D209" s="50"/>
-      <c r="E209" s="63" t="s">
+      <c r="D209" s="44"/>
+      <c r="E209" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F209" s="58"/>
-      <c r="G209" s="58"/>
+      <c r="F209" s="52"/>
+      <c r="G209" s="52"/>
     </row>
     <row r="210" spans="1:7" ht="12.75">
       <c r="A210" s="23" t="s">
@@ -11662,12 +12070,12 @@
       <c r="C210" s="24" t="s">
         <v>285</v>
       </c>
-      <c r="D210" s="50"/>
-      <c r="E210" s="63" t="s">
+      <c r="D210" s="44"/>
+      <c r="E210" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F210" s="58"/>
-      <c r="G210" s="58"/>
+      <c r="F210" s="52"/>
+      <c r="G210" s="52"/>
     </row>
     <row r="211" spans="1:7" ht="12.75">
       <c r="A211" s="23" t="s">
@@ -11679,25 +12087,25 @@
       <c r="C211" s="24" t="s">
         <v>306</v>
       </c>
-      <c r="D211" s="50"/>
-      <c r="E211" s="63" t="s">
+      <c r="D211" s="44"/>
+      <c r="E211" s="57" t="s">
         <v>497</v>
       </c>
-      <c r="F211" s="58"/>
-      <c r="G211" s="58"/>
+      <c r="F211" s="52"/>
+      <c r="G211" s="52"/>
     </row>
     <row r="212" spans="1:7" ht="12.75">
-      <c r="A212" s="45" t="s">
+      <c r="A212" s="61" t="s">
         <v>307</v>
       </c>
-      <c r="B212" s="46"/>
-      <c r="C212" s="46"/>
-      <c r="D212" s="46"/>
-      <c r="E212" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F212" s="58"/>
-      <c r="G212" s="58"/>
+      <c r="B212" s="62"/>
+      <c r="C212" s="62"/>
+      <c r="D212" s="62"/>
+      <c r="E212" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F212" s="52"/>
+      <c r="G212" s="52"/>
     </row>
     <row r="213" spans="1:7" ht="12.75">
       <c r="A213" s="25">
@@ -11709,12 +12117,12 @@
       <c r="C213" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D213" s="50"/>
-      <c r="E213" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F213" s="58"/>
-      <c r="G213" s="58"/>
+      <c r="D213" s="44"/>
+      <c r="E213" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F213" s="52"/>
+      <c r="G213" s="52"/>
     </row>
     <row r="214" spans="1:7" ht="12.75">
       <c r="A214" s="25">
@@ -11726,12 +12134,12 @@
       <c r="C214" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D214" s="50"/>
-      <c r="E214" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F214" s="58"/>
-      <c r="G214" s="58"/>
+      <c r="D214" s="44"/>
+      <c r="E214" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F214" s="52"/>
+      <c r="G214" s="52"/>
     </row>
     <row r="215" spans="1:7" ht="12.75">
       <c r="A215" s="25">
@@ -11743,12 +12151,12 @@
       <c r="C215" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D215" s="50"/>
-      <c r="E215" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F215" s="58"/>
-      <c r="G215" s="58"/>
+      <c r="D215" s="44"/>
+      <c r="E215" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F215" s="52"/>
+      <c r="G215" s="52"/>
     </row>
     <row r="216" spans="1:7" ht="12.75">
       <c r="A216" s="25">
@@ -11760,12 +12168,12 @@
       <c r="C216" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D216" s="50"/>
-      <c r="E216" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F216" s="58"/>
-      <c r="G216" s="58"/>
+      <c r="D216" s="44"/>
+      <c r="E216" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F216" s="52"/>
+      <c r="G216" s="52"/>
     </row>
     <row r="217" spans="1:7" ht="12.75">
       <c r="A217" s="25">
@@ -11777,12 +12185,12 @@
       <c r="C217" s="27" t="s">
         <v>316</v>
       </c>
-      <c r="D217" s="50"/>
-      <c r="E217" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F217" s="58"/>
-      <c r="G217" s="58"/>
+      <c r="D217" s="44"/>
+      <c r="E217" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F217" s="52"/>
+      <c r="G217" s="52"/>
     </row>
     <row r="218" spans="1:7" ht="12.75">
       <c r="A218" s="25">
@@ -11794,12 +12202,12 @@
       <c r="C218" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D218" s="50"/>
-      <c r="E218" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F218" s="58"/>
-      <c r="G218" s="58"/>
+      <c r="D218" s="44"/>
+      <c r="E218" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F218" s="52"/>
+      <c r="G218" s="52"/>
     </row>
     <row r="219" spans="1:7" ht="12.75">
       <c r="A219" s="25">
@@ -11811,12 +12219,12 @@
       <c r="C219" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D219" s="50"/>
-      <c r="E219" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F219" s="58"/>
-      <c r="G219" s="58"/>
+      <c r="D219" s="44"/>
+      <c r="E219" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F219" s="52"/>
+      <c r="G219" s="52"/>
     </row>
     <row r="220" spans="1:7" ht="12.75">
       <c r="A220" s="25">
@@ -11828,12 +12236,12 @@
       <c r="C220" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D220" s="50"/>
-      <c r="E220" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F220" s="58"/>
-      <c r="G220" s="58"/>
+      <c r="D220" s="44"/>
+      <c r="E220" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F220" s="52"/>
+      <c r="G220" s="52"/>
     </row>
     <row r="221" spans="1:7" ht="12.75">
       <c r="A221" s="25">
@@ -11845,25 +12253,25 @@
       <c r="C221" s="27" t="s">
         <v>314</v>
       </c>
-      <c r="D221" s="50"/>
-      <c r="E221" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F221" s="58"/>
-      <c r="G221" s="58"/>
+      <c r="D221" s="44"/>
+      <c r="E221" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F221" s="52"/>
+      <c r="G221" s="52"/>
     </row>
     <row r="222" spans="1:7" ht="12.75">
-      <c r="A222" s="45" t="s">
+      <c r="A222" s="61" t="s">
         <v>324</v>
       </c>
-      <c r="B222" s="46"/>
-      <c r="C222" s="46"/>
-      <c r="D222" s="46"/>
-      <c r="E222" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F222" s="58"/>
-      <c r="G222" s="58"/>
+      <c r="B222" s="62"/>
+      <c r="C222" s="62"/>
+      <c r="D222" s="62"/>
+      <c r="E222" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F222" s="52"/>
+      <c r="G222" s="52"/>
     </row>
     <row r="223" spans="1:7" ht="12.75">
       <c r="A223" s="25">
@@ -11875,12 +12283,12 @@
       <c r="C223" s="26" t="s">
         <v>326</v>
       </c>
-      <c r="D223" s="50"/>
-      <c r="E223" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F223" s="58"/>
-      <c r="G223" s="58"/>
+      <c r="D223" s="44"/>
+      <c r="E223" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F223" s="52"/>
+      <c r="G223" s="52"/>
     </row>
     <row r="224" spans="1:7" ht="12.75">
       <c r="A224" s="25">
@@ -11892,12 +12300,12 @@
       <c r="C224" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="D224" s="50"/>
-      <c r="E224" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F224" s="58"/>
-      <c r="G224" s="58"/>
+      <c r="D224" s="44"/>
+      <c r="E224" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F224" s="52"/>
+      <c r="G224" s="52"/>
     </row>
     <row r="225" spans="1:7" ht="12.75">
       <c r="A225" s="25">
@@ -11909,12 +12317,12 @@
       <c r="C225" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="D225" s="50"/>
-      <c r="E225" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F225" s="58"/>
-      <c r="G225" s="58"/>
+      <c r="D225" s="44"/>
+      <c r="E225" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F225" s="52"/>
+      <c r="G225" s="52"/>
     </row>
     <row r="226" spans="1:7" ht="12.75">
       <c r="A226" s="25">
@@ -11926,12 +12334,12 @@
       <c r="C226" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D226" s="50"/>
-      <c r="E226" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F226" s="58"/>
-      <c r="G226" s="58"/>
+      <c r="D226" s="44"/>
+      <c r="E226" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F226" s="52"/>
+      <c r="G226" s="52"/>
     </row>
     <row r="227" spans="1:7" ht="12.75">
       <c r="A227" s="25">
@@ -11943,12 +12351,12 @@
       <c r="C227" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D227" s="50"/>
-      <c r="E227" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F227" s="58"/>
-      <c r="G227" s="58"/>
+      <c r="D227" s="44"/>
+      <c r="E227" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F227" s="52"/>
+      <c r="G227" s="52"/>
     </row>
     <row r="228" spans="1:7" ht="12.75">
       <c r="A228" s="25">
@@ -11960,12 +12368,12 @@
       <c r="C228" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D228" s="50"/>
-      <c r="E228" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F228" s="58"/>
-      <c r="G228" s="58"/>
+      <c r="D228" s="44"/>
+      <c r="E228" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F228" s="52"/>
+      <c r="G228" s="52"/>
     </row>
     <row r="229" spans="1:7" ht="12.75">
       <c r="A229" s="28">
@@ -11977,12 +12385,12 @@
       <c r="C229" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D229" s="50"/>
-      <c r="E229" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F229" s="58"/>
-      <c r="G229" s="58"/>
+      <c r="D229" s="44"/>
+      <c r="E229" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F229" s="52"/>
+      <c r="G229" s="52"/>
     </row>
     <row r="230" spans="1:7" ht="12.75">
       <c r="A230" s="25">
@@ -11994,12 +12402,12 @@
       <c r="C230" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="D230" s="50"/>
-      <c r="E230" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F230" s="58"/>
-      <c r="G230" s="58"/>
+      <c r="D230" s="44"/>
+      <c r="E230" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F230" s="52"/>
+      <c r="G230" s="52"/>
     </row>
     <row r="231" spans="1:7" ht="12.75">
       <c r="A231" s="25">
@@ -12011,25 +12419,25 @@
       <c r="C231" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D231" s="50"/>
-      <c r="E231" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F231" s="58"/>
-      <c r="G231" s="58"/>
+      <c r="D231" s="44"/>
+      <c r="E231" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F231" s="52"/>
+      <c r="G231" s="52"/>
     </row>
     <row r="232" spans="1:7" ht="12.75">
-      <c r="A232" s="45" t="s">
+      <c r="A232" s="61" t="s">
         <v>343</v>
       </c>
-      <c r="B232" s="46"/>
-      <c r="C232" s="46"/>
-      <c r="D232" s="46"/>
-      <c r="E232" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F232" s="58"/>
-      <c r="G232" s="58"/>
+      <c r="B232" s="62"/>
+      <c r="C232" s="62"/>
+      <c r="D232" s="62"/>
+      <c r="E232" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F232" s="52"/>
+      <c r="G232" s="52"/>
     </row>
     <row r="233" spans="1:7" ht="12.75">
       <c r="A233" s="25">
@@ -12041,12 +12449,12 @@
       <c r="C233" s="26" t="s">
         <v>345</v>
       </c>
-      <c r="D233" s="50"/>
-      <c r="E233" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F233" s="58"/>
-      <c r="G233" s="58"/>
+      <c r="D233" s="44"/>
+      <c r="E233" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F233" s="52"/>
+      <c r="G233" s="52"/>
     </row>
     <row r="234" spans="1:7" ht="12.75">
       <c r="A234" s="25">
@@ -12058,12 +12466,12 @@
       <c r="C234" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D234" s="50"/>
-      <c r="E234" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F234" s="58"/>
-      <c r="G234" s="58"/>
+      <c r="D234" s="44"/>
+      <c r="E234" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F234" s="52"/>
+      <c r="G234" s="52"/>
     </row>
     <row r="235" spans="1:7" ht="12.75">
       <c r="A235" s="25">
@@ -12075,12 +12483,12 @@
       <c r="C235" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D235" s="50"/>
-      <c r="E235" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F235" s="58"/>
-      <c r="G235" s="58"/>
+      <c r="D235" s="44"/>
+      <c r="E235" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F235" s="52"/>
+      <c r="G235" s="52"/>
     </row>
     <row r="236" spans="1:7" ht="12.75">
       <c r="A236" s="25">
@@ -12092,12 +12500,12 @@
       <c r="C236" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="D236" s="50"/>
-      <c r="E236" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F236" s="58"/>
-      <c r="G236" s="58"/>
+      <c r="D236" s="44"/>
+      <c r="E236" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F236" s="52"/>
+      <c r="G236" s="52"/>
     </row>
     <row r="237" spans="1:7" ht="12.75">
       <c r="A237" s="25">
@@ -12109,12 +12517,12 @@
       <c r="C237" s="26" t="s">
         <v>351</v>
       </c>
-      <c r="D237" s="50"/>
-      <c r="E237" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F237" s="58"/>
-      <c r="G237" s="58"/>
+      <c r="D237" s="44"/>
+      <c r="E237" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F237" s="52"/>
+      <c r="G237" s="52"/>
     </row>
     <row r="238" spans="1:7" ht="12.75">
       <c r="A238" s="25">
@@ -12126,12 +12534,12 @@
       <c r="C238" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D238" s="50"/>
-      <c r="E238" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F238" s="58"/>
-      <c r="G238" s="58"/>
+      <c r="D238" s="44"/>
+      <c r="E238" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F238" s="52"/>
+      <c r="G238" s="52"/>
     </row>
     <row r="239" spans="1:7" ht="12.75">
       <c r="A239" s="28">
@@ -12143,12 +12551,12 @@
       <c r="C239" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="D239" s="50"/>
-      <c r="E239" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F239" s="58"/>
-      <c r="G239" s="58"/>
+      <c r="D239" s="44"/>
+      <c r="E239" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F239" s="52"/>
+      <c r="G239" s="52"/>
     </row>
     <row r="240" spans="1:7" ht="12.75">
       <c r="A240" s="25">
@@ -12160,12 +12568,12 @@
       <c r="C240" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="D240" s="50"/>
-      <c r="E240" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F240" s="58"/>
-      <c r="G240" s="58"/>
+      <c r="D240" s="44"/>
+      <c r="E240" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F240" s="52"/>
+      <c r="G240" s="52"/>
     </row>
     <row r="241" spans="1:7" ht="12.75">
       <c r="A241" s="25">
@@ -12177,12 +12585,12 @@
       <c r="C241" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D241" s="50"/>
-      <c r="E241" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F241" s="58"/>
-      <c r="G241" s="58"/>
+      <c r="D241" s="44"/>
+      <c r="E241" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F241" s="52"/>
+      <c r="G241" s="52"/>
     </row>
     <row r="242" spans="1:7" ht="12.75">
       <c r="A242" s="25">
@@ -12194,12 +12602,12 @@
       <c r="C242" s="27" t="s">
         <v>356</v>
       </c>
-      <c r="D242" s="50"/>
-      <c r="E242" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F242" s="58"/>
-      <c r="G242" s="58"/>
+      <c r="D242" s="44"/>
+      <c r="E242" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F242" s="52"/>
+      <c r="G242" s="52"/>
     </row>
     <row r="243" spans="1:7" ht="12.75">
       <c r="A243" s="25">
@@ -12211,12 +12619,12 @@
       <c r="C243" s="27" t="s">
         <v>358</v>
       </c>
-      <c r="D243" s="50"/>
-      <c r="E243" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F243" s="58"/>
-      <c r="G243" s="58"/>
+      <c r="D243" s="44"/>
+      <c r="E243" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F243" s="52"/>
+      <c r="G243" s="52"/>
     </row>
     <row r="244" spans="1:7" ht="12.75">
       <c r="A244" s="25">
@@ -12228,12 +12636,12 @@
       <c r="C244" s="26" t="s">
         <v>360</v>
       </c>
-      <c r="D244" s="50"/>
-      <c r="E244" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F244" s="58"/>
-      <c r="G244" s="58"/>
+      <c r="D244" s="44"/>
+      <c r="E244" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F244" s="52"/>
+      <c r="G244" s="52"/>
     </row>
     <row r="245" spans="1:7" ht="12.75">
       <c r="A245" s="25" t="s">
@@ -12245,25 +12653,25 @@
       <c r="C245" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D245" s="50"/>
-      <c r="E245" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F245" s="58"/>
-      <c r="G245" s="58"/>
+      <c r="D245" s="44"/>
+      <c r="E245" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F245" s="52"/>
+      <c r="G245" s="52"/>
     </row>
     <row r="246" spans="1:7" ht="12.75">
-      <c r="A246" s="45" t="s">
+      <c r="A246" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="B246" s="46"/>
-      <c r="C246" s="46"/>
-      <c r="D246" s="46"/>
-      <c r="E246" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F246" s="58"/>
-      <c r="G246" s="58"/>
+      <c r="B246" s="62"/>
+      <c r="C246" s="62"/>
+      <c r="D246" s="62"/>
+      <c r="E246" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F246" s="52"/>
+      <c r="G246" s="52"/>
     </row>
     <row r="247" spans="1:7" ht="12.75">
       <c r="A247" s="25">
@@ -12275,12 +12683,12 @@
       <c r="C247" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="D247" s="50"/>
-      <c r="E247" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F247" s="58"/>
-      <c r="G247" s="58"/>
+      <c r="D247" s="44"/>
+      <c r="E247" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F247" s="52"/>
+      <c r="G247" s="52"/>
     </row>
     <row r="248" spans="1:7" ht="12.75">
       <c r="A248" s="28">
@@ -12292,12 +12700,12 @@
       <c r="C248" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="D248" s="50"/>
-      <c r="E248" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F248" s="58"/>
-      <c r="G248" s="58"/>
+      <c r="D248" s="44"/>
+      <c r="E248" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F248" s="52"/>
+      <c r="G248" s="52"/>
     </row>
     <row r="249" spans="1:7" ht="12.75">
       <c r="A249" s="25">
@@ -12309,12 +12717,12 @@
       <c r="C249" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="D249" s="50"/>
-      <c r="E249" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F249" s="58"/>
-      <c r="G249" s="58"/>
+      <c r="D249" s="44"/>
+      <c r="E249" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F249" s="52"/>
+      <c r="G249" s="52"/>
     </row>
     <row r="250" spans="1:7" ht="12.75">
       <c r="A250" s="25">
@@ -12326,12 +12734,12 @@
       <c r="C250" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="D250" s="50"/>
-      <c r="E250" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F250" s="58"/>
-      <c r="G250" s="58"/>
+      <c r="D250" s="44"/>
+      <c r="E250" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F250" s="52"/>
+      <c r="G250" s="52"/>
     </row>
     <row r="251" spans="1:7" ht="12.75">
       <c r="A251" s="25">
@@ -12343,12 +12751,12 @@
       <c r="C251" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="D251" s="50"/>
-      <c r="E251" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F251" s="58"/>
-      <c r="G251" s="58"/>
+      <c r="D251" s="44"/>
+      <c r="E251" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F251" s="52"/>
+      <c r="G251" s="52"/>
     </row>
     <row r="252" spans="1:7" ht="12.75">
       <c r="A252" s="25">
@@ -12360,12 +12768,12 @@
       <c r="C252" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D252" s="50"/>
-      <c r="E252" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F252" s="58"/>
-      <c r="G252" s="58"/>
+      <c r="D252" s="44"/>
+      <c r="E252" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F252" s="52"/>
+      <c r="G252" s="52"/>
     </row>
     <row r="253" spans="1:7" ht="12.75">
       <c r="A253" s="25">
@@ -12377,12 +12785,12 @@
       <c r="C253" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D253" s="50"/>
-      <c r="E253" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F253" s="58"/>
-      <c r="G253" s="58"/>
+      <c r="D253" s="44"/>
+      <c r="E253" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F253" s="52"/>
+      <c r="G253" s="52"/>
     </row>
     <row r="254" spans="1:7" ht="12.75">
       <c r="A254" s="25">
@@ -12394,12 +12802,12 @@
       <c r="C254" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="D254" s="50"/>
-      <c r="E254" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F254" s="58"/>
-      <c r="G254" s="58"/>
+      <c r="D254" s="44"/>
+      <c r="E254" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F254" s="52"/>
+      <c r="G254" s="52"/>
     </row>
     <row r="255" spans="1:7" ht="12.75">
       <c r="A255" s="25">
@@ -12411,12 +12819,12 @@
       <c r="C255" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="D255" s="50"/>
-      <c r="E255" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F255" s="58"/>
-      <c r="G255" s="58"/>
+      <c r="D255" s="44"/>
+      <c r="E255" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F255" s="52"/>
+      <c r="G255" s="52"/>
     </row>
     <row r="256" spans="1:7" ht="12.75">
       <c r="A256" s="25">
@@ -12428,12 +12836,12 @@
       <c r="C256" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="D256" s="50"/>
-      <c r="E256" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F256" s="58"/>
-      <c r="G256" s="58"/>
+      <c r="D256" s="44"/>
+      <c r="E256" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F256" s="52"/>
+      <c r="G256" s="52"/>
     </row>
     <row r="257" spans="1:7" ht="12.75">
       <c r="A257" s="25">
@@ -12445,12 +12853,12 @@
       <c r="C257" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="D257" s="50"/>
-      <c r="E257" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F257" s="58"/>
-      <c r="G257" s="58"/>
+      <c r="D257" s="44"/>
+      <c r="E257" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F257" s="52"/>
+      <c r="G257" s="52"/>
     </row>
     <row r="258" spans="1:7" ht="12.75">
       <c r="A258" s="25">
@@ -12462,12 +12870,12 @@
       <c r="C258" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="D258" s="50"/>
-      <c r="E258" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F258" s="58"/>
-      <c r="G258" s="58"/>
+      <c r="D258" s="44"/>
+      <c r="E258" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F258" s="52"/>
+      <c r="G258" s="52"/>
     </row>
     <row r="259" spans="1:7" ht="12.75">
       <c r="A259" s="25" t="s">
@@ -12479,12 +12887,12 @@
       <c r="C259" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="D259" s="50"/>
-      <c r="E259" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F259" s="58"/>
-      <c r="G259" s="58"/>
+      <c r="D259" s="44"/>
+      <c r="E259" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F259" s="52"/>
+      <c r="G259" s="52"/>
     </row>
     <row r="260" spans="1:7" ht="12.75">
       <c r="A260" s="25" t="s">
@@ -12496,12 +12904,12 @@
       <c r="C260" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="D260" s="50"/>
-      <c r="E260" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F260" s="58"/>
-      <c r="G260" s="58"/>
+      <c r="D260" s="44"/>
+      <c r="E260" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F260" s="52"/>
+      <c r="G260" s="52"/>
     </row>
     <row r="261" spans="1:7" ht="12.75">
       <c r="A261" s="25" t="s">
@@ -12513,12 +12921,12 @@
       <c r="C261" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D261" s="50"/>
-      <c r="E261" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F261" s="58"/>
-      <c r="G261" s="58"/>
+      <c r="D261" s="44"/>
+      <c r="E261" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F261" s="52"/>
+      <c r="G261" s="52"/>
     </row>
     <row r="262" spans="1:7" ht="12.75">
       <c r="A262" s="25" t="s">
@@ -12530,25 +12938,25 @@
       <c r="C262" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="D262" s="50"/>
-      <c r="E262" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F262" s="58"/>
-      <c r="G262" s="58"/>
+      <c r="D262" s="44"/>
+      <c r="E262" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F262" s="52"/>
+      <c r="G262" s="52"/>
     </row>
     <row r="263" spans="1:7" ht="12.75">
-      <c r="A263" s="45" t="s">
+      <c r="A263" s="61" t="s">
         <v>393</v>
       </c>
-      <c r="B263" s="46"/>
-      <c r="C263" s="46"/>
-      <c r="D263" s="46"/>
-      <c r="E263" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F263" s="58"/>
-      <c r="G263" s="58"/>
+      <c r="B263" s="62"/>
+      <c r="C263" s="62"/>
+      <c r="D263" s="62"/>
+      <c r="E263" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F263" s="52"/>
+      <c r="G263" s="52"/>
     </row>
     <row r="264" spans="1:7" ht="12.75">
       <c r="A264" s="25">
@@ -12560,12 +12968,12 @@
       <c r="C264" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D264" s="50"/>
-      <c r="E264" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F264" s="58"/>
-      <c r="G264" s="58"/>
+      <c r="D264" s="44"/>
+      <c r="E264" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F264" s="52"/>
+      <c r="G264" s="52"/>
     </row>
     <row r="265" spans="1:7" ht="12.75">
       <c r="A265" s="25">
@@ -12577,12 +12985,12 @@
       <c r="C265" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D265" s="50"/>
-      <c r="E265" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F265" s="58"/>
-      <c r="G265" s="58"/>
+      <c r="D265" s="44"/>
+      <c r="E265" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F265" s="52"/>
+      <c r="G265" s="52"/>
     </row>
     <row r="266" spans="1:7" ht="12.75">
       <c r="A266" s="25">
@@ -12594,12 +13002,12 @@
       <c r="C266" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="D266" s="50"/>
-      <c r="E266" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F266" s="58"/>
-      <c r="G266" s="58"/>
+      <c r="D266" s="44"/>
+      <c r="E266" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F266" s="52"/>
+      <c r="G266" s="52"/>
     </row>
     <row r="267" spans="1:7" ht="12.75">
       <c r="A267" s="25">
@@ -12611,12 +13019,12 @@
       <c r="C267" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D267" s="50"/>
-      <c r="E267" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F267" s="58"/>
-      <c r="G267" s="58"/>
+      <c r="D267" s="44"/>
+      <c r="E267" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F267" s="52"/>
+      <c r="G267" s="52"/>
     </row>
     <row r="268" spans="1:7" ht="12.75">
       <c r="A268" s="25">
@@ -12628,12 +13036,12 @@
       <c r="C268" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="D268" s="50"/>
-      <c r="E268" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F268" s="58"/>
-      <c r="G268" s="58"/>
+      <c r="D268" s="44"/>
+      <c r="E268" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F268" s="52"/>
+      <c r="G268" s="52"/>
     </row>
     <row r="269" spans="1:7" ht="12.75">
       <c r="A269" s="25">
@@ -12645,12 +13053,12 @@
       <c r="C269" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D269" s="50"/>
-      <c r="E269" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F269" s="58"/>
-      <c r="G269" s="58"/>
+      <c r="D269" s="44"/>
+      <c r="E269" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F269" s="52"/>
+      <c r="G269" s="52"/>
     </row>
     <row r="270" spans="1:7" ht="12.75">
       <c r="A270" s="25">
@@ -12662,12 +13070,12 @@
       <c r="C270" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D270" s="50"/>
-      <c r="E270" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F270" s="58"/>
-      <c r="G270" s="58"/>
+      <c r="D270" s="44"/>
+      <c r="E270" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F270" s="52"/>
+      <c r="G270" s="52"/>
     </row>
     <row r="271" spans="1:7" ht="12.75">
       <c r="A271" s="25">
@@ -12679,12 +13087,12 @@
       <c r="C271" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="D271" s="50"/>
-      <c r="E271" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F271" s="58"/>
-      <c r="G271" s="58"/>
+      <c r="D271" s="44"/>
+      <c r="E271" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F271" s="52"/>
+      <c r="G271" s="52"/>
     </row>
     <row r="272" spans="1:7" ht="12.75">
       <c r="A272" s="25">
@@ -12696,25 +13104,25 @@
       <c r="C272" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="D272" s="50"/>
-      <c r="E272" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F272" s="58"/>
-      <c r="G272" s="58"/>
+      <c r="D272" s="44"/>
+      <c r="E272" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F272" s="52"/>
+      <c r="G272" s="52"/>
     </row>
     <row r="273" spans="1:7" ht="12.75">
-      <c r="A273" s="45" t="s">
+      <c r="A273" s="61" t="s">
         <v>399</v>
       </c>
-      <c r="B273" s="46"/>
-      <c r="C273" s="46"/>
-      <c r="D273" s="46"/>
-      <c r="E273" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F273" s="58"/>
-      <c r="G273" s="58"/>
+      <c r="B273" s="62"/>
+      <c r="C273" s="62"/>
+      <c r="D273" s="62"/>
+      <c r="E273" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F273" s="52"/>
+      <c r="G273" s="52"/>
     </row>
     <row r="274" spans="1:7" ht="12.75">
       <c r="A274" s="25">
@@ -12726,12 +13134,12 @@
       <c r="C274" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D274" s="50"/>
-      <c r="E274" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F274" s="58"/>
-      <c r="G274" s="58"/>
+      <c r="D274" s="44"/>
+      <c r="E274" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F274" s="52"/>
+      <c r="G274" s="52"/>
     </row>
     <row r="275" spans="1:7" ht="12.75">
       <c r="A275" s="25">
@@ -12743,12 +13151,12 @@
       <c r="C275" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D275" s="50"/>
-      <c r="E275" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F275" s="58"/>
-      <c r="G275" s="58"/>
+      <c r="D275" s="44"/>
+      <c r="E275" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F275" s="52"/>
+      <c r="G275" s="52"/>
     </row>
     <row r="276" spans="1:7" ht="12.75">
       <c r="A276" s="25">
@@ -12760,12 +13168,12 @@
       <c r="C276" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D276" s="50"/>
-      <c r="E276" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F276" s="58"/>
-      <c r="G276" s="58"/>
+      <c r="D276" s="44"/>
+      <c r="E276" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F276" s="52"/>
+      <c r="G276" s="52"/>
     </row>
     <row r="277" spans="1:7" ht="12.75">
       <c r="A277" s="28">
@@ -12777,12 +13185,12 @@
       <c r="C277" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D277" s="50"/>
-      <c r="E277" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F277" s="58"/>
-      <c r="G277" s="58"/>
+      <c r="D277" s="44"/>
+      <c r="E277" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F277" s="52"/>
+      <c r="G277" s="52"/>
     </row>
     <row r="278" spans="1:7" ht="12.75">
       <c r="A278" s="25">
@@ -12794,12 +13202,12 @@
       <c r="C278" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D278" s="50"/>
-      <c r="E278" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F278" s="58"/>
-      <c r="G278" s="58"/>
+      <c r="D278" s="44"/>
+      <c r="E278" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F278" s="52"/>
+      <c r="G278" s="52"/>
     </row>
     <row r="279" spans="1:7" ht="12.75">
       <c r="A279" s="25">
@@ -12811,12 +13219,12 @@
       <c r="C279" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D279" s="50"/>
-      <c r="E279" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F279" s="58"/>
-      <c r="G279" s="58"/>
+      <c r="D279" s="44"/>
+      <c r="E279" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F279" s="52"/>
+      <c r="G279" s="52"/>
     </row>
     <row r="280" spans="1:7" ht="12.75">
       <c r="A280" s="25">
@@ -12828,12 +13236,12 @@
       <c r="C280" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="D280" s="50"/>
-      <c r="E280" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F280" s="58"/>
-      <c r="G280" s="58"/>
+      <c r="D280" s="44"/>
+      <c r="E280" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F280" s="52"/>
+      <c r="G280" s="52"/>
     </row>
     <row r="281" spans="1:7" ht="12.75">
       <c r="A281" s="25">
@@ -12845,25 +13253,25 @@
       <c r="C281" s="27" t="s">
         <v>342</v>
       </c>
-      <c r="D281" s="50"/>
-      <c r="E281" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F281" s="58"/>
-      <c r="G281" s="58"/>
+      <c r="D281" s="44"/>
+      <c r="E281" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F281" s="52"/>
+      <c r="G281" s="52"/>
     </row>
     <row r="282" spans="1:7" ht="12.75">
-      <c r="A282" s="45" t="s">
+      <c r="A282" s="61" t="s">
         <v>400</v>
       </c>
-      <c r="B282" s="46"/>
-      <c r="C282" s="46"/>
-      <c r="D282" s="46"/>
-      <c r="E282" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F282" s="58"/>
-      <c r="G282" s="58"/>
+      <c r="B282" s="62"/>
+      <c r="C282" s="62"/>
+      <c r="D282" s="62"/>
+      <c r="E282" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F282" s="52"/>
+      <c r="G282" s="52"/>
     </row>
     <row r="283" spans="1:7" ht="12.75">
       <c r="A283" s="25">
@@ -12875,12 +13283,12 @@
       <c r="C283" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="D283" s="50"/>
-      <c r="E283" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F283" s="58"/>
-      <c r="G283" s="58"/>
+      <c r="D283" s="44"/>
+      <c r="E283" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F283" s="52"/>
+      <c r="G283" s="52"/>
     </row>
     <row r="284" spans="1:7" ht="12.75">
       <c r="A284" s="25">
@@ -12892,12 +13300,12 @@
       <c r="C284" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D284" s="50"/>
-      <c r="E284" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F284" s="58"/>
-      <c r="G284" s="58"/>
+      <c r="D284" s="44"/>
+      <c r="E284" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F284" s="52"/>
+      <c r="G284" s="52"/>
     </row>
     <row r="285" spans="1:7" ht="12.75">
       <c r="A285" s="25">
@@ -12909,12 +13317,12 @@
       <c r="C285" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="D285" s="50"/>
-      <c r="E285" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F285" s="58"/>
-      <c r="G285" s="58"/>
+      <c r="D285" s="44"/>
+      <c r="E285" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F285" s="52"/>
+      <c r="G285" s="52"/>
     </row>
     <row r="286" spans="1:7" ht="12.75">
       <c r="A286" s="25">
@@ -12926,12 +13334,12 @@
       <c r="C286" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="D286" s="50"/>
-      <c r="E286" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F286" s="58"/>
-      <c r="G286" s="58"/>
+      <c r="D286" s="44"/>
+      <c r="E286" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F286" s="52"/>
+      <c r="G286" s="52"/>
     </row>
     <row r="287" spans="1:7" ht="12.75">
       <c r="A287" s="28">
@@ -12943,12 +13351,12 @@
       <c r="C287" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="D287" s="50"/>
-      <c r="E287" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F287" s="58"/>
-      <c r="G287" s="58"/>
+      <c r="D287" s="44"/>
+      <c r="E287" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F287" s="52"/>
+      <c r="G287" s="52"/>
     </row>
     <row r="288" spans="1:7" ht="12.75">
       <c r="A288" s="25">
@@ -12960,12 +13368,12 @@
       <c r="C288" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="D288" s="50"/>
-      <c r="E288" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F288" s="58"/>
-      <c r="G288" s="58"/>
+      <c r="D288" s="44"/>
+      <c r="E288" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F288" s="52"/>
+      <c r="G288" s="52"/>
     </row>
     <row r="289" spans="1:7" ht="12.75">
       <c r="A289" s="25">
@@ -12977,12 +13385,12 @@
       <c r="C289" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="D289" s="50"/>
-      <c r="E289" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F289" s="58"/>
-      <c r="G289" s="58"/>
+      <c r="D289" s="44"/>
+      <c r="E289" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F289" s="52"/>
+      <c r="G289" s="52"/>
     </row>
     <row r="290" spans="1:7" ht="12.75">
       <c r="A290" s="25">
@@ -12994,12 +13402,12 @@
       <c r="C290" s="27" t="s">
         <v>403</v>
       </c>
-      <c r="D290" s="50"/>
-      <c r="E290" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F290" s="58"/>
-      <c r="G290" s="58"/>
+      <c r="D290" s="44"/>
+      <c r="E290" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F290" s="52"/>
+      <c r="G290" s="52"/>
     </row>
     <row r="291" spans="1:7" ht="12.75">
       <c r="A291" s="25">
@@ -13011,12 +13419,12 @@
       <c r="C291" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="D291" s="50"/>
-      <c r="E291" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F291" s="58"/>
-      <c r="G291" s="58"/>
+      <c r="D291" s="44"/>
+      <c r="E291" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F291" s="52"/>
+      <c r="G291" s="52"/>
     </row>
     <row r="292" spans="1:7" ht="12.75">
       <c r="A292" s="25">
@@ -13028,12 +13436,12 @@
       <c r="C292" s="26" t="s">
         <v>356</v>
       </c>
-      <c r="D292" s="50"/>
-      <c r="E292" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F292" s="58"/>
-      <c r="G292" s="58"/>
+      <c r="D292" s="44"/>
+      <c r="E292" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F292" s="52"/>
+      <c r="G292" s="52"/>
     </row>
     <row r="293" spans="1:7" ht="12.75">
       <c r="A293" s="25">
@@ -13045,12 +13453,12 @@
       <c r="C293" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="D293" s="50"/>
-      <c r="E293" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F293" s="58"/>
-      <c r="G293" s="58"/>
+      <c r="D293" s="44"/>
+      <c r="E293" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F293" s="52"/>
+      <c r="G293" s="52"/>
     </row>
     <row r="294" spans="1:7" ht="12.75">
       <c r="A294" s="25">
@@ -13062,12 +13470,12 @@
       <c r="C294" s="27" t="s">
         <v>360</v>
       </c>
-      <c r="D294" s="50"/>
-      <c r="E294" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F294" s="58"/>
-      <c r="G294" s="58"/>
+      <c r="D294" s="44"/>
+      <c r="E294" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F294" s="52"/>
+      <c r="G294" s="52"/>
     </row>
     <row r="295" spans="1:7" ht="12.75">
       <c r="A295" s="25" t="s">
@@ -13079,25 +13487,25 @@
       <c r="C295" s="27" t="s">
         <v>363</v>
       </c>
-      <c r="D295" s="50"/>
-      <c r="E295" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F295" s="58"/>
-      <c r="G295" s="58"/>
+      <c r="D295" s="44"/>
+      <c r="E295" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F295" s="52"/>
+      <c r="G295" s="52"/>
     </row>
     <row r="296" spans="1:7" ht="12.75">
-      <c r="A296" s="45" t="s">
+      <c r="A296" s="61" t="s">
         <v>408</v>
       </c>
-      <c r="B296" s="46"/>
-      <c r="C296" s="46"/>
-      <c r="D296" s="46"/>
-      <c r="E296" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F296" s="58"/>
-      <c r="G296" s="58"/>
+      <c r="B296" s="62"/>
+      <c r="C296" s="62"/>
+      <c r="D296" s="62"/>
+      <c r="E296" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F296" s="52"/>
+      <c r="G296" s="52"/>
     </row>
     <row r="297" spans="1:7" ht="12.75">
       <c r="A297" s="25">
@@ -13109,12 +13517,12 @@
       <c r="C297" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="D297" s="50"/>
-      <c r="E297" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F297" s="58"/>
-      <c r="G297" s="58"/>
+      <c r="D297" s="44"/>
+      <c r="E297" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F297" s="52"/>
+      <c r="G297" s="52"/>
     </row>
     <row r="298" spans="1:7" ht="12.75">
       <c r="A298" s="25">
@@ -13126,12 +13534,12 @@
       <c r="C298" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="D298" s="50"/>
-      <c r="E298" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F298" s="58"/>
-      <c r="G298" s="58"/>
+      <c r="D298" s="44"/>
+      <c r="E298" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F298" s="52"/>
+      <c r="G298" s="52"/>
     </row>
     <row r="299" spans="1:7" ht="12.75">
       <c r="A299" s="25">
@@ -13143,12 +13551,12 @@
       <c r="C299" s="26" t="s">
         <v>370</v>
       </c>
-      <c r="D299" s="50"/>
-      <c r="E299" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F299" s="58"/>
-      <c r="G299" s="58"/>
+      <c r="D299" s="44"/>
+      <c r="E299" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F299" s="52"/>
+      <c r="G299" s="52"/>
     </row>
     <row r="300" spans="1:7" ht="12.75">
       <c r="A300" s="25">
@@ -13160,12 +13568,12 @@
       <c r="C300" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="D300" s="50"/>
-      <c r="E300" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F300" s="58"/>
-      <c r="G300" s="58"/>
+      <c r="D300" s="44"/>
+      <c r="E300" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F300" s="52"/>
+      <c r="G300" s="52"/>
     </row>
     <row r="301" spans="1:7" ht="12.75">
       <c r="A301" s="25">
@@ -13177,12 +13585,12 @@
       <c r="C301" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D301" s="50"/>
-      <c r="E301" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F301" s="58"/>
-      <c r="G301" s="58"/>
+      <c r="D301" s="44"/>
+      <c r="E301" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F301" s="52"/>
+      <c r="G301" s="52"/>
     </row>
     <row r="302" spans="1:7" ht="12.75">
       <c r="A302" s="25">
@@ -13194,12 +13602,12 @@
       <c r="C302" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="D302" s="50"/>
-      <c r="E302" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F302" s="58"/>
-      <c r="G302" s="58"/>
+      <c r="D302" s="44"/>
+      <c r="E302" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F302" s="52"/>
+      <c r="G302" s="52"/>
     </row>
     <row r="303" spans="1:7" ht="12.75">
       <c r="A303" s="25">
@@ -13211,12 +13619,12 @@
       <c r="C303" s="26" t="s">
         <v>378</v>
       </c>
-      <c r="D303" s="50"/>
-      <c r="E303" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F303" s="58"/>
-      <c r="G303" s="58"/>
+      <c r="D303" s="44"/>
+      <c r="E303" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F303" s="52"/>
+      <c r="G303" s="52"/>
     </row>
     <row r="304" spans="1:7" ht="12.75">
       <c r="A304" s="25">
@@ -13228,12 +13636,12 @@
       <c r="C304" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="D304" s="50"/>
-      <c r="E304" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F304" s="58"/>
-      <c r="G304" s="58"/>
+      <c r="D304" s="44"/>
+      <c r="E304" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F304" s="52"/>
+      <c r="G304" s="52"/>
     </row>
     <row r="305" spans="1:7" ht="12.75">
       <c r="A305" s="25">
@@ -13245,12 +13653,12 @@
       <c r="C305" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="D305" s="50"/>
-      <c r="E305" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F305" s="58"/>
-      <c r="G305" s="58"/>
+      <c r="D305" s="44"/>
+      <c r="E305" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F305" s="52"/>
+      <c r="G305" s="52"/>
     </row>
     <row r="306" spans="1:7" ht="12.75">
       <c r="A306" s="25">
@@ -13262,12 +13670,12 @@
       <c r="C306" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="D306" s="50"/>
-      <c r="E306" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F306" s="58"/>
-      <c r="G306" s="58"/>
+      <c r="D306" s="44"/>
+      <c r="E306" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F306" s="52"/>
+      <c r="G306" s="52"/>
     </row>
     <row r="307" spans="1:7" ht="12.75">
       <c r="A307" s="25">
@@ -13279,12 +13687,12 @@
       <c r="C307" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="D307" s="50"/>
-      <c r="E307" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F307" s="58"/>
-      <c r="G307" s="58"/>
+      <c r="D307" s="44"/>
+      <c r="E307" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F307" s="52"/>
+      <c r="G307" s="52"/>
     </row>
     <row r="308" spans="1:7" ht="12.75">
       <c r="A308" s="25" t="s">
@@ -13296,12 +13704,12 @@
       <c r="C308" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="D308" s="50"/>
-      <c r="E308" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F308" s="58"/>
-      <c r="G308" s="58"/>
+      <c r="D308" s="44"/>
+      <c r="E308" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F308" s="52"/>
+      <c r="G308" s="52"/>
     </row>
     <row r="309" spans="1:7" ht="12.75">
       <c r="A309" s="25" t="s">
@@ -13313,12 +13721,12 @@
       <c r="C309" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D309" s="50"/>
-      <c r="E309" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F309" s="58"/>
-      <c r="G309" s="58"/>
+      <c r="D309" s="44"/>
+      <c r="E309" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F309" s="52"/>
+      <c r="G309" s="52"/>
     </row>
     <row r="310" spans="1:7" ht="12.75">
       <c r="A310" s="28" t="s">
@@ -13330,25 +13738,25 @@
       <c r="C310" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="D310" s="50"/>
-      <c r="E310" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F310" s="58"/>
-      <c r="G310" s="58"/>
+      <c r="D310" s="44"/>
+      <c r="E310" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F310" s="52"/>
+      <c r="G310" s="52"/>
     </row>
     <row r="311" spans="1:7" ht="12.75">
-      <c r="A311" s="45" t="s">
+      <c r="A311" s="61" t="s">
         <v>414</v>
       </c>
-      <c r="B311" s="46"/>
-      <c r="C311" s="46"/>
-      <c r="D311" s="46"/>
-      <c r="E311" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F311" s="58"/>
-      <c r="G311" s="58"/>
+      <c r="B311" s="62"/>
+      <c r="C311" s="62"/>
+      <c r="D311" s="62"/>
+      <c r="E311" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F311" s="52"/>
+      <c r="G311" s="52"/>
     </row>
     <row r="312" spans="1:7" ht="12.75">
       <c r="A312" s="25">
@@ -13360,12 +13768,12 @@
       <c r="C312" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="D312" s="50"/>
-      <c r="E312" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F312" s="58"/>
-      <c r="G312" s="58"/>
+      <c r="D312" s="44"/>
+      <c r="E312" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F312" s="52"/>
+      <c r="G312" s="52"/>
     </row>
     <row r="313" spans="1:7" ht="12.75">
       <c r="A313" s="25">
@@ -13377,12 +13785,12 @@
       <c r="C313" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="D313" s="50"/>
-      <c r="E313" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F313" s="58"/>
-      <c r="G313" s="58"/>
+      <c r="D313" s="44"/>
+      <c r="E313" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F313" s="52"/>
+      <c r="G313" s="52"/>
     </row>
     <row r="314" spans="1:7" ht="12.75">
       <c r="A314" s="25">
@@ -13394,12 +13802,12 @@
       <c r="C314" s="27" t="s">
         <v>395</v>
       </c>
-      <c r="D314" s="50"/>
-      <c r="E314" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F314" s="58"/>
-      <c r="G314" s="58"/>
+      <c r="D314" s="44"/>
+      <c r="E314" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F314" s="52"/>
+      <c r="G314" s="52"/>
     </row>
     <row r="315" spans="1:7" ht="12.75">
       <c r="A315" s="25">
@@ -13411,12 +13819,12 @@
       <c r="C315" s="27" t="s">
         <v>312</v>
       </c>
-      <c r="D315" s="50"/>
-      <c r="E315" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F315" s="58"/>
-      <c r="G315" s="58"/>
+      <c r="D315" s="44"/>
+      <c r="E315" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F315" s="52"/>
+      <c r="G315" s="52"/>
     </row>
     <row r="316" spans="1:7" ht="12.75">
       <c r="A316" s="25">
@@ -13428,12 +13836,12 @@
       <c r="C316" s="27" t="s">
         <v>397</v>
       </c>
-      <c r="D316" s="50"/>
-      <c r="E316" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F316" s="58"/>
-      <c r="G316" s="58"/>
+      <c r="D316" s="44"/>
+      <c r="E316" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F316" s="52"/>
+      <c r="G316" s="52"/>
     </row>
     <row r="317" spans="1:7" ht="12.75">
       <c r="A317" s="25">
@@ -13445,12 +13853,12 @@
       <c r="C317" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="D317" s="50"/>
-      <c r="E317" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F317" s="58"/>
-      <c r="G317" s="58"/>
+      <c r="D317" s="44"/>
+      <c r="E317" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F317" s="52"/>
+      <c r="G317" s="52"/>
     </row>
     <row r="318" spans="1:7" ht="12.75">
       <c r="A318" s="25">
@@ -13462,12 +13870,12 @@
       <c r="C318" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="D318" s="50"/>
-      <c r="E318" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F318" s="58"/>
-      <c r="G318" s="58"/>
+      <c r="D318" s="44"/>
+      <c r="E318" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F318" s="52"/>
+      <c r="G318" s="52"/>
     </row>
     <row r="319" spans="1:7" ht="12.75">
       <c r="A319" s="25">
@@ -13479,12 +13887,12 @@
       <c r="C319" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="D319" s="50"/>
-      <c r="E319" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F319" s="58"/>
-      <c r="G319" s="58"/>
+      <c r="D319" s="44"/>
+      <c r="E319" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F319" s="52"/>
+      <c r="G319" s="52"/>
     </row>
     <row r="320" spans="1:7" ht="12.75">
       <c r="A320" s="25">
@@ -13496,25 +13904,25 @@
       <c r="C320" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="D320" s="50"/>
-      <c r="E320" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F320" s="58"/>
-      <c r="G320" s="58"/>
+      <c r="D320" s="44"/>
+      <c r="E320" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F320" s="52"/>
+      <c r="G320" s="52"/>
     </row>
     <row r="321" spans="1:7" ht="12.75">
-      <c r="A321" s="45" t="s">
+      <c r="A321" s="61" t="s">
         <v>416</v>
       </c>
-      <c r="B321" s="46"/>
-      <c r="C321" s="46"/>
-      <c r="D321" s="46"/>
-      <c r="E321" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F321" s="58"/>
-      <c r="G321" s="58"/>
+      <c r="B321" s="62"/>
+      <c r="C321" s="62"/>
+      <c r="D321" s="62"/>
+      <c r="E321" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F321" s="52"/>
+      <c r="G321" s="52"/>
     </row>
     <row r="322" spans="1:7" ht="12.75">
       <c r="A322" s="25">
@@ -13526,12 +13934,12 @@
       <c r="C322" s="27" t="s">
         <v>326</v>
       </c>
-      <c r="D322" s="50"/>
-      <c r="E322" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F322" s="58"/>
-      <c r="G322" s="58"/>
+      <c r="D322" s="44"/>
+      <c r="E322" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F322" s="52"/>
+      <c r="G322" s="52"/>
     </row>
     <row r="323" spans="1:7" ht="12.75">
       <c r="A323" s="25">
@@ -13543,12 +13951,12 @@
       <c r="C323" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="D323" s="50"/>
-      <c r="E323" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F323" s="58"/>
-      <c r="G323" s="58"/>
+      <c r="D323" s="44"/>
+      <c r="E323" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F323" s="52"/>
+      <c r="G323" s="52"/>
     </row>
     <row r="324" spans="1:7" ht="12.75">
       <c r="A324" s="28">
@@ -13560,12 +13968,12 @@
       <c r="C324" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D324" s="50"/>
-      <c r="E324" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F324" s="58"/>
-      <c r="G324" s="58"/>
+      <c r="D324" s="44"/>
+      <c r="E324" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F324" s="52"/>
+      <c r="G324" s="52"/>
     </row>
     <row r="325" spans="1:7" ht="12.75">
       <c r="A325" s="25">
@@ -13577,12 +13985,12 @@
       <c r="C325" s="27" t="s">
         <v>334</v>
       </c>
-      <c r="D325" s="50"/>
-      <c r="E325" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F325" s="58"/>
-      <c r="G325" s="58"/>
+      <c r="D325" s="44"/>
+      <c r="E325" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F325" s="52"/>
+      <c r="G325" s="52"/>
     </row>
     <row r="326" spans="1:7" ht="12.75">
       <c r="A326" s="25">
@@ -13594,12 +14002,12 @@
       <c r="C326" s="27" t="s">
         <v>336</v>
       </c>
-      <c r="D326" s="50"/>
-      <c r="E326" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F326" s="58"/>
-      <c r="G326" s="58"/>
+      <c r="D326" s="44"/>
+      <c r="E326" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F326" s="52"/>
+      <c r="G326" s="52"/>
     </row>
     <row r="327" spans="1:7" ht="12.75">
       <c r="A327" s="25">
@@ -13611,12 +14019,12 @@
       <c r="C327" s="27" t="s">
         <v>338</v>
       </c>
-      <c r="D327" s="50"/>
-      <c r="E327" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F327" s="58"/>
-      <c r="G327" s="58"/>
+      <c r="D327" s="44"/>
+      <c r="E327" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F327" s="52"/>
+      <c r="G327" s="52"/>
     </row>
     <row r="328" spans="1:7" ht="12.75">
       <c r="A328" s="25">
@@ -13628,12 +14036,12 @@
       <c r="C328" s="27" t="s">
         <v>340</v>
       </c>
-      <c r="D328" s="50"/>
-      <c r="E328" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F328" s="58"/>
-      <c r="G328" s="58"/>
+      <c r="D328" s="44"/>
+      <c r="E328" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F328" s="52"/>
+      <c r="G328" s="52"/>
     </row>
     <row r="329" spans="1:7" ht="12.75">
       <c r="A329" s="25">
@@ -13645,25 +14053,25 @@
       <c r="C329" s="26" t="s">
         <v>342</v>
       </c>
-      <c r="D329" s="50"/>
-      <c r="E329" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F329" s="58"/>
-      <c r="G329" s="58"/>
+      <c r="D329" s="44"/>
+      <c r="E329" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F329" s="52"/>
+      <c r="G329" s="52"/>
     </row>
     <row r="330" spans="1:7" ht="12.75">
-      <c r="A330" s="45" t="s">
+      <c r="A330" s="61" t="s">
         <v>417</v>
       </c>
-      <c r="B330" s="46"/>
-      <c r="C330" s="46"/>
-      <c r="D330" s="46"/>
-      <c r="E330" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F330" s="58"/>
-      <c r="G330" s="58"/>
+      <c r="B330" s="62"/>
+      <c r="C330" s="62"/>
+      <c r="D330" s="62"/>
+      <c r="E330" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F330" s="52"/>
+      <c r="G330" s="52"/>
     </row>
     <row r="331" spans="1:7" ht="12.75">
       <c r="A331" s="25">
@@ -13675,12 +14083,12 @@
       <c r="C331" s="27" t="s">
         <v>345</v>
       </c>
-      <c r="D331" s="50"/>
-      <c r="E331" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F331" s="58"/>
-      <c r="G331" s="58"/>
+      <c r="D331" s="44"/>
+      <c r="E331" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F331" s="52"/>
+      <c r="G331" s="52"/>
     </row>
     <row r="332" spans="1:7" ht="12.75">
       <c r="A332" s="25">
@@ -13692,12 +14100,12 @@
       <c r="C332" s="26" t="s">
         <v>328</v>
       </c>
-      <c r="D332" s="50"/>
-      <c r="E332" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F332" s="58"/>
-      <c r="G332" s="58"/>
+      <c r="D332" s="44"/>
+      <c r="E332" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F332" s="52"/>
+      <c r="G332" s="52"/>
     </row>
     <row r="333" spans="1:7" ht="12.75">
       <c r="A333" s="25">
@@ -13709,12 +14117,12 @@
       <c r="C333" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="D333" s="50"/>
-      <c r="E333" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F333" s="58"/>
-      <c r="G333" s="58"/>
+      <c r="D333" s="44"/>
+      <c r="E333" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F333" s="52"/>
+      <c r="G333" s="52"/>
     </row>
     <row r="334" spans="1:7" ht="12.75">
       <c r="A334" s="28">
@@ -13726,12 +14134,12 @@
       <c r="C334" s="27" t="s">
         <v>349</v>
       </c>
-      <c r="D334" s="50"/>
-      <c r="E334" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F334" s="58"/>
-      <c r="G334" s="58"/>
+      <c r="D334" s="44"/>
+      <c r="E334" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F334" s="52"/>
+      <c r="G334" s="52"/>
     </row>
     <row r="335" spans="1:7" ht="12.75">
       <c r="A335" s="25">
@@ -13743,12 +14151,12 @@
       <c r="C335" s="27" t="s">
         <v>351</v>
       </c>
-      <c r="D335" s="50"/>
-      <c r="E335" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F335" s="58"/>
-      <c r="G335" s="58"/>
+      <c r="D335" s="44"/>
+      <c r="E335" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F335" s="52"/>
+      <c r="G335" s="52"/>
     </row>
     <row r="336" spans="1:7" ht="12.75">
       <c r="A336" s="25">
@@ -13760,12 +14168,12 @@
       <c r="C336" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="D336" s="50"/>
-      <c r="E336" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F336" s="58"/>
-      <c r="G336" s="58"/>
+      <c r="D336" s="44"/>
+      <c r="E336" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F336" s="52"/>
+      <c r="G336" s="52"/>
     </row>
     <row r="337" spans="1:7" ht="12.75">
       <c r="A337" s="25">
@@ -13777,12 +14185,12 @@
       <c r="C337" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="D337" s="50"/>
-      <c r="E337" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F337" s="58"/>
-      <c r="G337" s="58"/>
+      <c r="D337" s="44"/>
+      <c r="E337" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F337" s="52"/>
+      <c r="G337" s="52"/>
     </row>
     <row r="338" spans="1:7" ht="12.75">
       <c r="A338" s="25">
@@ -13794,12 +14202,12 @@
       <c r="C338" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="D338" s="50"/>
-      <c r="E338" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F338" s="58"/>
-      <c r="G338" s="58"/>
+      <c r="D338" s="44"/>
+      <c r="E338" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F338" s="52"/>
+      <c r="G338" s="52"/>
     </row>
     <row r="339" spans="1:7" ht="12.75">
       <c r="A339" s="25">
@@ -13811,12 +14219,12 @@
       <c r="C339" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="D339" s="50"/>
-      <c r="E339" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F339" s="58"/>
-      <c r="G339" s="58"/>
+      <c r="D339" s="44"/>
+      <c r="E339" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F339" s="52"/>
+      <c r="G339" s="52"/>
     </row>
     <row r="340" spans="1:7" ht="12.75">
       <c r="A340" s="25">
@@ -13828,12 +14236,12 @@
       <c r="C340" s="26" t="s">
         <v>418</v>
       </c>
-      <c r="D340" s="50"/>
-      <c r="E340" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F340" s="58"/>
-      <c r="G340" s="58"/>
+      <c r="D340" s="44"/>
+      <c r="E340" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F340" s="52"/>
+      <c r="G340" s="52"/>
     </row>
     <row r="341" spans="1:7" ht="12.75">
       <c r="A341" s="25">
@@ -13845,12 +14253,12 @@
       <c r="C341" s="26" t="s">
         <v>402</v>
       </c>
-      <c r="D341" s="50"/>
-      <c r="E341" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F341" s="58"/>
-      <c r="G341" s="58"/>
+      <c r="D341" s="44"/>
+      <c r="E341" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F341" s="52"/>
+      <c r="G341" s="52"/>
     </row>
     <row r="342" spans="1:7" ht="12.75">
       <c r="A342" s="25">
@@ -13862,25 +14270,25 @@
       <c r="C342" s="26" t="s">
         <v>363</v>
       </c>
-      <c r="D342" s="50"/>
-      <c r="E342" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F342" s="58"/>
-      <c r="G342" s="58"/>
+      <c r="D342" s="44"/>
+      <c r="E342" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F342" s="52"/>
+      <c r="G342" s="52"/>
     </row>
     <row r="343" spans="1:7" ht="12.75">
-      <c r="A343" s="45" t="s">
+      <c r="A343" s="61" t="s">
         <v>419</v>
       </c>
-      <c r="B343" s="46"/>
-      <c r="C343" s="46"/>
-      <c r="D343" s="46"/>
-      <c r="E343" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F343" s="58"/>
-      <c r="G343" s="58"/>
+      <c r="B343" s="62"/>
+      <c r="C343" s="62"/>
+      <c r="D343" s="62"/>
+      <c r="E343" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F343" s="52"/>
+      <c r="G343" s="52"/>
     </row>
     <row r="344" spans="1:7" ht="12.75">
       <c r="A344" s="28">
@@ -13892,12 +14300,12 @@
       <c r="C344" s="27" t="s">
         <v>366</v>
       </c>
-      <c r="D344" s="50"/>
-      <c r="E344" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F344" s="58"/>
-      <c r="G344" s="58"/>
+      <c r="D344" s="44"/>
+      <c r="E344" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F344" s="52"/>
+      <c r="G344" s="52"/>
     </row>
     <row r="345" spans="1:7" ht="12.75">
       <c r="A345" s="25">
@@ -13909,12 +14317,12 @@
       <c r="C345" s="27" t="s">
         <v>368</v>
       </c>
-      <c r="D345" s="50"/>
-      <c r="E345" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F345" s="58"/>
-      <c r="G345" s="58"/>
+      <c r="D345" s="44"/>
+      <c r="E345" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F345" s="52"/>
+      <c r="G345" s="52"/>
     </row>
     <row r="346" spans="1:7" ht="12.75">
       <c r="A346" s="25">
@@ -13926,12 +14334,12 @@
       <c r="C346" s="27" t="s">
         <v>370</v>
       </c>
-      <c r="D346" s="50"/>
-      <c r="E346" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F346" s="58"/>
-      <c r="G346" s="58"/>
+      <c r="D346" s="44"/>
+      <c r="E346" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F346" s="52"/>
+      <c r="G346" s="52"/>
     </row>
     <row r="347" spans="1:7" ht="12.75">
       <c r="A347" s="25">
@@ -13943,12 +14351,12 @@
       <c r="C347" s="27" t="s">
         <v>372</v>
       </c>
-      <c r="D347" s="50"/>
-      <c r="E347" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F347" s="58"/>
-      <c r="G347" s="58"/>
+      <c r="D347" s="44"/>
+      <c r="E347" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F347" s="52"/>
+      <c r="G347" s="52"/>
     </row>
     <row r="348" spans="1:7" ht="12.75">
       <c r="A348" s="25">
@@ -13960,12 +14368,12 @@
       <c r="C348" s="27" t="s">
         <v>374</v>
       </c>
-      <c r="D348" s="50"/>
-      <c r="E348" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F348" s="58"/>
-      <c r="G348" s="58"/>
+      <c r="D348" s="44"/>
+      <c r="E348" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F348" s="52"/>
+      <c r="G348" s="52"/>
     </row>
     <row r="349" spans="1:7" ht="12.75">
       <c r="A349" s="25">
@@ -13977,12 +14385,12 @@
       <c r="C349" s="27" t="s">
         <v>376</v>
       </c>
-      <c r="D349" s="50"/>
-      <c r="E349" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F349" s="58"/>
-      <c r="G349" s="58"/>
+      <c r="D349" s="44"/>
+      <c r="E349" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F349" s="52"/>
+      <c r="G349" s="52"/>
     </row>
     <row r="350" spans="1:7" ht="12.75">
       <c r="A350" s="25">
@@ -13994,12 +14402,12 @@
       <c r="C350" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="D350" s="50"/>
-      <c r="E350" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F350" s="58"/>
-      <c r="G350" s="58"/>
+      <c r="D350" s="44"/>
+      <c r="E350" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F350" s="52"/>
+      <c r="G350" s="52"/>
     </row>
     <row r="351" spans="1:7" ht="12.75">
       <c r="A351" s="25">
@@ -14011,12 +14419,12 @@
       <c r="C351" s="27" t="s">
         <v>380</v>
       </c>
-      <c r="D351" s="50"/>
-      <c r="E351" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F351" s="58"/>
-      <c r="G351" s="58"/>
+      <c r="D351" s="44"/>
+      <c r="E351" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F351" s="52"/>
+      <c r="G351" s="52"/>
     </row>
     <row r="352" spans="1:7" ht="12.75">
       <c r="A352" s="25">
@@ -14028,12 +14436,12 @@
       <c r="C352" s="27" t="s">
         <v>382</v>
       </c>
-      <c r="D352" s="50"/>
-      <c r="E352" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F352" s="58"/>
-      <c r="G352" s="58"/>
+      <c r="D352" s="44"/>
+      <c r="E352" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F352" s="52"/>
+      <c r="G352" s="52"/>
     </row>
     <row r="353" spans="1:7" ht="12.75">
       <c r="A353" s="25">
@@ -14045,12 +14453,12 @@
       <c r="C353" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="D353" s="50"/>
-      <c r="E353" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F353" s="58"/>
-      <c r="G353" s="58"/>
+      <c r="D353" s="44"/>
+      <c r="E353" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F353" s="52"/>
+      <c r="G353" s="52"/>
     </row>
     <row r="354" spans="1:7" ht="12.75">
       <c r="A354" s="25">
@@ -14062,12 +14470,12 @@
       <c r="C354" s="26" t="s">
         <v>410</v>
       </c>
-      <c r="D354" s="50"/>
-      <c r="E354" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F354" s="58"/>
-      <c r="G354" s="58"/>
+      <c r="D354" s="44"/>
+      <c r="E354" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F354" s="52"/>
+      <c r="G354" s="52"/>
     </row>
     <row r="355" spans="1:7" ht="12.75">
       <c r="A355" s="25">
@@ -14079,12 +14487,12 @@
       <c r="C355" s="26" t="s">
         <v>372</v>
       </c>
-      <c r="D355" s="50"/>
-      <c r="E355" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F355" s="58"/>
-      <c r="G355" s="58"/>
+      <c r="D355" s="44"/>
+      <c r="E355" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F355" s="52"/>
+      <c r="G355" s="52"/>
     </row>
     <row r="356" spans="1:7" ht="12.75">
       <c r="A356" s="25" t="s">
@@ -14096,12 +14504,12 @@
       <c r="C356" s="27" t="s">
         <v>332</v>
       </c>
-      <c r="D356" s="50"/>
-      <c r="E356" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F356" s="58"/>
-      <c r="G356" s="58"/>
+      <c r="D356" s="44"/>
+      <c r="E356" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F356" s="52"/>
+      <c r="G356" s="52"/>
     </row>
     <row r="357" spans="1:7" ht="12.75">
       <c r="A357" s="25" t="s">
@@ -14113,25 +14521,25 @@
       <c r="C357" s="27" t="s">
         <v>392</v>
       </c>
-      <c r="D357" s="50"/>
-      <c r="E357" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F357" s="58"/>
-      <c r="G357" s="58"/>
+      <c r="D357" s="44"/>
+      <c r="E357" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F357" s="52"/>
+      <c r="G357" s="52"/>
     </row>
     <row r="358" spans="1:7" ht="12.75">
-      <c r="A358" s="45" t="s">
+      <c r="A358" s="61" t="s">
         <v>422</v>
       </c>
-      <c r="B358" s="46"/>
-      <c r="C358" s="46"/>
-      <c r="D358" s="46"/>
-      <c r="E358" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F358" s="58"/>
-      <c r="G358" s="58"/>
+      <c r="B358" s="62"/>
+      <c r="C358" s="62"/>
+      <c r="D358" s="62"/>
+      <c r="E358" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F358" s="52"/>
+      <c r="G358" s="52"/>
     </row>
     <row r="359" spans="1:7" ht="12.75">
       <c r="A359" s="30">
@@ -14143,12 +14551,12 @@
       <c r="C359" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="D359" s="50"/>
-      <c r="E359" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F359" s="58"/>
-      <c r="G359" s="58"/>
+      <c r="D359" s="44"/>
+      <c r="E359" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F359" s="52"/>
+      <c r="G359" s="52"/>
     </row>
     <row r="360" spans="1:7" ht="12.75">
       <c r="A360" s="30">
@@ -14160,12 +14568,12 @@
       <c r="C360" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="D360" s="50"/>
-      <c r="E360" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F360" s="58"/>
-      <c r="G360" s="58"/>
+      <c r="D360" s="44"/>
+      <c r="E360" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F360" s="52"/>
+      <c r="G360" s="52"/>
     </row>
     <row r="361" spans="1:7" ht="12.75">
       <c r="A361" s="30">
@@ -14177,12 +14585,12 @@
       <c r="C361" s="31" t="s">
         <v>425</v>
       </c>
-      <c r="D361" s="50"/>
-      <c r="E361" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F361" s="58"/>
-      <c r="G361" s="58"/>
+      <c r="D361" s="44"/>
+      <c r="E361" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F361" s="52"/>
+      <c r="G361" s="52"/>
     </row>
     <row r="362" spans="1:7" ht="12.75">
       <c r="A362" s="30">
@@ -14194,12 +14602,12 @@
       <c r="C362" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="D362" s="50"/>
-      <c r="E362" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F362" s="58"/>
-      <c r="G362" s="58"/>
+      <c r="D362" s="44"/>
+      <c r="E362" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F362" s="52"/>
+      <c r="G362" s="52"/>
     </row>
     <row r="363" spans="1:7" ht="12.75">
       <c r="A363" s="30">
@@ -14211,12 +14619,12 @@
       <c r="C363" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="D363" s="50"/>
-      <c r="E363" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F363" s="58"/>
-      <c r="G363" s="58"/>
+      <c r="D363" s="44"/>
+      <c r="E363" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F363" s="52"/>
+      <c r="G363" s="52"/>
     </row>
     <row r="364" spans="1:7" ht="12.75">
       <c r="A364" s="30">
@@ -14228,12 +14636,12 @@
       <c r="C364" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="D364" s="50"/>
-      <c r="E364" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F364" s="58"/>
-      <c r="G364" s="58"/>
+      <c r="D364" s="44"/>
+      <c r="E364" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F364" s="52"/>
+      <c r="G364" s="52"/>
     </row>
     <row r="365" spans="1:7" ht="12.75">
       <c r="A365" s="30">
@@ -14245,12 +14653,12 @@
       <c r="C365" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="D365" s="50"/>
-      <c r="E365" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F365" s="58"/>
-      <c r="G365" s="58"/>
+      <c r="D365" s="44"/>
+      <c r="E365" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F365" s="52"/>
+      <c r="G365" s="52"/>
     </row>
     <row r="366" spans="1:7" ht="12.75">
       <c r="A366" s="30">
@@ -14262,12 +14670,12 @@
       <c r="C366" s="31" t="s">
         <v>322</v>
       </c>
-      <c r="D366" s="50"/>
-      <c r="E366" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F366" s="58"/>
-      <c r="G366" s="58"/>
+      <c r="D366" s="44"/>
+      <c r="E366" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F366" s="52"/>
+      <c r="G366" s="52"/>
     </row>
     <row r="367" spans="1:7" ht="12.75">
       <c r="A367" s="30">
@@ -14279,25 +14687,25 @@
       <c r="C367" s="31" t="s">
         <v>397</v>
       </c>
-      <c r="D367" s="50"/>
-      <c r="E367" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F367" s="58"/>
-      <c r="G367" s="58"/>
+      <c r="D367" s="44"/>
+      <c r="E367" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F367" s="52"/>
+      <c r="G367" s="52"/>
     </row>
     <row r="368" spans="1:7" ht="12.75">
-      <c r="A368" s="45" t="s">
+      <c r="A368" s="61" t="s">
         <v>426</v>
       </c>
-      <c r="B368" s="46"/>
-      <c r="C368" s="46"/>
-      <c r="D368" s="46"/>
-      <c r="E368" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F368" s="58"/>
-      <c r="G368" s="58"/>
+      <c r="B368" s="62"/>
+      <c r="C368" s="62"/>
+      <c r="D368" s="62"/>
+      <c r="E368" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F368" s="52"/>
+      <c r="G368" s="52"/>
     </row>
     <row r="369" spans="1:7" ht="12.75">
       <c r="A369" s="30">
@@ -14309,12 +14717,12 @@
       <c r="C369" s="31" t="s">
         <v>345</v>
       </c>
-      <c r="D369" s="50"/>
-      <c r="E369" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F369" s="58"/>
-      <c r="G369" s="58"/>
+      <c r="D369" s="44"/>
+      <c r="E369" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F369" s="52"/>
+      <c r="G369" s="52"/>
     </row>
     <row r="370" spans="1:7" ht="12.75">
       <c r="A370" s="30">
@@ -14326,12 +14734,12 @@
       <c r="C370" s="31" t="s">
         <v>328</v>
       </c>
-      <c r="D370" s="50"/>
-      <c r="E370" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F370" s="58"/>
-      <c r="G370" s="58"/>
+      <c r="D370" s="44"/>
+      <c r="E370" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F370" s="52"/>
+      <c r="G370" s="52"/>
     </row>
     <row r="371" spans="1:7" ht="12.75">
       <c r="A371" s="30">
@@ -14343,12 +14751,12 @@
       <c r="C371" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="D371" s="50"/>
-      <c r="E371" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F371" s="58"/>
-      <c r="G371" s="58"/>
+      <c r="D371" s="44"/>
+      <c r="E371" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F371" s="52"/>
+      <c r="G371" s="52"/>
     </row>
     <row r="372" spans="1:7" ht="12.75">
       <c r="A372" s="30">
@@ -14360,12 +14768,12 @@
       <c r="C372" s="31" t="s">
         <v>349</v>
       </c>
-      <c r="D372" s="50"/>
-      <c r="E372" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F372" s="58"/>
-      <c r="G372" s="58"/>
+      <c r="D372" s="44"/>
+      <c r="E372" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F372" s="52"/>
+      <c r="G372" s="52"/>
     </row>
     <row r="373" spans="1:7" ht="12.75">
       <c r="A373" s="30">
@@ -14377,12 +14785,12 @@
       <c r="C373" s="31" t="s">
         <v>351</v>
       </c>
-      <c r="D373" s="50"/>
-      <c r="E373" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F373" s="58"/>
-      <c r="G373" s="58"/>
+      <c r="D373" s="44"/>
+      <c r="E373" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F373" s="52"/>
+      <c r="G373" s="52"/>
     </row>
     <row r="374" spans="1:7" ht="12.75">
       <c r="A374" s="30">
@@ -14394,12 +14802,12 @@
       <c r="C374" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="D374" s="50"/>
-      <c r="E374" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F374" s="58"/>
-      <c r="G374" s="58"/>
+      <c r="D374" s="44"/>
+      <c r="E374" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F374" s="52"/>
+      <c r="G374" s="52"/>
     </row>
     <row r="375" spans="1:7" ht="12.75">
       <c r="A375" s="30">
@@ -14411,12 +14819,12 @@
       <c r="C375" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="D375" s="50"/>
-      <c r="E375" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F375" s="58"/>
-      <c r="G375" s="58"/>
+      <c r="D375" s="44"/>
+      <c r="E375" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F375" s="52"/>
+      <c r="G375" s="52"/>
     </row>
     <row r="376" spans="1:7" ht="12.75">
       <c r="A376" s="30">
@@ -14428,12 +14836,12 @@
       <c r="C376" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D376" s="50"/>
-      <c r="E376" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F376" s="58"/>
-      <c r="G376" s="58"/>
+      <c r="D376" s="44"/>
+      <c r="E376" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F376" s="52"/>
+      <c r="G376" s="52"/>
     </row>
     <row r="377" spans="1:7" ht="12.75">
       <c r="A377" s="30">
@@ -14445,25 +14853,25 @@
       <c r="C377" s="31" t="s">
         <v>418</v>
       </c>
-      <c r="D377" s="50"/>
-      <c r="E377" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F377" s="58"/>
-      <c r="G377" s="58"/>
+      <c r="D377" s="44"/>
+      <c r="E377" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F377" s="52"/>
+      <c r="G377" s="52"/>
     </row>
     <row r="378" spans="1:7" ht="12.75">
-      <c r="A378" s="45" t="s">
+      <c r="A378" s="61" t="s">
         <v>429</v>
       </c>
-      <c r="B378" s="46"/>
-      <c r="C378" s="46"/>
-      <c r="D378" s="46"/>
-      <c r="E378" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F378" s="58"/>
-      <c r="G378" s="58"/>
+      <c r="B378" s="62"/>
+      <c r="C378" s="62"/>
+      <c r="D378" s="62"/>
+      <c r="E378" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F378" s="52"/>
+      <c r="G378" s="52"/>
     </row>
     <row r="379" spans="1:7" ht="12.75">
       <c r="A379" s="30">
@@ -14475,12 +14883,12 @@
       <c r="C379" s="31" t="s">
         <v>366</v>
       </c>
-      <c r="D379" s="50"/>
-      <c r="E379" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F379" s="58"/>
-      <c r="G379" s="58"/>
+      <c r="D379" s="44"/>
+      <c r="E379" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F379" s="52"/>
+      <c r="G379" s="52"/>
     </row>
     <row r="380" spans="1:7" ht="12.75">
       <c r="A380" s="30">
@@ -14492,12 +14900,12 @@
       <c r="C380" s="31" t="s">
         <v>368</v>
       </c>
-      <c r="D380" s="50"/>
-      <c r="E380" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F380" s="58"/>
-      <c r="G380" s="58"/>
+      <c r="D380" s="44"/>
+      <c r="E380" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F380" s="52"/>
+      <c r="G380" s="52"/>
     </row>
     <row r="381" spans="1:7" ht="12.75">
       <c r="A381" s="30">
@@ -14509,12 +14917,12 @@
       <c r="C381" s="31" t="s">
         <v>370</v>
       </c>
-      <c r="D381" s="50"/>
-      <c r="E381" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F381" s="58"/>
-      <c r="G381" s="58"/>
+      <c r="D381" s="44"/>
+      <c r="E381" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F381" s="52"/>
+      <c r="G381" s="52"/>
     </row>
     <row r="382" spans="1:7" ht="12.75">
       <c r="A382" s="30">
@@ -14526,12 +14934,12 @@
       <c r="C382" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="D382" s="50"/>
-      <c r="E382" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F382" s="58"/>
-      <c r="G382" s="58"/>
+      <c r="D382" s="44"/>
+      <c r="E382" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F382" s="52"/>
+      <c r="G382" s="52"/>
     </row>
     <row r="383" spans="1:7" ht="12.75">
       <c r="A383" s="30">
@@ -14543,12 +14951,12 @@
       <c r="C383" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="D383" s="50"/>
-      <c r="E383" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F383" s="58"/>
-      <c r="G383" s="58"/>
+      <c r="D383" s="44"/>
+      <c r="E383" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F383" s="52"/>
+      <c r="G383" s="52"/>
     </row>
     <row r="384" spans="1:7" ht="12.75">
       <c r="A384" s="30">
@@ -14560,12 +14968,12 @@
       <c r="C384" s="31" t="s">
         <v>376</v>
       </c>
-      <c r="D384" s="50"/>
-      <c r="E384" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F384" s="58"/>
-      <c r="G384" s="58"/>
+      <c r="D384" s="44"/>
+      <c r="E384" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F384" s="52"/>
+      <c r="G384" s="52"/>
     </row>
     <row r="385" spans="1:25" ht="12.75">
       <c r="A385" s="30">
@@ -14577,12 +14985,12 @@
       <c r="C385" s="31" t="s">
         <v>378</v>
       </c>
-      <c r="D385" s="50"/>
-      <c r="E385" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F385" s="58"/>
-      <c r="G385" s="58"/>
+      <c r="D385" s="44"/>
+      <c r="E385" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F385" s="52"/>
+      <c r="G385" s="52"/>
     </row>
     <row r="386" spans="1:25" ht="12.75">
       <c r="A386" s="30">
@@ -14594,12 +15002,12 @@
       <c r="C386" s="31" t="s">
         <v>380</v>
       </c>
-      <c r="D386" s="50"/>
-      <c r="E386" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F386" s="58"/>
-      <c r="G386" s="58"/>
+      <c r="D386" s="44"/>
+      <c r="E386" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F386" s="52"/>
+      <c r="G386" s="52"/>
     </row>
     <row r="387" spans="1:25" ht="12.75">
       <c r="A387" s="30">
@@ -14611,12 +15019,12 @@
       <c r="C387" s="31" t="s">
         <v>382</v>
       </c>
-      <c r="D387" s="50"/>
-      <c r="E387" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F387" s="58"/>
-      <c r="G387" s="58"/>
+      <c r="D387" s="44"/>
+      <c r="E387" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F387" s="52"/>
+      <c r="G387" s="52"/>
     </row>
     <row r="388" spans="1:25" ht="12.75">
       <c r="A388" s="30">
@@ -14628,12 +15036,12 @@
       <c r="C388" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="D388" s="50"/>
-      <c r="E388" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F388" s="58"/>
-      <c r="G388" s="58"/>
+      <c r="D388" s="44"/>
+      <c r="E388" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F388" s="52"/>
+      <c r="G388" s="52"/>
     </row>
     <row r="389" spans="1:25" ht="12.75">
       <c r="A389" s="30">
@@ -14645,12 +15053,12 @@
       <c r="C389" s="31" t="s">
         <v>410</v>
       </c>
-      <c r="D389" s="50"/>
-      <c r="E389" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F389" s="58"/>
-      <c r="G389" s="58"/>
+      <c r="D389" s="44"/>
+      <c r="E389" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F389" s="52"/>
+      <c r="G389" s="52"/>
     </row>
     <row r="390" spans="1:25" ht="12.75">
       <c r="A390" s="30">
@@ -14662,12 +15070,12 @@
       <c r="C390" s="31" t="s">
         <v>372</v>
       </c>
-      <c r="D390" s="50"/>
-      <c r="E390" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F390" s="58"/>
-      <c r="G390" s="58"/>
+      <c r="D390" s="44"/>
+      <c r="E390" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F390" s="52"/>
+      <c r="G390" s="52"/>
     </row>
     <row r="391" spans="1:25" ht="12.75">
       <c r="A391" s="30" t="s">
@@ -14679,12 +15087,12 @@
       <c r="C391" s="31" t="s">
         <v>332</v>
       </c>
-      <c r="D391" s="50"/>
-      <c r="E391" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F391" s="58"/>
-      <c r="G391" s="58"/>
+      <c r="D391" s="44"/>
+      <c r="E391" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F391" s="52"/>
+      <c r="G391" s="52"/>
     </row>
     <row r="392" spans="1:25" ht="12.75">
       <c r="A392" s="30" t="s">
@@ -14696,25 +15104,25 @@
       <c r="C392" s="31" t="s">
         <v>392</v>
       </c>
-      <c r="D392" s="50"/>
-      <c r="E392" s="63" t="s">
-        <v>498</v>
-      </c>
-      <c r="F392" s="58"/>
-      <c r="G392" s="58"/>
+      <c r="D392" s="44"/>
+      <c r="E392" s="57" t="s">
+        <v>498</v>
+      </c>
+      <c r="F392" s="52"/>
+      <c r="G392" s="52"/>
     </row>
     <row r="393" spans="1:25" ht="12.75">
-      <c r="A393" s="47" t="s">
+      <c r="A393" s="63" t="s">
         <v>432</v>
       </c>
-      <c r="B393" s="46"/>
-      <c r="C393" s="46"/>
-      <c r="D393" s="46"/>
-      <c r="E393" s="63" t="s">
+      <c r="B393" s="62"/>
+      <c r="C393" s="62"/>
+      <c r="D393" s="62"/>
+      <c r="E393" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F393" s="59"/>
-      <c r="G393" s="59"/>
+      <c r="F393" s="53"/>
+      <c r="G393" s="53"/>
       <c r="H393" s="19"/>
       <c r="I393" s="19"/>
       <c r="J393" s="19"/>
@@ -14744,12 +15152,12 @@
       <c r="C394" s="34" t="s">
         <v>434</v>
       </c>
-      <c r="D394" s="54"/>
-      <c r="E394" s="63" t="s">
+      <c r="D394" s="48"/>
+      <c r="E394" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F394" s="58"/>
-      <c r="G394" s="58"/>
+      <c r="F394" s="52"/>
+      <c r="G394" s="52"/>
     </row>
     <row r="395" spans="1:25" ht="12.75">
       <c r="A395" s="32">
@@ -14761,12 +15169,12 @@
       <c r="C395" s="34" t="s">
         <v>436</v>
       </c>
-      <c r="D395" s="54"/>
-      <c r="E395" s="63" t="s">
+      <c r="D395" s="48"/>
+      <c r="E395" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F395" s="58"/>
-      <c r="G395" s="58"/>
+      <c r="F395" s="52"/>
+      <c r="G395" s="52"/>
     </row>
     <row r="396" spans="1:25" ht="12.75">
       <c r="A396" s="32">
@@ -14778,12 +15186,12 @@
       <c r="C396" s="34" t="s">
         <v>438</v>
       </c>
-      <c r="D396" s="54"/>
-      <c r="E396" s="63" t="s">
+      <c r="D396" s="48"/>
+      <c r="E396" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F396" s="58"/>
-      <c r="G396" s="58"/>
+      <c r="F396" s="52"/>
+      <c r="G396" s="52"/>
     </row>
     <row r="397" spans="1:25" ht="12.75">
       <c r="A397" s="32">
@@ -14795,12 +15203,12 @@
       <c r="C397" s="34" t="s">
         <v>440</v>
       </c>
-      <c r="D397" s="54"/>
-      <c r="E397" s="63" t="s">
+      <c r="D397" s="48"/>
+      <c r="E397" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F397" s="58"/>
-      <c r="G397" s="58"/>
+      <c r="F397" s="52"/>
+      <c r="G397" s="52"/>
     </row>
     <row r="398" spans="1:25" ht="12.75">
       <c r="A398" s="32">
@@ -14812,12 +15220,12 @@
       <c r="C398" s="34" t="s">
         <v>442</v>
       </c>
-      <c r="D398" s="54"/>
-      <c r="E398" s="63" t="s">
+      <c r="D398" s="48"/>
+      <c r="E398" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F398" s="58"/>
-      <c r="G398" s="58"/>
+      <c r="F398" s="52"/>
+      <c r="G398" s="52"/>
     </row>
     <row r="399" spans="1:25" ht="12.75">
       <c r="A399" s="32">
@@ -14829,12 +15237,12 @@
       <c r="C399" s="34" t="s">
         <v>444</v>
       </c>
-      <c r="D399" s="55"/>
-      <c r="E399" s="63" t="s">
+      <c r="D399" s="49"/>
+      <c r="E399" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F399" s="58"/>
-      <c r="G399" s="58"/>
+      <c r="F399" s="52"/>
+      <c r="G399" s="52"/>
     </row>
     <row r="400" spans="1:25" ht="12.75">
       <c r="A400" s="32">
@@ -14846,12 +15254,12 @@
       <c r="C400" s="34" t="s">
         <v>446</v>
       </c>
-      <c r="D400" s="54"/>
-      <c r="E400" s="63" t="s">
+      <c r="D400" s="48"/>
+      <c r="E400" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F400" s="58"/>
-      <c r="G400" s="58"/>
+      <c r="F400" s="52"/>
+      <c r="G400" s="52"/>
     </row>
     <row r="401" spans="1:25" ht="12.75">
       <c r="A401" s="32">
@@ -14863,25 +15271,25 @@
       <c r="C401" s="34" t="s">
         <v>448</v>
       </c>
-      <c r="D401" s="54"/>
-      <c r="E401" s="63" t="s">
+      <c r="D401" s="48"/>
+      <c r="E401" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F401" s="58"/>
-      <c r="G401" s="58"/>
+      <c r="F401" s="52"/>
+      <c r="G401" s="52"/>
     </row>
     <row r="402" spans="1:25" ht="12.75">
-      <c r="A402" s="47" t="s">
+      <c r="A402" s="63" t="s">
         <v>449</v>
       </c>
-      <c r="B402" s="46"/>
-      <c r="C402" s="46"/>
-      <c r="D402" s="46"/>
-      <c r="E402" s="63" t="s">
+      <c r="B402" s="62"/>
+      <c r="C402" s="62"/>
+      <c r="D402" s="62"/>
+      <c r="E402" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F402" s="59"/>
-      <c r="G402" s="59"/>
+      <c r="F402" s="53"/>
+      <c r="G402" s="53"/>
       <c r="H402" s="19"/>
       <c r="I402" s="19"/>
       <c r="J402" s="19"/>
@@ -14911,12 +15319,12 @@
       <c r="C403" s="34" t="s">
         <v>451</v>
       </c>
-      <c r="D403" s="54"/>
-      <c r="E403" s="63" t="s">
+      <c r="D403" s="48"/>
+      <c r="E403" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F403" s="58"/>
-      <c r="G403" s="58"/>
+      <c r="F403" s="52"/>
+      <c r="G403" s="52"/>
     </row>
     <row r="404" spans="1:25" ht="12.75">
       <c r="A404" s="32">
@@ -14928,12 +15336,12 @@
       <c r="C404" s="33" t="s">
         <v>453</v>
       </c>
-      <c r="D404" s="54"/>
-      <c r="E404" s="63" t="s">
+      <c r="D404" s="48"/>
+      <c r="E404" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F404" s="58"/>
-      <c r="G404" s="58"/>
+      <c r="F404" s="52"/>
+      <c r="G404" s="52"/>
     </row>
     <row r="405" spans="1:25" ht="12.75">
       <c r="A405" s="32">
@@ -14945,12 +15353,12 @@
       <c r="C405" s="34" t="s">
         <v>455</v>
       </c>
-      <c r="D405" s="54"/>
-      <c r="E405" s="63" t="s">
+      <c r="D405" s="48"/>
+      <c r="E405" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F405" s="58"/>
-      <c r="G405" s="58"/>
+      <c r="F405" s="52"/>
+      <c r="G405" s="52"/>
     </row>
     <row r="406" spans="1:25" ht="12.75">
       <c r="A406" s="32">
@@ -14962,12 +15370,12 @@
       <c r="C406" s="34" t="s">
         <v>457</v>
       </c>
-      <c r="D406" s="54"/>
-      <c r="E406" s="63" t="s">
+      <c r="D406" s="48"/>
+      <c r="E406" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F406" s="58"/>
-      <c r="G406" s="58"/>
+      <c r="F406" s="52"/>
+      <c r="G406" s="52"/>
     </row>
     <row r="407" spans="1:25" ht="12.75">
       <c r="A407" s="32">
@@ -14979,12 +15387,12 @@
       <c r="C407" s="33" t="s">
         <v>459</v>
       </c>
-      <c r="D407" s="54"/>
-      <c r="E407" s="63" t="s">
+      <c r="D407" s="48"/>
+      <c r="E407" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F407" s="58"/>
-      <c r="G407" s="58"/>
+      <c r="F407" s="52"/>
+      <c r="G407" s="52"/>
     </row>
     <row r="408" spans="1:25" ht="12.75">
       <c r="A408" s="32">
@@ -14996,12 +15404,12 @@
       <c r="C408" s="34" t="s">
         <v>461</v>
       </c>
-      <c r="D408" s="55"/>
-      <c r="E408" s="63" t="s">
+      <c r="D408" s="49"/>
+      <c r="E408" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F408" s="58"/>
-      <c r="G408" s="58"/>
+      <c r="F408" s="52"/>
+      <c r="G408" s="52"/>
     </row>
     <row r="409" spans="1:25" ht="12.75">
       <c r="A409" s="32">
@@ -15013,12 +15421,12 @@
       <c r="C409" s="33" t="s">
         <v>462</v>
       </c>
-      <c r="D409" s="54"/>
-      <c r="E409" s="63" t="s">
+      <c r="D409" s="48"/>
+      <c r="E409" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F409" s="58"/>
-      <c r="G409" s="58"/>
+      <c r="F409" s="52"/>
+      <c r="G409" s="52"/>
     </row>
     <row r="410" spans="1:25" ht="12.75">
       <c r="A410" s="32">
@@ -15030,25 +15438,25 @@
       <c r="C410" s="33" t="s">
         <v>463</v>
       </c>
-      <c r="D410" s="54"/>
-      <c r="E410" s="63" t="s">
+      <c r="D410" s="48"/>
+      <c r="E410" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F410" s="58"/>
-      <c r="G410" s="58"/>
+      <c r="F410" s="52"/>
+      <c r="G410" s="52"/>
     </row>
     <row r="411" spans="1:25" ht="12.75">
-      <c r="A411" s="47" t="s">
+      <c r="A411" s="63" t="s">
         <v>464</v>
       </c>
-      <c r="B411" s="46"/>
-      <c r="C411" s="46"/>
-      <c r="D411" s="46"/>
-      <c r="E411" s="63" t="s">
+      <c r="B411" s="62"/>
+      <c r="C411" s="62"/>
+      <c r="D411" s="62"/>
+      <c r="E411" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F411" s="59"/>
-      <c r="G411" s="59"/>
+      <c r="F411" s="53"/>
+      <c r="G411" s="53"/>
       <c r="H411" s="19"/>
       <c r="I411" s="19"/>
       <c r="J411" s="19"/>
@@ -15078,12 +15486,12 @@
       <c r="C412" s="33" t="s">
         <v>466</v>
       </c>
-      <c r="D412" s="54"/>
-      <c r="E412" s="63" t="s">
+      <c r="D412" s="48"/>
+      <c r="E412" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F412" s="58"/>
-      <c r="G412" s="58"/>
+      <c r="F412" s="52"/>
+      <c r="G412" s="52"/>
     </row>
     <row r="413" spans="1:25" ht="38.25">
       <c r="A413" s="32">
@@ -15092,15 +15500,15 @@
       <c r="B413" s="34" t="s">
         <v>467</v>
       </c>
-      <c r="C413" s="48" t="s">
+      <c r="C413" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="D413" s="54"/>
-      <c r="E413" s="63" t="s">
+      <c r="D413" s="48"/>
+      <c r="E413" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F413" s="58"/>
-      <c r="G413" s="58"/>
+      <c r="F413" s="52"/>
+      <c r="G413" s="52"/>
     </row>
     <row r="414" spans="1:25" ht="12.75">
       <c r="A414" s="32">
@@ -15112,12 +15520,12 @@
       <c r="C414" s="34" t="s">
         <v>468</v>
       </c>
-      <c r="D414" s="54"/>
-      <c r="E414" s="63" t="s">
+      <c r="D414" s="48"/>
+      <c r="E414" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F414" s="58"/>
-      <c r="G414" s="58"/>
+      <c r="F414" s="52"/>
+      <c r="G414" s="52"/>
     </row>
     <row r="415" spans="1:25" ht="12.75">
       <c r="A415" s="32">
@@ -15129,12 +15537,12 @@
       <c r="C415" s="34" t="s">
         <v>470</v>
       </c>
-      <c r="D415" s="54"/>
-      <c r="E415" s="63" t="s">
+      <c r="D415" s="48"/>
+      <c r="E415" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F415" s="58"/>
-      <c r="G415" s="58"/>
+      <c r="F415" s="52"/>
+      <c r="G415" s="52"/>
     </row>
     <row r="416" spans="1:25" ht="12.75">
       <c r="A416" s="32">
@@ -15146,12 +15554,12 @@
       <c r="C416" s="34" t="s">
         <v>472</v>
       </c>
-      <c r="D416" s="54"/>
-      <c r="E416" s="63" t="s">
+      <c r="D416" s="48"/>
+      <c r="E416" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F416" s="58"/>
-      <c r="G416" s="58"/>
+      <c r="F416" s="52"/>
+      <c r="G416" s="52"/>
     </row>
     <row r="417" spans="1:7" ht="12.75">
       <c r="A417" s="35"/>
@@ -15161,12 +15569,12 @@
       <c r="C417" s="34" t="s">
         <v>474</v>
       </c>
-      <c r="D417" s="54"/>
-      <c r="E417" s="63" t="s">
+      <c r="D417" s="48"/>
+      <c r="E417" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F417" s="58"/>
-      <c r="G417" s="58"/>
+      <c r="F417" s="52"/>
+      <c r="G417" s="52"/>
     </row>
     <row r="418" spans="1:7" ht="12.75">
       <c r="A418" s="32">
@@ -15178,12 +15586,12 @@
       <c r="C418" s="34" t="s">
         <v>476</v>
       </c>
-      <c r="D418" s="54"/>
-      <c r="E418" s="63" t="s">
+      <c r="D418" s="48"/>
+      <c r="E418" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F418" s="58"/>
-      <c r="G418" s="58"/>
+      <c r="F418" s="52"/>
+      <c r="G418" s="52"/>
     </row>
     <row r="419" spans="1:7" ht="12.75">
       <c r="A419" s="32">
@@ -15195,12 +15603,12 @@
       <c r="C419" s="34" t="s">
         <v>478</v>
       </c>
-      <c r="D419" s="54"/>
-      <c r="E419" s="63" t="s">
+      <c r="D419" s="48"/>
+      <c r="E419" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F419" s="58"/>
-      <c r="G419" s="58"/>
+      <c r="F419" s="52"/>
+      <c r="G419" s="52"/>
     </row>
     <row r="420" spans="1:7" ht="12.75">
       <c r="A420" s="32">
@@ -15212,12 +15620,12 @@
       <c r="C420" s="33" t="s">
         <v>480</v>
       </c>
-      <c r="D420" s="54"/>
-      <c r="E420" s="63" t="s">
+      <c r="D420" s="48"/>
+      <c r="E420" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F420" s="58"/>
-      <c r="G420" s="58"/>
+      <c r="F420" s="52"/>
+      <c r="G420" s="52"/>
     </row>
     <row r="421" spans="1:7" ht="25.5">
       <c r="A421" s="32">
@@ -15226,15 +15634,15 @@
       <c r="B421" s="33" t="s">
         <v>481</v>
       </c>
-      <c r="C421" s="48" t="s">
+      <c r="C421" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="D421" s="54"/>
-      <c r="E421" s="63" t="s">
+      <c r="D421" s="48"/>
+      <c r="E421" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F421" s="58"/>
-      <c r="G421" s="58"/>
+      <c r="F421" s="52"/>
+      <c r="G421" s="52"/>
     </row>
     <row r="422" spans="1:7" ht="12.75">
       <c r="A422" s="32">
@@ -15246,12 +15654,12 @@
       <c r="C422" s="33" t="s">
         <v>483</v>
       </c>
-      <c r="D422" s="54"/>
-      <c r="E422" s="63" t="s">
+      <c r="D422" s="48"/>
+      <c r="E422" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F422" s="58"/>
-      <c r="G422" s="58"/>
+      <c r="F422" s="52"/>
+      <c r="G422" s="52"/>
     </row>
     <row r="423" spans="1:7" ht="38.25">
       <c r="A423" s="32">
@@ -15260,15 +15668,15 @@
       <c r="B423" s="34" t="s">
         <v>452</v>
       </c>
-      <c r="C423" s="48" t="s">
+      <c r="C423" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="D423" s="54"/>
-      <c r="E423" s="63" t="s">
+      <c r="D423" s="48"/>
+      <c r="E423" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="F423" s="58"/>
-      <c r="G423" s="58"/>
+      <c r="F423" s="52"/>
+      <c r="G423" s="52"/>
     </row>
     <row r="424" spans="1:7" ht="12.75">
       <c r="A424" s="36"/>
@@ -16982,34 +17390,10 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A157:D157"/>
-    <mergeCell ref="A393:D393"/>
-    <mergeCell ref="A402:D402"/>
-    <mergeCell ref="A411:D411"/>
-    <mergeCell ref="A273:D273"/>
-    <mergeCell ref="A282:D282"/>
-    <mergeCell ref="A296:D296"/>
-    <mergeCell ref="A311:D311"/>
-    <mergeCell ref="A321:D321"/>
-    <mergeCell ref="A330:D330"/>
-    <mergeCell ref="A343:D343"/>
-    <mergeCell ref="A358:D358"/>
-    <mergeCell ref="A368:D368"/>
-    <mergeCell ref="A378:D378"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A108:D108"/>
     <mergeCell ref="A115:D115"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A2:D2"/>
@@ -17026,17 +17410,41 @@
     <mergeCell ref="A75:D75"/>
     <mergeCell ref="A82:D82"/>
     <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A393:D393"/>
+    <mergeCell ref="A402:D402"/>
+    <mergeCell ref="A411:D411"/>
+    <mergeCell ref="A273:D273"/>
+    <mergeCell ref="A282:D282"/>
+    <mergeCell ref="A296:D296"/>
+    <mergeCell ref="A311:D311"/>
+    <mergeCell ref="A321:D321"/>
+    <mergeCell ref="A330:D330"/>
+    <mergeCell ref="A343:D343"/>
+    <mergeCell ref="A358:D358"/>
+    <mergeCell ref="A368:D368"/>
+    <mergeCell ref="A378:D378"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A157:D157"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D34"/>
   <sheetViews>

--- a/4조 PMS 시스템 통합 테스트 시나리오(수정).xlsx
+++ b/4조 PMS 시스템 통합 테스트 시나리오(수정).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\a01_javaexp\workspace\project06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\507-11\Desktop\6th\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개발계획" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1507" uniqueCount="621">
   <si>
     <t>PMS 개발계획</t>
   </si>
@@ -3141,6 +3141,1021 @@
   </si>
   <si>
     <t>1q2w3e4r!</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인사관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사원등록</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사관리자 로그인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001-2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>좌측</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이드바</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인적자원관리</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원리스트 정상 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001-3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>우측하단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사원등록</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>클릭</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사원정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>리스트가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정상</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출력</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001-4</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본인으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사원정보</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>실제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>본인으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001-5</t>
+  </si>
+  <si>
+    <t>등록확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력한것과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>맞게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>등록되었는지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>확인</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001-6</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7002</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>인사관리자</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사원정보수정</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7002-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7001-4에서 등록한 사원 상세페이지 이동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상세</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이동</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하는지</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7002-2</t>
+  </si>
+  <si>
+    <t>부서 수정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 부서에 맞게 수정되었는지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7002-3</t>
+  </si>
+  <si>
+    <t>직급 수정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 직급에 맞게 수정되었는지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7002-4</t>
+  </si>
+  <si>
+    <t>사원리스트에서 수정된 정보 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정한 정보에 맞게 리스트에 출력되는지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7002-5</t>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADMIN 로그인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003-2</t>
+  </si>
+  <si>
+    <t>좌측 사이드바 인적자원관리 클릭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003-3</t>
+  </si>
+  <si>
+    <t>사원리스트에서 7001-4에서 등록한 사원 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사원리스트에서 등록된 사원정보 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003-4</t>
+  </si>
+  <si>
+    <t>사원정보가 정상 출력</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CEO로 권한 설정 </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 부분이 CEO로 표시</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003-6</t>
+  </si>
+  <si>
+    <t>리스트에서 변경된 권한 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003-7</t>
+  </si>
+  <si>
+    <t>등록된 이메일에서 PMS등록 메일 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상적으로 메일수신 및 아이디, 비밀번호 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003-8</t>
+  </si>
+  <si>
+    <t>확인한 아이디 로그인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>정상 로그인 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003-9</t>
+  </si>
+  <si>
+    <t>7004</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CEO권한으로 CTO, HR, PM권한 설정</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7004-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7003에서 설정한 CEO아이디 로그인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7004-2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>죄측 사이드바 인적자원관리 클릭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7004-3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한이 구분없음인 직원의 권한을 CTO, HR, PM으로 변경</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 설정시 정상적으로 변경되는지 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7004-4</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>권한 부분이 변경된 권한에 맞게 표시되는지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7004-5</t>
+  </si>
+  <si>
+    <t>7005</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM팀원 추가, 삭제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7005-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM 로그인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7005-2</t>
+  </si>
+  <si>
+    <t>7005-3</t>
+  </si>
+  <si>
+    <t>우측하단 팀원추가이동 버튼 클릭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 페이지로 이동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7005-4</t>
+  </si>
+  <si>
+    <t>최소 5명의 직원 추가</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가한 직원은 리스트에서 사라짐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7005-5</t>
+  </si>
+  <si>
+    <t>우측 상단 참여인원 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가한 팀원이 참여인원에 나타나는지 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7005-6</t>
+  </si>
+  <si>
+    <t>우측하단 팀원삭제이동 버튼 클릭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>삭제 페이지로 이동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7005-7</t>
+  </si>
+  <si>
+    <t>최소 5명의 직원 삭제</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹제한 팀원은 리스트에서 사라짐</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7005-8</t>
+  </si>
+  <si>
+    <t>삭제한 팀원이 참여인원에서 제거됐는지 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7005-9</t>
+  </si>
+  <si>
+    <t>7006</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR 사원퇴사처리</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7006-1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR 로그인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7006-2</t>
+  </si>
+  <si>
+    <t>좌측 사이드바 인적자원관리 클릭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7006-3</t>
+  </si>
+  <si>
+    <t>임의의 사원 클릭하여 상세페이지 이동</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7006-4</t>
+  </si>
+  <si>
+    <t>퇴사처리 버튼 클릭</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당 직원의 정보가 삭제되었는지 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>7006-5</t>
+  </si>
+  <si>
+    <t>사원의 정보가 리스트에서 사라졌는지 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>리스트에서 없는지 확인</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ADMIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>권한으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CEO </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>설정</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>김형준</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -3153,7 +4168,7 @@
     <numFmt numFmtId="177" formatCode="yyyy\-mm"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3267,8 +4282,31 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3326,6 +4364,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3409,7 +4453,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3540,11 +4584,38 @@
     <xf numFmtId="177" fontId="14" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="1" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3554,32 +4625,35 @@
     <xf numFmtId="176" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="11" fillId="11" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3810,10 +4884,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="12.75">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
+      <c r="B1" s="65"/>
     </row>
     <row r="2" spans="1:2" ht="12.75">
       <c r="A2" s="1"/>
@@ -3908,10 +4982,10 @@
       <c r="B14" s="6"/>
     </row>
     <row r="15" spans="1:2" ht="12.75">
-      <c r="A15" s="60" t="s">
+      <c r="A15" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="59"/>
+      <c r="B15" s="65"/>
     </row>
     <row r="16" spans="1:2" ht="33" customHeight="1">
       <c r="A16" s="1" t="s">
@@ -7915,111 +8989,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="64" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="58" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="61" t="s">
         <v>500</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="61" t="s">
         <v>501</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="61" t="s">
         <v>502</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="59" t="s">
         <v>503</v>
       </c>
-      <c r="B2" s="71">
+      <c r="B2" s="62">
         <v>10000001</v>
       </c>
-      <c r="C2" s="71" t="s">
+      <c r="C2" s="62" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="59" t="s">
         <v>504</v>
       </c>
-      <c r="B3" s="71">
+      <c r="B3" s="62">
         <v>10000003</v>
       </c>
-      <c r="C3" s="71" t="s">
+      <c r="C3" s="62" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="65" t="s">
+      <c r="A4" s="59" t="s">
         <v>506</v>
       </c>
-      <c r="B4" s="71">
+      <c r="B4" s="62">
         <v>10000007</v>
       </c>
-      <c r="C4" s="71" t="s">
+      <c r="C4" s="62" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="66" t="s">
+      <c r="A5" s="67" t="s">
         <v>505</v>
       </c>
-      <c r="B5" s="71">
+      <c r="B5" s="62">
         <v>10000005</v>
       </c>
-      <c r="C5" s="71" t="s">
+      <c r="C5" s="62" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="67"/>
-      <c r="B6" s="72">
+      <c r="A6" s="68"/>
+      <c r="B6" s="63">
         <v>10000006</v>
       </c>
-      <c r="C6" s="71" t="s">
+      <c r="C6" s="62" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="60" t="s">
         <v>507</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="62">
         <v>10000004</v>
       </c>
-      <c r="C7" s="71" t="s">
+      <c r="C7" s="62" t="s">
         <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="60" t="s">
         <v>512</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="62">
         <v>10000026</v>
       </c>
-      <c r="C8" s="71" t="s">
+      <c r="C8" s="62" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="60" t="s">
         <v>513</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="62">
         <v>10000027</v>
       </c>
-      <c r="C9" s="71" t="s">
+      <c r="C9" s="62" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8027,91 +9101,91 @@
       <c r="A10" s="69" t="s">
         <v>508</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="62">
         <v>10000015</v>
       </c>
-      <c r="C10" s="71" t="s">
+      <c r="C10" s="62" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="67"/>
-      <c r="B11" s="71">
+      <c r="A11" s="68"/>
+      <c r="B11" s="62">
         <v>10000016</v>
       </c>
-      <c r="C11" s="71" t="s">
+      <c r="C11" s="62" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="67"/>
-      <c r="B12" s="71">
+      <c r="A12" s="68"/>
+      <c r="B12" s="62">
         <v>10000017</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="62" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="67"/>
-      <c r="B13" s="71">
+      <c r="A13" s="68"/>
+      <c r="B13" s="62">
         <v>10000019</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="62" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="67"/>
-      <c r="B14" s="71">
+      <c r="A14" s="68"/>
+      <c r="B14" s="62">
         <v>10000021</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="62" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="67"/>
-      <c r="B15" s="71">
+      <c r="A15" s="68"/>
+      <c r="B15" s="62">
         <v>10000022</v>
       </c>
-      <c r="C15" s="71" t="s">
+      <c r="C15" s="62" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="71">
+      <c r="A16" s="68"/>
+      <c r="B16" s="62">
         <v>10000023</v>
       </c>
-      <c r="C16" s="71" t="s">
+      <c r="C16" s="62" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="67"/>
-      <c r="B17" s="71">
+      <c r="A17" s="68"/>
+      <c r="B17" s="62">
         <v>10000024</v>
       </c>
-      <c r="C17" s="71" t="s">
+      <c r="C17" s="62" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="71">
+      <c r="A18" s="68"/>
+      <c r="B18" s="62">
         <v>10000025</v>
       </c>
-      <c r="C18" s="71" t="s">
+      <c r="C18" s="62" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="67"/>
-      <c r="B19" s="71">
+      <c r="A19" s="68"/>
+      <c r="B19" s="62">
         <v>10000028</v>
       </c>
-      <c r="C19" s="71" t="s">
+      <c r="C19" s="62" t="s">
         <v>514</v>
       </c>
     </row>
@@ -8133,9 +9207,9 @@
   </sheetPr>
   <dimension ref="A1:Y993"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D423" sqref="D423"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A412" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A412" sqref="A412"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -8169,12 +9243,12 @@
       </c>
     </row>
     <row r="2" spans="1:25" ht="12.75">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="62"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
       <c r="E2" s="56" t="s">
         <v>494</v>
       </c>
@@ -8298,12 +9372,12 @@
       <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:25" ht="12.75">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="70" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
+      <c r="B9" s="71"/>
+      <c r="C9" s="71"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="56" t="s">
         <v>494</v>
       </c>
@@ -8461,12 +9535,12 @@
       <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:25" ht="12.75">
-      <c r="A18" s="61" t="s">
+      <c r="A18" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="71"/>
       <c r="E18" s="56" t="s">
         <v>494</v>
       </c>
@@ -8684,12 +9758,12 @@
       <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:25" ht="12.75">
-      <c r="A31" s="61" t="s">
+      <c r="A31" s="70" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="71"/>
       <c r="E31" s="56" t="s">
         <v>494</v>
       </c>
@@ -8779,12 +9853,12 @@
       <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:25" ht="12.75">
-      <c r="A36" s="61" t="s">
+      <c r="A36" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="B36" s="62"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="62"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
       <c r="E36" s="56" t="s">
         <v>494</v>
       </c>
@@ -8908,12 +9982,12 @@
       <c r="G42" s="52"/>
     </row>
     <row r="43" spans="1:25" ht="12.75">
-      <c r="A43" s="61" t="s">
+      <c r="A43" s="70" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="62"/>
-      <c r="C43" s="62"/>
-      <c r="D43" s="62"/>
+      <c r="B43" s="71"/>
+      <c r="C43" s="71"/>
+      <c r="D43" s="71"/>
       <c r="E43" s="56" t="s">
         <v>494</v>
       </c>
@@ -8990,12 +10064,12 @@
       <c r="G46" s="52"/>
     </row>
     <row r="47" spans="1:25" ht="12.75">
-      <c r="A47" s="61" t="s">
+      <c r="A47" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="B47" s="62"/>
-      <c r="C47" s="62"/>
-      <c r="D47" s="62"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="71"/>
+      <c r="D47" s="71"/>
       <c r="E47" s="56" t="s">
         <v>494</v>
       </c>
@@ -9072,12 +10146,12 @@
       <c r="G50" s="52"/>
     </row>
     <row r="51" spans="1:25" ht="12.75">
-      <c r="A51" s="61" t="s">
+      <c r="A51" s="70" t="s">
         <v>150</v>
       </c>
-      <c r="B51" s="62"/>
-      <c r="C51" s="62"/>
-      <c r="D51" s="62"/>
+      <c r="B51" s="71"/>
+      <c r="C51" s="71"/>
+      <c r="D51" s="71"/>
       <c r="E51" s="57" t="s">
         <v>495</v>
       </c>
@@ -9205,12 +10279,12 @@
       <c r="G57" s="52"/>
     </row>
     <row r="58" spans="1:25" ht="12.75">
-      <c r="A58" s="61" t="s">
+      <c r="A58" s="70" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="62"/>
-      <c r="D58" s="62"/>
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="71"/>
       <c r="E58" s="57" t="s">
         <v>495</v>
       </c>
@@ -9287,12 +10361,12 @@
       <c r="G61" s="52"/>
     </row>
     <row r="62" spans="1:25" ht="12.75">
-      <c r="A62" s="61" t="s">
+      <c r="A62" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
+      <c r="B62" s="71"/>
+      <c r="C62" s="71"/>
+      <c r="D62" s="71"/>
       <c r="E62" s="57" t="s">
         <v>495</v>
       </c>
@@ -9369,12 +10443,12 @@
       <c r="G65" s="52"/>
     </row>
     <row r="66" spans="1:25" ht="12.75">
-      <c r="A66" s="61" t="s">
+      <c r="A66" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
+      <c r="B66" s="71"/>
+      <c r="C66" s="71"/>
+      <c r="D66" s="71"/>
       <c r="E66" s="57" t="s">
         <v>495</v>
       </c>
@@ -9502,12 +10576,12 @@
       <c r="G72" s="52"/>
     </row>
     <row r="73" spans="1:25" ht="12.75">
-      <c r="A73" s="61" t="s">
+      <c r="A73" s="70" t="s">
         <v>180</v>
       </c>
-      <c r="B73" s="62"/>
-      <c r="C73" s="62"/>
-      <c r="D73" s="62"/>
+      <c r="B73" s="71"/>
+      <c r="C73" s="71"/>
+      <c r="D73" s="71"/>
       <c r="E73" s="57" t="s">
         <v>495</v>
       </c>
@@ -9550,12 +10624,12 @@
       <c r="G74" s="52"/>
     </row>
     <row r="75" spans="1:25" ht="12.75">
-      <c r="A75" s="61" t="s">
+      <c r="A75" s="70" t="s">
         <v>182</v>
       </c>
-      <c r="B75" s="62"/>
-      <c r="C75" s="62"/>
-      <c r="D75" s="62"/>
+      <c r="B75" s="71"/>
+      <c r="C75" s="71"/>
+      <c r="D75" s="71"/>
       <c r="E75" s="57" t="s">
         <v>495</v>
       </c>
@@ -9683,12 +10757,12 @@
       <c r="G81" s="52"/>
     </row>
     <row r="82" spans="1:25" ht="12.75">
-      <c r="A82" s="61" t="s">
+      <c r="A82" s="70" t="s">
         <v>190</v>
       </c>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
+      <c r="B82" s="71"/>
+      <c r="C82" s="71"/>
+      <c r="D82" s="71"/>
       <c r="E82" s="57" t="s">
         <v>495</v>
       </c>
@@ -9765,12 +10839,12 @@
       <c r="G85" s="52"/>
     </row>
     <row r="86" spans="1:25" ht="12.75">
-      <c r="A86" s="61" t="s">
+      <c r="A86" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
+      <c r="B86" s="71"/>
+      <c r="C86" s="71"/>
+      <c r="D86" s="71"/>
       <c r="E86" s="57" t="s">
         <v>495</v>
       </c>
@@ -9847,12 +10921,12 @@
       <c r="G89" s="52"/>
     </row>
     <row r="90" spans="1:25" ht="12.75">
-      <c r="A90" s="61" t="s">
+      <c r="A90" s="70" t="s">
         <v>194</v>
       </c>
-      <c r="B90" s="62"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="62"/>
+      <c r="B90" s="71"/>
+      <c r="C90" s="71"/>
+      <c r="D90" s="71"/>
       <c r="E90" s="57" t="s">
         <v>495</v>
       </c>
@@ -9998,12 +11072,12 @@
       <c r="G96" s="52"/>
     </row>
     <row r="97" spans="1:25" ht="12.75">
-      <c r="A97" s="61" t="s">
+      <c r="A97" s="70" t="s">
         <v>196</v>
       </c>
-      <c r="B97" s="62"/>
-      <c r="C97" s="62"/>
-      <c r="D97" s="62"/>
+      <c r="B97" s="71"/>
+      <c r="C97" s="71"/>
+      <c r="D97" s="71"/>
       <c r="E97" s="57" t="s">
         <v>495</v>
       </c>
@@ -10114,12 +11188,12 @@
       <c r="G102" s="52"/>
     </row>
     <row r="103" spans="1:25" ht="12.75">
-      <c r="A103" s="61" t="s">
+      <c r="A103" s="70" t="s">
         <v>205</v>
       </c>
-      <c r="B103" s="62"/>
-      <c r="C103" s="62"/>
-      <c r="D103" s="62"/>
+      <c r="B103" s="71"/>
+      <c r="C103" s="71"/>
+      <c r="D103" s="71"/>
       <c r="E103" s="57" t="s">
         <v>495</v>
       </c>
@@ -10213,12 +11287,12 @@
       <c r="G107" s="52"/>
     </row>
     <row r="108" spans="1:25" ht="12.75">
-      <c r="A108" s="61" t="s">
+      <c r="A108" s="70" t="s">
         <v>211</v>
       </c>
-      <c r="B108" s="62"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="62"/>
+      <c r="B108" s="71"/>
+      <c r="C108" s="71"/>
+      <c r="D108" s="71"/>
       <c r="E108" s="57" t="s">
         <v>495</v>
       </c>
@@ -10346,12 +11420,12 @@
       <c r="G114" s="52"/>
     </row>
     <row r="115" spans="1:25" ht="12.75">
-      <c r="A115" s="61" t="s">
+      <c r="A115" s="70" t="s">
         <v>219</v>
       </c>
-      <c r="B115" s="62"/>
-      <c r="C115" s="62"/>
-      <c r="D115" s="62"/>
+      <c r="B115" s="71"/>
+      <c r="C115" s="71"/>
+      <c r="D115" s="71"/>
       <c r="E115" s="57" t="s">
         <v>495</v>
       </c>
@@ -10394,12 +11468,12 @@
       <c r="G116" s="52"/>
     </row>
     <row r="117" spans="1:25" ht="12.75">
-      <c r="A117" s="61" t="s">
+      <c r="A117" s="70" t="s">
         <v>221</v>
       </c>
-      <c r="B117" s="62"/>
-      <c r="C117" s="62"/>
-      <c r="D117" s="62"/>
+      <c r="B117" s="71"/>
+      <c r="C117" s="71"/>
+      <c r="D117" s="71"/>
       <c r="E117" s="57" t="s">
         <v>496</v>
       </c>
@@ -10595,12 +11669,12 @@
       <c r="G127" s="52"/>
     </row>
     <row r="128" spans="1:25" ht="12.75">
-      <c r="A128" s="61" t="s">
+      <c r="A128" s="70" t="s">
         <v>237</v>
       </c>
-      <c r="B128" s="62"/>
-      <c r="C128" s="62"/>
-      <c r="D128" s="62"/>
+      <c r="B128" s="71"/>
+      <c r="C128" s="71"/>
+      <c r="D128" s="71"/>
       <c r="E128" s="57" t="s">
         <v>496</v>
       </c>
@@ -10796,12 +11870,12 @@
       <c r="G138" s="52"/>
     </row>
     <row r="139" spans="1:25" ht="12.75">
-      <c r="A139" s="61" t="s">
+      <c r="A139" s="70" t="s">
         <v>239</v>
       </c>
-      <c r="B139" s="62"/>
-      <c r="C139" s="62"/>
-      <c r="D139" s="62"/>
+      <c r="B139" s="71"/>
+      <c r="C139" s="71"/>
+      <c r="D139" s="71"/>
       <c r="E139" s="57" t="s">
         <v>496</v>
       </c>
@@ -10912,12 +11986,12 @@
       <c r="G144" s="52"/>
     </row>
     <row r="145" spans="1:25" ht="12.75">
-      <c r="A145" s="61" t="s">
+      <c r="A145" s="70" t="s">
         <v>247</v>
       </c>
-      <c r="B145" s="62"/>
-      <c r="C145" s="62"/>
-      <c r="D145" s="62"/>
+      <c r="B145" s="71"/>
+      <c r="C145" s="71"/>
+      <c r="D145" s="71"/>
       <c r="E145" s="57" t="s">
         <v>496</v>
       </c>
@@ -11028,12 +12102,12 @@
       <c r="G150" s="52"/>
     </row>
     <row r="151" spans="1:25" ht="12.75">
-      <c r="A151" s="61" t="s">
+      <c r="A151" s="70" t="s">
         <v>250</v>
       </c>
-      <c r="B151" s="62"/>
-      <c r="C151" s="62"/>
-      <c r="D151" s="62"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="71"/>
+      <c r="D151" s="71"/>
       <c r="E151" s="57" t="s">
         <v>496</v>
       </c>
@@ -11144,12 +12218,12 @@
       <c r="G156" s="52"/>
     </row>
     <row r="157" spans="1:25" ht="12.75">
-      <c r="A157" s="61" t="s">
+      <c r="A157" s="70" t="s">
         <v>255</v>
       </c>
-      <c r="B157" s="62"/>
-      <c r="C157" s="62"/>
-      <c r="D157" s="62"/>
+      <c r="B157" s="71"/>
+      <c r="C157" s="71"/>
+      <c r="D157" s="71"/>
       <c r="E157" s="57" t="s">
         <v>496</v>
       </c>
@@ -11260,12 +12334,12 @@
       <c r="G162" s="52"/>
     </row>
     <row r="163" spans="1:25" ht="12.75">
-      <c r="A163" s="61" t="s">
+      <c r="A163" s="70" t="s">
         <v>258</v>
       </c>
-      <c r="B163" s="62"/>
-      <c r="C163" s="62"/>
-      <c r="D163" s="62"/>
+      <c r="B163" s="71"/>
+      <c r="C163" s="71"/>
+      <c r="D163" s="71"/>
       <c r="E163" s="57" t="s">
         <v>496</v>
       </c>
@@ -11376,12 +12450,12 @@
       <c r="G168" s="52"/>
     </row>
     <row r="169" spans="1:25" ht="12.75">
-      <c r="A169" s="61" t="s">
+      <c r="A169" s="70" t="s">
         <v>260</v>
       </c>
-      <c r="B169" s="62"/>
-      <c r="C169" s="62"/>
-      <c r="D169" s="62"/>
+      <c r="B169" s="71"/>
+      <c r="C169" s="71"/>
+      <c r="D169" s="71"/>
       <c r="E169" s="57" t="s">
         <v>497</v>
       </c>
@@ -11627,12 +12701,12 @@
       <c r="G183" s="52"/>
     </row>
     <row r="184" spans="1:7" ht="12.75">
-      <c r="A184" s="61" t="s">
+      <c r="A184" s="70" t="s">
         <v>289</v>
       </c>
-      <c r="B184" s="62"/>
-      <c r="C184" s="62"/>
-      <c r="D184" s="62"/>
+      <c r="B184" s="71"/>
+      <c r="C184" s="71"/>
+      <c r="D184" s="71"/>
       <c r="E184" s="57" t="s">
         <v>497</v>
       </c>
@@ -11793,12 +12867,12 @@
       <c r="G193" s="52"/>
     </row>
     <row r="194" spans="1:7" ht="12.75">
-      <c r="A194" s="61" t="s">
+      <c r="A194" s="70" t="s">
         <v>298</v>
       </c>
-      <c r="B194" s="62"/>
-      <c r="C194" s="62"/>
-      <c r="D194" s="62"/>
+      <c r="B194" s="71"/>
+      <c r="C194" s="71"/>
+      <c r="D194" s="71"/>
       <c r="E194" s="57" t="s">
         <v>497</v>
       </c>
@@ -12095,12 +13169,12 @@
       <c r="G211" s="52"/>
     </row>
     <row r="212" spans="1:7" ht="12.75">
-      <c r="A212" s="61" t="s">
+      <c r="A212" s="70" t="s">
         <v>307</v>
       </c>
-      <c r="B212" s="62"/>
-      <c r="C212" s="62"/>
-      <c r="D212" s="62"/>
+      <c r="B212" s="71"/>
+      <c r="C212" s="71"/>
+      <c r="D212" s="71"/>
       <c r="E212" s="57" t="s">
         <v>498</v>
       </c>
@@ -12261,12 +13335,12 @@
       <c r="G221" s="52"/>
     </row>
     <row r="222" spans="1:7" ht="12.75">
-      <c r="A222" s="61" t="s">
+      <c r="A222" s="70" t="s">
         <v>324</v>
       </c>
-      <c r="B222" s="62"/>
-      <c r="C222" s="62"/>
-      <c r="D222" s="62"/>
+      <c r="B222" s="71"/>
+      <c r="C222" s="71"/>
+      <c r="D222" s="71"/>
       <c r="E222" s="57" t="s">
         <v>498</v>
       </c>
@@ -12427,12 +13501,12 @@
       <c r="G231" s="52"/>
     </row>
     <row r="232" spans="1:7" ht="12.75">
-      <c r="A232" s="61" t="s">
+      <c r="A232" s="70" t="s">
         <v>343</v>
       </c>
-      <c r="B232" s="62"/>
-      <c r="C232" s="62"/>
-      <c r="D232" s="62"/>
+      <c r="B232" s="71"/>
+      <c r="C232" s="71"/>
+      <c r="D232" s="71"/>
       <c r="E232" s="57" t="s">
         <v>498</v>
       </c>
@@ -12661,12 +13735,12 @@
       <c r="G245" s="52"/>
     </row>
     <row r="246" spans="1:7" ht="12.75">
-      <c r="A246" s="61" t="s">
+      <c r="A246" s="70" t="s">
         <v>364</v>
       </c>
-      <c r="B246" s="62"/>
-      <c r="C246" s="62"/>
-      <c r="D246" s="62"/>
+      <c r="B246" s="71"/>
+      <c r="C246" s="71"/>
+      <c r="D246" s="71"/>
       <c r="E246" s="57" t="s">
         <v>498</v>
       </c>
@@ -12946,12 +14020,12 @@
       <c r="G262" s="52"/>
     </row>
     <row r="263" spans="1:7" ht="12.75">
-      <c r="A263" s="61" t="s">
+      <c r="A263" s="70" t="s">
         <v>393</v>
       </c>
-      <c r="B263" s="62"/>
-      <c r="C263" s="62"/>
-      <c r="D263" s="62"/>
+      <c r="B263" s="71"/>
+      <c r="C263" s="71"/>
+      <c r="D263" s="71"/>
       <c r="E263" s="57" t="s">
         <v>498</v>
       </c>
@@ -13112,12 +14186,12 @@
       <c r="G272" s="52"/>
     </row>
     <row r="273" spans="1:7" ht="12.75">
-      <c r="A273" s="61" t="s">
+      <c r="A273" s="70" t="s">
         <v>399</v>
       </c>
-      <c r="B273" s="62"/>
-      <c r="C273" s="62"/>
-      <c r="D273" s="62"/>
+      <c r="B273" s="71"/>
+      <c r="C273" s="71"/>
+      <c r="D273" s="71"/>
       <c r="E273" s="57" t="s">
         <v>498</v>
       </c>
@@ -13261,12 +14335,12 @@
       <c r="G281" s="52"/>
     </row>
     <row r="282" spans="1:7" ht="12.75">
-      <c r="A282" s="61" t="s">
+      <c r="A282" s="70" t="s">
         <v>400</v>
       </c>
-      <c r="B282" s="62"/>
-      <c r="C282" s="62"/>
-      <c r="D282" s="62"/>
+      <c r="B282" s="71"/>
+      <c r="C282" s="71"/>
+      <c r="D282" s="71"/>
       <c r="E282" s="57" t="s">
         <v>498</v>
       </c>
@@ -13495,12 +14569,12 @@
       <c r="G295" s="52"/>
     </row>
     <row r="296" spans="1:7" ht="12.75">
-      <c r="A296" s="61" t="s">
+      <c r="A296" s="70" t="s">
         <v>408</v>
       </c>
-      <c r="B296" s="62"/>
-      <c r="C296" s="62"/>
-      <c r="D296" s="62"/>
+      <c r="B296" s="71"/>
+      <c r="C296" s="71"/>
+      <c r="D296" s="71"/>
       <c r="E296" s="57" t="s">
         <v>498</v>
       </c>
@@ -13746,12 +14820,12 @@
       <c r="G310" s="52"/>
     </row>
     <row r="311" spans="1:7" ht="12.75">
-      <c r="A311" s="61" t="s">
+      <c r="A311" s="70" t="s">
         <v>414</v>
       </c>
-      <c r="B311" s="62"/>
-      <c r="C311" s="62"/>
-      <c r="D311" s="62"/>
+      <c r="B311" s="71"/>
+      <c r="C311" s="71"/>
+      <c r="D311" s="71"/>
       <c r="E311" s="57" t="s">
         <v>498</v>
       </c>
@@ -13912,12 +14986,12 @@
       <c r="G320" s="52"/>
     </row>
     <row r="321" spans="1:7" ht="12.75">
-      <c r="A321" s="61" t="s">
+      <c r="A321" s="70" t="s">
         <v>416</v>
       </c>
-      <c r="B321" s="62"/>
-      <c r="C321" s="62"/>
-      <c r="D321" s="62"/>
+      <c r="B321" s="71"/>
+      <c r="C321" s="71"/>
+      <c r="D321" s="71"/>
       <c r="E321" s="57" t="s">
         <v>498</v>
       </c>
@@ -14061,12 +15135,12 @@
       <c r="G329" s="52"/>
     </row>
     <row r="330" spans="1:7" ht="12.75">
-      <c r="A330" s="61" t="s">
+      <c r="A330" s="70" t="s">
         <v>417</v>
       </c>
-      <c r="B330" s="62"/>
-      <c r="C330" s="62"/>
-      <c r="D330" s="62"/>
+      <c r="B330" s="71"/>
+      <c r="C330" s="71"/>
+      <c r="D330" s="71"/>
       <c r="E330" s="57" t="s">
         <v>498</v>
       </c>
@@ -14278,12 +15352,12 @@
       <c r="G342" s="52"/>
     </row>
     <row r="343" spans="1:7" ht="12.75">
-      <c r="A343" s="61" t="s">
+      <c r="A343" s="70" t="s">
         <v>419</v>
       </c>
-      <c r="B343" s="62"/>
-      <c r="C343" s="62"/>
-      <c r="D343" s="62"/>
+      <c r="B343" s="71"/>
+      <c r="C343" s="71"/>
+      <c r="D343" s="71"/>
       <c r="E343" s="57" t="s">
         <v>498</v>
       </c>
@@ -14529,12 +15603,12 @@
       <c r="G357" s="52"/>
     </row>
     <row r="358" spans="1:7" ht="12.75">
-      <c r="A358" s="61" t="s">
+      <c r="A358" s="70" t="s">
         <v>422</v>
       </c>
-      <c r="B358" s="62"/>
-      <c r="C358" s="62"/>
-      <c r="D358" s="62"/>
+      <c r="B358" s="71"/>
+      <c r="C358" s="71"/>
+      <c r="D358" s="71"/>
       <c r="E358" s="57" t="s">
         <v>498</v>
       </c>
@@ -14695,12 +15769,12 @@
       <c r="G367" s="52"/>
     </row>
     <row r="368" spans="1:7" ht="12.75">
-      <c r="A368" s="61" t="s">
+      <c r="A368" s="70" t="s">
         <v>426</v>
       </c>
-      <c r="B368" s="62"/>
-      <c r="C368" s="62"/>
-      <c r="D368" s="62"/>
+      <c r="B368" s="71"/>
+      <c r="C368" s="71"/>
+      <c r="D368" s="71"/>
       <c r="E368" s="57" t="s">
         <v>498</v>
       </c>
@@ -14861,12 +15935,12 @@
       <c r="G377" s="52"/>
     </row>
     <row r="378" spans="1:7" ht="12.75">
-      <c r="A378" s="61" t="s">
+      <c r="A378" s="70" t="s">
         <v>429</v>
       </c>
-      <c r="B378" s="62"/>
-      <c r="C378" s="62"/>
-      <c r="D378" s="62"/>
+      <c r="B378" s="71"/>
+      <c r="C378" s="71"/>
+      <c r="D378" s="71"/>
       <c r="E378" s="57" t="s">
         <v>498</v>
       </c>
@@ -15112,12 +16186,12 @@
       <c r="G392" s="52"/>
     </row>
     <row r="393" spans="1:25" ht="12.75">
-      <c r="A393" s="63" t="s">
+      <c r="A393" s="72" t="s">
         <v>432</v>
       </c>
-      <c r="B393" s="62"/>
-      <c r="C393" s="62"/>
-      <c r="D393" s="62"/>
+      <c r="B393" s="71"/>
+      <c r="C393" s="71"/>
+      <c r="D393" s="71"/>
       <c r="E393" s="57" t="s">
         <v>499</v>
       </c>
@@ -15279,12 +16353,12 @@
       <c r="G401" s="52"/>
     </row>
     <row r="402" spans="1:25" ht="12.75">
-      <c r="A402" s="63" t="s">
+      <c r="A402" s="72" t="s">
         <v>449</v>
       </c>
-      <c r="B402" s="62"/>
-      <c r="C402" s="62"/>
-      <c r="D402" s="62"/>
+      <c r="B402" s="71"/>
+      <c r="C402" s="71"/>
+      <c r="D402" s="71"/>
       <c r="E402" s="57" t="s">
         <v>499</v>
       </c>
@@ -15446,12 +16520,12 @@
       <c r="G410" s="52"/>
     </row>
     <row r="411" spans="1:25" ht="12.75">
-      <c r="A411" s="63" t="s">
+      <c r="A411" s="72" t="s">
         <v>464</v>
       </c>
-      <c r="B411" s="62"/>
-      <c r="C411" s="62"/>
-      <c r="D411" s="62"/>
+      <c r="B411" s="71"/>
+      <c r="C411" s="71"/>
+      <c r="D411" s="71"/>
       <c r="E411" s="57" t="s">
         <v>499</v>
       </c>
@@ -15679,174 +16753,764 @@
       <c r="G423" s="52"/>
     </row>
     <row r="424" spans="1:7" ht="12.75">
-      <c r="A424" s="36"/>
+      <c r="A424" s="73">
+        <v>7001</v>
+      </c>
+      <c r="B424" s="81" t="s">
+        <v>515</v>
+      </c>
+      <c r="C424" s="81"/>
+      <c r="D424" s="81"/>
+      <c r="E424" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F424" s="52"/>
+      <c r="G424" s="52"/>
     </row>
     <row r="425" spans="1:7" ht="12.75">
-      <c r="A425" s="36"/>
+      <c r="A425" s="74" t="s">
+        <v>516</v>
+      </c>
+      <c r="B425" s="75" t="s">
+        <v>517</v>
+      </c>
+      <c r="C425" s="76"/>
+      <c r="D425" s="76"/>
+      <c r="E425" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F425" s="52"/>
+      <c r="G425" s="52"/>
     </row>
     <row r="426" spans="1:7" ht="12.75">
-      <c r="A426" s="36"/>
+      <c r="A426" s="74" t="s">
+        <v>518</v>
+      </c>
+      <c r="B426" s="76" t="s">
+        <v>519</v>
+      </c>
+      <c r="C426" s="77" t="s">
+        <v>520</v>
+      </c>
+      <c r="D426" s="76"/>
+      <c r="E426" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F426" s="52"/>
+      <c r="G426" s="52"/>
     </row>
     <row r="427" spans="1:7" ht="12.75">
-      <c r="A427" s="36"/>
+      <c r="A427" s="74" t="s">
+        <v>521</v>
+      </c>
+      <c r="B427" s="76" t="s">
+        <v>522</v>
+      </c>
+      <c r="C427" s="76" t="s">
+        <v>523</v>
+      </c>
+      <c r="D427" s="76"/>
+      <c r="E427" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F427" s="52"/>
+      <c r="G427" s="52"/>
     </row>
     <row r="428" spans="1:7" ht="12.75">
-      <c r="A428" s="36"/>
+      <c r="A428" s="74" t="s">
+        <v>524</v>
+      </c>
+      <c r="B428" s="76" t="s">
+        <v>525</v>
+      </c>
+      <c r="C428" s="76" t="s">
+        <v>526</v>
+      </c>
+      <c r="D428" s="76"/>
+      <c r="E428" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F428" s="52"/>
+      <c r="G428" s="52"/>
     </row>
     <row r="429" spans="1:7" ht="12.75">
-      <c r="A429" s="36"/>
+      <c r="A429" s="74" t="s">
+        <v>527</v>
+      </c>
+      <c r="B429" s="77" t="s">
+        <v>528</v>
+      </c>
+      <c r="C429" s="76" t="s">
+        <v>529</v>
+      </c>
+      <c r="D429" s="76"/>
+      <c r="E429" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F429" s="52"/>
+      <c r="G429" s="52"/>
     </row>
     <row r="430" spans="1:7" ht="12.75">
-      <c r="A430" s="36"/>
+      <c r="A430" s="74" t="s">
+        <v>530</v>
+      </c>
+      <c r="B430" s="77" t="s">
+        <v>531</v>
+      </c>
+      <c r="C430" s="76"/>
+      <c r="D430" s="76"/>
+      <c r="E430" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F430" s="52"/>
+      <c r="G430" s="52"/>
     </row>
     <row r="431" spans="1:7" ht="12.75">
-      <c r="A431" s="36"/>
+      <c r="A431" s="78" t="s">
+        <v>532</v>
+      </c>
+      <c r="B431" s="81" t="s">
+        <v>533</v>
+      </c>
+      <c r="C431" s="81"/>
+      <c r="D431" s="81"/>
+      <c r="E431" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F431" s="52"/>
+      <c r="G431" s="52"/>
     </row>
     <row r="432" spans="1:7" ht="12.75">
-      <c r="A432" s="36"/>
-    </row>
-    <row r="433" spans="1:1" ht="12.75">
-      <c r="A433" s="36"/>
-    </row>
-    <row r="434" spans="1:1" ht="12.75">
-      <c r="A434" s="36"/>
-    </row>
-    <row r="435" spans="1:1" ht="12.75">
-      <c r="A435" s="36"/>
-    </row>
-    <row r="436" spans="1:1" ht="12.75">
-      <c r="A436" s="36"/>
-    </row>
-    <row r="437" spans="1:1" ht="12.75">
-      <c r="A437" s="36"/>
-    </row>
-    <row r="438" spans="1:1" ht="12.75">
-      <c r="A438" s="36"/>
-    </row>
-    <row r="439" spans="1:1" ht="12.75">
-      <c r="A439" s="36"/>
-    </row>
-    <row r="440" spans="1:1" ht="12.75">
-      <c r="A440" s="36"/>
-    </row>
-    <row r="441" spans="1:1" ht="12.75">
-      <c r="A441" s="36"/>
-    </row>
-    <row r="442" spans="1:1" ht="12.75">
-      <c r="A442" s="36"/>
-    </row>
-    <row r="443" spans="1:1" ht="12.75">
-      <c r="A443" s="36"/>
-    </row>
-    <row r="444" spans="1:1" ht="12.75">
-      <c r="A444" s="36"/>
-    </row>
-    <row r="445" spans="1:1" ht="12.75">
-      <c r="A445" s="36"/>
-    </row>
-    <row r="446" spans="1:1" ht="12.75">
-      <c r="A446" s="36"/>
-    </row>
-    <row r="447" spans="1:1" ht="12.75">
-      <c r="A447" s="36"/>
-    </row>
-    <row r="448" spans="1:1" ht="12.75">
-      <c r="A448" s="36"/>
-    </row>
-    <row r="449" spans="1:1" ht="12.75">
-      <c r="A449" s="36"/>
-    </row>
-    <row r="450" spans="1:1" ht="12.75">
-      <c r="A450" s="36"/>
-    </row>
-    <row r="451" spans="1:1" ht="12.75">
-      <c r="A451" s="36"/>
-    </row>
-    <row r="452" spans="1:1" ht="12.75">
-      <c r="A452" s="36"/>
-    </row>
-    <row r="453" spans="1:1" ht="12.75">
-      <c r="A453" s="36"/>
-    </row>
-    <row r="454" spans="1:1" ht="12.75">
-      <c r="A454" s="36"/>
-    </row>
-    <row r="455" spans="1:1" ht="12.75">
-      <c r="A455" s="36"/>
-    </row>
-    <row r="456" spans="1:1" ht="12.75">
-      <c r="A456" s="36"/>
-    </row>
-    <row r="457" spans="1:1" ht="12.75">
-      <c r="A457" s="36"/>
-    </row>
-    <row r="458" spans="1:1" ht="12.75">
-      <c r="A458" s="36"/>
-    </row>
-    <row r="459" spans="1:1" ht="12.75">
-      <c r="A459" s="36"/>
-    </row>
-    <row r="460" spans="1:1" ht="12.75">
-      <c r="A460" s="36"/>
-    </row>
-    <row r="461" spans="1:1" ht="12.75">
-      <c r="A461" s="36"/>
-    </row>
-    <row r="462" spans="1:1" ht="12.75">
-      <c r="A462" s="36"/>
-    </row>
-    <row r="463" spans="1:1" ht="12.75">
-      <c r="A463" s="36"/>
-    </row>
-    <row r="464" spans="1:1" ht="12.75">
-      <c r="A464" s="36"/>
-    </row>
-    <row r="465" spans="1:1" ht="12.75">
-      <c r="A465" s="36"/>
-    </row>
-    <row r="466" spans="1:1" ht="12.75">
-      <c r="A466" s="36"/>
-    </row>
-    <row r="467" spans="1:1" ht="12.75">
-      <c r="A467" s="36"/>
-    </row>
-    <row r="468" spans="1:1" ht="12.75">
-      <c r="A468" s="36"/>
-    </row>
-    <row r="469" spans="1:1" ht="12.75">
+      <c r="A432" s="74" t="s">
+        <v>534</v>
+      </c>
+      <c r="B432" s="77" t="s">
+        <v>535</v>
+      </c>
+      <c r="C432" s="76" t="s">
+        <v>536</v>
+      </c>
+      <c r="D432" s="76"/>
+      <c r="E432" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F432" s="52"/>
+      <c r="G432" s="52"/>
+    </row>
+    <row r="433" spans="1:7" ht="12.75">
+      <c r="A433" s="74" t="s">
+        <v>537</v>
+      </c>
+      <c r="B433" s="75" t="s">
+        <v>538</v>
+      </c>
+      <c r="C433" s="75" t="s">
+        <v>539</v>
+      </c>
+      <c r="D433" s="75"/>
+      <c r="E433" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F433" s="52"/>
+      <c r="G433" s="52"/>
+    </row>
+    <row r="434" spans="1:7" ht="12.75">
+      <c r="A434" s="74" t="s">
+        <v>540</v>
+      </c>
+      <c r="B434" s="75" t="s">
+        <v>541</v>
+      </c>
+      <c r="C434" s="75" t="s">
+        <v>542</v>
+      </c>
+      <c r="D434" s="75"/>
+      <c r="E434" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F434" s="52"/>
+      <c r="G434" s="52"/>
+    </row>
+    <row r="435" spans="1:7" ht="12.75">
+      <c r="A435" s="74" t="s">
+        <v>543</v>
+      </c>
+      <c r="B435" s="75" t="s">
+        <v>544</v>
+      </c>
+      <c r="C435" s="75" t="s">
+        <v>545</v>
+      </c>
+      <c r="D435" s="75"/>
+      <c r="E435" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F435" s="52"/>
+      <c r="G435" s="52"/>
+    </row>
+    <row r="436" spans="1:7" ht="12.75">
+      <c r="A436" s="74" t="s">
+        <v>546</v>
+      </c>
+      <c r="B436" s="75" t="s">
+        <v>547</v>
+      </c>
+      <c r="C436" s="75"/>
+      <c r="D436" s="75"/>
+      <c r="E436" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F436" s="52"/>
+      <c r="G436" s="52"/>
+    </row>
+    <row r="437" spans="1:7" ht="12.75">
+      <c r="A437" s="78" t="s">
+        <v>548</v>
+      </c>
+      <c r="B437" s="82" t="s">
+        <v>619</v>
+      </c>
+      <c r="C437" s="82"/>
+      <c r="D437" s="82"/>
+      <c r="E437" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F437" s="52"/>
+      <c r="G437" s="52"/>
+    </row>
+    <row r="438" spans="1:7" ht="12.75">
+      <c r="A438" s="74" t="s">
+        <v>549</v>
+      </c>
+      <c r="B438" s="75" t="s">
+        <v>550</v>
+      </c>
+      <c r="C438" s="75"/>
+      <c r="D438" s="75"/>
+      <c r="E438" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F438" s="52"/>
+      <c r="G438" s="52"/>
+    </row>
+    <row r="439" spans="1:7" ht="12.75">
+      <c r="A439" s="74" t="s">
+        <v>551</v>
+      </c>
+      <c r="B439" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="C439" s="75" t="s">
+        <v>520</v>
+      </c>
+      <c r="D439" s="75"/>
+      <c r="E439" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F439" s="52"/>
+      <c r="G439" s="52"/>
+    </row>
+    <row r="440" spans="1:7" ht="12.75">
+      <c r="A440" s="74" t="s">
+        <v>553</v>
+      </c>
+      <c r="B440" s="75" t="s">
+        <v>554</v>
+      </c>
+      <c r="C440" s="75" t="s">
+        <v>555</v>
+      </c>
+      <c r="D440" s="75"/>
+      <c r="E440" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F440" s="52"/>
+      <c r="G440" s="52"/>
+    </row>
+    <row r="441" spans="1:7" ht="12.75">
+      <c r="A441" s="74" t="s">
+        <v>556</v>
+      </c>
+      <c r="B441" s="75" t="s">
+        <v>535</v>
+      </c>
+      <c r="C441" s="75" t="s">
+        <v>557</v>
+      </c>
+      <c r="D441" s="75"/>
+      <c r="E441" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F441" s="52"/>
+      <c r="G441" s="52"/>
+    </row>
+    <row r="442" spans="1:7" ht="12.75">
+      <c r="A442" s="74" t="s">
+        <v>558</v>
+      </c>
+      <c r="B442" s="75" t="s">
+        <v>559</v>
+      </c>
+      <c r="C442" s="75" t="s">
+        <v>560</v>
+      </c>
+      <c r="D442" s="75"/>
+      <c r="E442" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F442" s="52"/>
+      <c r="G442" s="52"/>
+    </row>
+    <row r="443" spans="1:7" ht="12.75">
+      <c r="A443" s="74" t="s">
+        <v>561</v>
+      </c>
+      <c r="B443" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="C443" s="75" t="s">
+        <v>560</v>
+      </c>
+      <c r="D443" s="75"/>
+      <c r="E443" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F443" s="52"/>
+      <c r="G443" s="52"/>
+    </row>
+    <row r="444" spans="1:7" ht="12.75">
+      <c r="A444" s="74" t="s">
+        <v>563</v>
+      </c>
+      <c r="B444" s="75" t="s">
+        <v>564</v>
+      </c>
+      <c r="C444" s="75" t="s">
+        <v>565</v>
+      </c>
+      <c r="D444" s="75"/>
+      <c r="E444" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F444" s="52"/>
+      <c r="G444" s="52"/>
+    </row>
+    <row r="445" spans="1:7" ht="12.75">
+      <c r="A445" s="74" t="s">
+        <v>566</v>
+      </c>
+      <c r="B445" s="75" t="s">
+        <v>567</v>
+      </c>
+      <c r="C445" s="75" t="s">
+        <v>568</v>
+      </c>
+      <c r="D445" s="75"/>
+      <c r="E445" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F445" s="52"/>
+      <c r="G445" s="52"/>
+    </row>
+    <row r="446" spans="1:7" ht="12.75">
+      <c r="A446" s="74" t="s">
+        <v>569</v>
+      </c>
+      <c r="B446" s="75" t="s">
+        <v>547</v>
+      </c>
+      <c r="C446" s="75"/>
+      <c r="D446" s="75"/>
+      <c r="E446" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F446" s="52"/>
+      <c r="G446" s="52"/>
+    </row>
+    <row r="447" spans="1:7" ht="12.75">
+      <c r="A447" s="78" t="s">
+        <v>570</v>
+      </c>
+      <c r="B447" s="82" t="s">
+        <v>571</v>
+      </c>
+      <c r="C447" s="82"/>
+      <c r="D447" s="82"/>
+      <c r="E447" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F447" s="52"/>
+      <c r="G447" s="52"/>
+    </row>
+    <row r="448" spans="1:7" ht="12.75">
+      <c r="A448" s="74" t="s">
+        <v>572</v>
+      </c>
+      <c r="B448" s="75" t="s">
+        <v>573</v>
+      </c>
+      <c r="C448" s="75"/>
+      <c r="D448" s="75"/>
+      <c r="E448" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F448" s="52"/>
+      <c r="G448" s="52"/>
+    </row>
+    <row r="449" spans="1:7" ht="12.75">
+      <c r="A449" s="74" t="s">
+        <v>574</v>
+      </c>
+      <c r="B449" s="75" t="s">
+        <v>575</v>
+      </c>
+      <c r="C449" s="75"/>
+      <c r="D449" s="75"/>
+      <c r="E449" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F449" s="52"/>
+      <c r="G449" s="52"/>
+    </row>
+    <row r="450" spans="1:7" ht="25.5">
+      <c r="A450" s="74" t="s">
+        <v>576</v>
+      </c>
+      <c r="B450" s="79" t="s">
+        <v>577</v>
+      </c>
+      <c r="C450" s="75" t="s">
+        <v>578</v>
+      </c>
+      <c r="D450" s="75"/>
+      <c r="E450" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F450" s="52"/>
+      <c r="G450" s="52"/>
+    </row>
+    <row r="451" spans="1:7" ht="12.75">
+      <c r="A451" s="74" t="s">
+        <v>579</v>
+      </c>
+      <c r="B451" s="75" t="s">
+        <v>562</v>
+      </c>
+      <c r="C451" s="75" t="s">
+        <v>580</v>
+      </c>
+      <c r="D451" s="75"/>
+      <c r="E451" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F451" s="52"/>
+      <c r="G451" s="52"/>
+    </row>
+    <row r="452" spans="1:7" ht="12.75">
+      <c r="A452" s="74" t="s">
+        <v>581</v>
+      </c>
+      <c r="B452" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="C452" s="75"/>
+      <c r="D452" s="75"/>
+      <c r="E452" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F452" s="52"/>
+      <c r="G452" s="52"/>
+    </row>
+    <row r="453" spans="1:7" ht="12.75">
+      <c r="A453" s="78" t="s">
+        <v>582</v>
+      </c>
+      <c r="B453" s="82" t="s">
+        <v>583</v>
+      </c>
+      <c r="C453" s="82"/>
+      <c r="D453" s="82"/>
+      <c r="E453" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F453" s="52"/>
+      <c r="G453" s="52"/>
+    </row>
+    <row r="454" spans="1:7" ht="12.75">
+      <c r="A454" s="74" t="s">
+        <v>584</v>
+      </c>
+      <c r="B454" s="75" t="s">
+        <v>585</v>
+      </c>
+      <c r="C454" s="75"/>
+      <c r="D454" s="75"/>
+      <c r="E454" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F454" s="52"/>
+      <c r="G454" s="52"/>
+    </row>
+    <row r="455" spans="1:7" ht="12.75">
+      <c r="A455" s="74" t="s">
+        <v>586</v>
+      </c>
+      <c r="B455" s="75" t="s">
+        <v>552</v>
+      </c>
+      <c r="C455" s="75"/>
+      <c r="D455" s="75"/>
+      <c r="E455" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F455" s="52"/>
+      <c r="G455" s="52"/>
+    </row>
+    <row r="456" spans="1:7" ht="12.75">
+      <c r="A456" s="74" t="s">
+        <v>587</v>
+      </c>
+      <c r="B456" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="C456" s="75" t="s">
+        <v>589</v>
+      </c>
+      <c r="D456" s="75"/>
+      <c r="E456" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F456" s="52"/>
+      <c r="G456" s="52"/>
+    </row>
+    <row r="457" spans="1:7" ht="12.75">
+      <c r="A457" s="74" t="s">
+        <v>590</v>
+      </c>
+      <c r="B457" s="75" t="s">
+        <v>591</v>
+      </c>
+      <c r="C457" s="75" t="s">
+        <v>592</v>
+      </c>
+      <c r="D457" s="75"/>
+      <c r="E457" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F457" s="52"/>
+      <c r="G457" s="52"/>
+    </row>
+    <row r="458" spans="1:7" ht="12.75">
+      <c r="A458" s="74" t="s">
+        <v>593</v>
+      </c>
+      <c r="B458" s="75" t="s">
+        <v>594</v>
+      </c>
+      <c r="C458" s="75" t="s">
+        <v>595</v>
+      </c>
+      <c r="D458" s="75"/>
+      <c r="E458" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F458" s="52"/>
+      <c r="G458" s="52"/>
+    </row>
+    <row r="459" spans="1:7" ht="12.75">
+      <c r="A459" s="74" t="s">
+        <v>596</v>
+      </c>
+      <c r="B459" s="75" t="s">
+        <v>597</v>
+      </c>
+      <c r="C459" s="75" t="s">
+        <v>598</v>
+      </c>
+      <c r="D459" s="75"/>
+      <c r="E459" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F459" s="52"/>
+      <c r="G459" s="52"/>
+    </row>
+    <row r="460" spans="1:7" ht="12.75">
+      <c r="A460" s="74" t="s">
+        <v>599</v>
+      </c>
+      <c r="B460" s="75" t="s">
+        <v>600</v>
+      </c>
+      <c r="C460" s="75" t="s">
+        <v>601</v>
+      </c>
+      <c r="D460" s="75"/>
+      <c r="E460" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F460" s="52"/>
+      <c r="G460" s="52"/>
+    </row>
+    <row r="461" spans="1:7" ht="12.75">
+      <c r="A461" s="74" t="s">
+        <v>602</v>
+      </c>
+      <c r="B461" s="75" t="s">
+        <v>594</v>
+      </c>
+      <c r="C461" s="75" t="s">
+        <v>603</v>
+      </c>
+      <c r="D461" s="75"/>
+      <c r="E461" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F461" s="52"/>
+      <c r="G461" s="52"/>
+    </row>
+    <row r="462" spans="1:7" ht="12.75">
+      <c r="A462" s="74" t="s">
+        <v>604</v>
+      </c>
+      <c r="B462" s="75" t="s">
+        <v>531</v>
+      </c>
+      <c r="C462" s="75"/>
+      <c r="D462" s="75"/>
+      <c r="E462" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F462" s="52"/>
+      <c r="G462" s="52"/>
+    </row>
+    <row r="463" spans="1:7" ht="12.75">
+      <c r="A463" s="78" t="s">
+        <v>605</v>
+      </c>
+      <c r="B463" s="82" t="s">
+        <v>606</v>
+      </c>
+      <c r="C463" s="82"/>
+      <c r="D463" s="82"/>
+      <c r="E463" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F463" s="52"/>
+      <c r="G463" s="52"/>
+    </row>
+    <row r="464" spans="1:7" ht="12.75">
+      <c r="A464" s="80" t="s">
+        <v>607</v>
+      </c>
+      <c r="B464" s="75" t="s">
+        <v>608</v>
+      </c>
+      <c r="C464" s="75"/>
+      <c r="D464" s="75"/>
+      <c r="E464" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F464" s="52"/>
+      <c r="G464" s="52"/>
+    </row>
+    <row r="465" spans="1:7" ht="12.75">
+      <c r="A465" s="80" t="s">
+        <v>609</v>
+      </c>
+      <c r="B465" s="75" t="s">
+        <v>610</v>
+      </c>
+      <c r="C465" s="75"/>
+      <c r="D465" s="75"/>
+      <c r="E465" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F465" s="52"/>
+      <c r="G465" s="52"/>
+    </row>
+    <row r="466" spans="1:7" ht="12.75">
+      <c r="A466" s="80" t="s">
+        <v>611</v>
+      </c>
+      <c r="B466" s="75" t="s">
+        <v>612</v>
+      </c>
+      <c r="C466" s="75"/>
+      <c r="D466" s="75"/>
+      <c r="E466" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F466" s="52"/>
+      <c r="G466" s="52"/>
+    </row>
+    <row r="467" spans="1:7" ht="12.75">
+      <c r="A467" s="80" t="s">
+        <v>613</v>
+      </c>
+      <c r="B467" s="75" t="s">
+        <v>614</v>
+      </c>
+      <c r="C467" s="75" t="s">
+        <v>615</v>
+      </c>
+      <c r="D467" s="75"/>
+      <c r="E467" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F467" s="52"/>
+      <c r="G467" s="52"/>
+    </row>
+    <row r="468" spans="1:7" ht="12.75">
+      <c r="A468" s="80" t="s">
+        <v>616</v>
+      </c>
+      <c r="B468" s="75" t="s">
+        <v>617</v>
+      </c>
+      <c r="C468" s="75" t="s">
+        <v>618</v>
+      </c>
+      <c r="D468" s="75"/>
+      <c r="E468" s="57" t="s">
+        <v>620</v>
+      </c>
+      <c r="F468" s="52"/>
+      <c r="G468" s="52"/>
+    </row>
+    <row r="469" spans="1:7" ht="12.75">
       <c r="A469" s="36"/>
     </row>
-    <row r="470" spans="1:1" ht="12.75">
+    <row r="470" spans="1:7" ht="12.75">
       <c r="A470" s="36"/>
     </row>
-    <row r="471" spans="1:1" ht="12.75">
+    <row r="471" spans="1:7" ht="12.75">
       <c r="A471" s="36"/>
     </row>
-    <row r="472" spans="1:1" ht="12.75">
+    <row r="472" spans="1:7" ht="12.75">
       <c r="A472" s="36"/>
     </row>
-    <row r="473" spans="1:1" ht="12.75">
+    <row r="473" spans="1:7" ht="12.75">
       <c r="A473" s="36"/>
     </row>
-    <row r="474" spans="1:1" ht="12.75">
+    <row r="474" spans="1:7" ht="12.75">
       <c r="A474" s="36"/>
     </row>
-    <row r="475" spans="1:1" ht="12.75">
+    <row r="475" spans="1:7" ht="12.75">
       <c r="A475" s="36"/>
     </row>
-    <row r="476" spans="1:1" ht="12.75">
+    <row r="476" spans="1:7" ht="12.75">
       <c r="A476" s="36"/>
     </row>
-    <row r="477" spans="1:1" ht="12.75">
+    <row r="477" spans="1:7" ht="12.75">
       <c r="A477" s="36"/>
     </row>
-    <row r="478" spans="1:1" ht="12.75">
+    <row r="478" spans="1:7" ht="12.75">
       <c r="A478" s="36"/>
     </row>
-    <row r="479" spans="1:1" ht="12.75">
+    <row r="479" spans="1:7" ht="12.75">
       <c r="A479" s="36"/>
     </row>
-    <row r="480" spans="1:1" ht="12.75">
+    <row r="480" spans="1:7" ht="12.75">
       <c r="A480" s="36"/>
     </row>
     <row r="481" spans="1:1" ht="12.75">
@@ -17390,34 +19054,13 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A90:D90"/>
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A103:D103"/>
-    <mergeCell ref="A108:D108"/>
-    <mergeCell ref="A115:D115"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A43:D43"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A66:D66"/>
-    <mergeCell ref="A73:D73"/>
-    <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A82:D82"/>
-    <mergeCell ref="A86:D86"/>
-    <mergeCell ref="A117:D117"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="A194:D194"/>
-    <mergeCell ref="A222:D222"/>
-    <mergeCell ref="A212:D212"/>
-    <mergeCell ref="A163:D163"/>
-    <mergeCell ref="A169:D169"/>
-    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A246:D246"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A145:D145"/>
+    <mergeCell ref="A151:D151"/>
+    <mergeCell ref="A157:D157"/>
     <mergeCell ref="A393:D393"/>
     <mergeCell ref="A402:D402"/>
     <mergeCell ref="A411:D411"/>
@@ -17431,16 +19074,38 @@
     <mergeCell ref="A358:D358"/>
     <mergeCell ref="A368:D368"/>
     <mergeCell ref="A378:D378"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A246:D246"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A145:D145"/>
-    <mergeCell ref="A151:D151"/>
-    <mergeCell ref="A157:D157"/>
+    <mergeCell ref="A117:D117"/>
+    <mergeCell ref="A184:D184"/>
+    <mergeCell ref="A194:D194"/>
+    <mergeCell ref="A222:D222"/>
+    <mergeCell ref="A212:D212"/>
+    <mergeCell ref="A163:D163"/>
+    <mergeCell ref="A169:D169"/>
+    <mergeCell ref="A128:D128"/>
+    <mergeCell ref="A66:D66"/>
+    <mergeCell ref="A73:D73"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A82:D82"/>
+    <mergeCell ref="A86:D86"/>
+    <mergeCell ref="A43:D43"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A62:D62"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A90:D90"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A103:D103"/>
+    <mergeCell ref="A108:D108"/>
+    <mergeCell ref="A115:D115"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
